--- a/HW3/autogen/CUSignals.xlsx
+++ b/HW3/autogen/CUSignals.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\garre\Desktop\EE 188\HW2\autogen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\garre\Desktop\EE 188\HW3\autogen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208BA8D8-475C-45E2-A0A5-63C8C5DB21B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2660E3C2-B2A8-44EB-A889-82F4B57EF3FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14303" yWindow="-3945" windowWidth="24495" windowHeight="15675" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="1" r:id="rId1"/>
@@ -1279,7 +1279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1380,7 +1380,6 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1883,54 +1882,54 @@
   </sheetPr>
   <dimension ref="A1:AS126"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" zoomScale="69" zoomScaleNormal="103" workbookViewId="0">
+    <sheetView zoomScale="69" zoomScaleNormal="103" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="AL124" sqref="AL124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.86328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.73046875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.86328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.59765625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.59765625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.59765625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.59765625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.59765625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.73046875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="15.1328125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="17.59765625" style="2" customWidth="1"/>
-    <col min="12" max="15" width="18.59765625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="15.1328125" style="3" customWidth="1"/>
-    <col min="17" max="17" width="15.1328125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="17.59765625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="18.59765625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="36.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" style="2" customWidth="1"/>
+    <col min="12" max="15" width="18.5703125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="17.5703125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="18.5703125" style="3" customWidth="1"/>
     <col min="20" max="20" width="18" style="3" customWidth="1"/>
-    <col min="21" max="21" width="19.3984375" style="3" customWidth="1"/>
-    <col min="22" max="23" width="18.1328125" style="3" customWidth="1"/>
-    <col min="24" max="24" width="15.86328125" style="3" customWidth="1"/>
-    <col min="25" max="25" width="12.265625" style="3" customWidth="1"/>
-    <col min="26" max="26" width="14.86328125" style="3" customWidth="1"/>
-    <col min="27" max="27" width="18.1328125" style="3" customWidth="1"/>
-    <col min="28" max="28" width="14.265625" style="3" customWidth="1"/>
-    <col min="29" max="29" width="14.73046875" style="3" customWidth="1"/>
-    <col min="30" max="30" width="18.86328125" style="3" customWidth="1"/>
+    <col min="21" max="21" width="19.42578125" style="3" customWidth="1"/>
+    <col min="22" max="23" width="18.140625" style="3" customWidth="1"/>
+    <col min="24" max="24" width="15.85546875" style="3" customWidth="1"/>
+    <col min="25" max="25" width="12.28515625" style="3" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="3" customWidth="1"/>
+    <col min="27" max="27" width="18.140625" style="3" customWidth="1"/>
+    <col min="28" max="28" width="14.28515625" style="3" customWidth="1"/>
+    <col min="29" max="29" width="14.7109375" style="3" customWidth="1"/>
+    <col min="30" max="30" width="18.85546875" style="3" customWidth="1"/>
     <col min="31" max="31" width="13" style="3" customWidth="1"/>
     <col min="32" max="32" width="14" style="3" customWidth="1"/>
-    <col min="33" max="34" width="13.59765625" style="3" customWidth="1"/>
-    <col min="35" max="35" width="19.86328125" style="3" customWidth="1"/>
-    <col min="36" max="37" width="13.59765625" style="3" customWidth="1"/>
-    <col min="38" max="38" width="25.1328125" style="3" customWidth="1"/>
-    <col min="39" max="39" width="13.59765625" customWidth="1"/>
-    <col min="40" max="40" width="13.59765625" style="4" customWidth="1"/>
-    <col min="41" max="41" width="16.73046875" customWidth="1"/>
-    <col min="42" max="42" width="15.3984375" customWidth="1"/>
-    <col min="43" max="43" width="12.1328125" customWidth="1"/>
-    <col min="44" max="45" width="16.86328125" customWidth="1"/>
+    <col min="33" max="34" width="13.5703125" style="3" customWidth="1"/>
+    <col min="35" max="35" width="19.85546875" style="3" customWidth="1"/>
+    <col min="36" max="37" width="13.5703125" style="3" customWidth="1"/>
+    <col min="38" max="38" width="25.140625" style="3" customWidth="1"/>
+    <col min="39" max="39" width="13.5703125" customWidth="1"/>
+    <col min="40" max="40" width="13.5703125" style="4" customWidth="1"/>
+    <col min="41" max="41" width="16.7109375" customWidth="1"/>
+    <col min="42" max="42" width="15.42578125" customWidth="1"/>
+    <col min="43" max="43" width="12.140625" customWidth="1"/>
+    <col min="44" max="45" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2067,7 +2066,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="2" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="str">
         <f>ALU!A2</f>
         <v>OpMOV_Imm_To_Rn</v>
@@ -2249,7 +2248,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="3" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="str">
         <f>ALU!A3</f>
         <v>OpMOVW_At_Disp_PC_To_Rn</v>
@@ -2431,7 +2430,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="4" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="str">
         <f>ALU!A4</f>
         <v>OpMOVL_At_Disp_PC_To_Rn</v>
@@ -2613,7 +2612,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="5" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="str">
         <f>ALU!A5</f>
         <v>OpMOV_Rm_To_Rn</v>
@@ -2795,7 +2794,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="6" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="str">
         <f>ALU!A6</f>
         <v>OpMOVB_Rm_To_At_Rn</v>
@@ -2977,7 +2976,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="7" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="str">
         <f>ALU!A7</f>
         <v>OpMOVW_Rm_To_At_Rn</v>
@@ -3159,7 +3158,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="8" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="str">
         <f>ALU!A8</f>
         <v>OpMOVL_Rm_To_At_Rn</v>
@@ -3341,7 +3340,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="9" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="str">
         <f>ALU!A9</f>
         <v>OpMOVB_At_Rm_To_Rn</v>
@@ -3523,7 +3522,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="10" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="str">
         <f>ALU!A10</f>
         <v>OpMOVW_At_Rm_To_Rn</v>
@@ -3705,7 +3704,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="11" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="str">
         <f>ALU!A11</f>
         <v>OpMOVL_At_Rm_Rn</v>
@@ -3887,7 +3886,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="12" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="str">
         <f>ALU!A12</f>
         <v>OpMOVB_Rm_To_At_Dec_Rn</v>
@@ -4069,7 +4068,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="13" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="str">
         <f>ALU!A13</f>
         <v>OpMOVW_Rm_To_At_Dec_Rn</v>
@@ -4251,7 +4250,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="14" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="str">
         <f>ALU!A14</f>
         <v>OpMOVL_Rm_To_At_Dec_Rn</v>
@@ -4433,7 +4432,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="15" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="str">
         <f>ALU!A15</f>
         <v>OpMOVB_At_Rm_Inc_To_Rn</v>
@@ -4615,7 +4614,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="16" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="str">
         <f>ALU!A16</f>
         <v>OpMOVW_At_Rm_Inc_To_Rn</v>
@@ -4797,7 +4796,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="17" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="str">
         <f>ALU!A17</f>
         <v>OpMOVL_At_Rm_Inc_To_Rn</v>
@@ -4979,7 +4978,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="18" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="str">
         <f>ALU!A18</f>
         <v>OpMOVB_R0_To_At_Disp_Rn</v>
@@ -5161,7 +5160,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="19" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="str">
         <f>ALU!A19</f>
         <v>OpMOVW_R0_To_At_Disp_Rn</v>
@@ -5343,7 +5342,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="20" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="str">
         <f>ALU!A20</f>
         <v>OpMOVL_R0_To_At_Disp_Rn</v>
@@ -5525,7 +5524,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="21" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="str">
         <f>ALU!A21</f>
         <v>OpMOVB_At_Disp_Rm_To_R0</v>
@@ -5707,7 +5706,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="22" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="str">
         <f>ALU!A22</f>
         <v>OpMOVW_At_Disp_Rm_To_R0</v>
@@ -5889,7 +5888,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="23" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="str">
         <f>ALU!A23</f>
         <v>OpMOVL_At_Disp_Rm_To_Rn</v>
@@ -6071,7 +6070,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="24" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="str">
         <f>ALU!A24</f>
         <v>OpMOVB_Rm_To_At_R0_Rn</v>
@@ -6253,7 +6252,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="25" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="str">
         <f>ALU!A25</f>
         <v>OpMOVW_Rm_To_At_R0_Rn</v>
@@ -6435,7 +6434,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="26" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="str">
         <f>ALU!A26</f>
         <v>OpMOVL_Rm_To_At_R0_Rn</v>
@@ -6617,7 +6616,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="27" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="str">
         <f>ALU!A27</f>
         <v>OpMOVB_At_R0_Rm_To_Rn</v>
@@ -6799,7 +6798,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="28" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="str">
         <f>ALU!A28</f>
         <v>OpMOVW_At_R0_Rm_To_Rn</v>
@@ -6981,7 +6980,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="29" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="str">
         <f>ALU!A29</f>
         <v>OpMOVL_At_R0_Rm_To_Rn</v>
@@ -7163,7 +7162,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="30" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="str">
         <f>ALU!A30</f>
         <v>OpMOVB_R0_To_At_Disp_GBR</v>
@@ -7345,7 +7344,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="31" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="str">
         <f>ALU!A31</f>
         <v>OpMOVW_R0_To_At_Disp_GBR</v>
@@ -7527,7 +7526,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="32" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="str">
         <f>ALU!A32</f>
         <v>OpMOVL_R0_To_At_Disp_GBR</v>
@@ -7709,7 +7708,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="33" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="str">
         <f>ALU!A33</f>
         <v>OpMOVB_At_Disp_GBR_To_R0</v>
@@ -7891,7 +7890,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="34" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="str">
         <f>ALU!A34</f>
         <v>OpMOVW_At_Disp_GBR_To_R0</v>
@@ -8073,7 +8072,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="35" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="str">
         <f>ALU!A35</f>
         <v>OpMOVL_At_Disp_GBR_To_R0</v>
@@ -8255,7 +8254,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="36" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="str">
         <f>ALU!A36</f>
         <v>OpMOVA</v>
@@ -8437,7 +8436,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="37" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="str">
         <f>ALU!A37</f>
         <v>OpMOVT</v>
@@ -8619,7 +8618,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="38" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="str">
         <f>ALU!A38</f>
         <v>OpSwapB</v>
@@ -8801,7 +8800,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="39" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="str">
         <f>ALU!A39</f>
         <v>OpSwapW</v>
@@ -8983,7 +8982,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="40" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="str">
         <f>ALU!A40</f>
         <v>OpXTRCT</v>
@@ -9165,7 +9164,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="41" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="str">
         <f>ALU!A41</f>
         <v>OpADD_Rm_Rn</v>
@@ -9347,7 +9346,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="42" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="str">
         <f>ALU!A42</f>
         <v>OpADD_Imm_Rn</v>
@@ -9529,7 +9528,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="43" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="str">
         <f>ALU!A43</f>
         <v>OpADDC</v>
@@ -9711,7 +9710,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="44" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="str">
         <f>ALU!A44</f>
         <v>OpADDV</v>
@@ -9893,7 +9892,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="45" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="str">
         <f>ALU!A45</f>
         <v>OpCMP_EQ_Imm</v>
@@ -10075,7 +10074,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="46" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="str">
         <f>ALU!A46</f>
         <v>OpCMP_EQ_RmRn</v>
@@ -10257,7 +10256,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="47" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="str">
         <f>ALU!A47</f>
         <v>OpCMP_HS</v>
@@ -10439,7 +10438,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="48" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="str">
         <f>ALU!A48</f>
         <v>OpCMP_GE</v>
@@ -10621,7 +10620,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="49" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="str">
         <f>ALU!A49</f>
         <v>OpCMP_HI</v>
@@ -10803,7 +10802,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="50" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="str">
         <f>ALU!A50</f>
         <v>OpCMP_GT</v>
@@ -10985,7 +10984,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="51" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="str">
         <f>ALU!A51</f>
         <v>OpCMP_PL</v>
@@ -11167,7 +11166,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="52" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="str">
         <f>ALU!A52</f>
         <v>OpCMP_PZ</v>
@@ -11349,7 +11348,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="53" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="str">
         <f>ALU!A53</f>
         <v>OpCMP_STR</v>
@@ -11531,7 +11530,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="54" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="str">
         <f>ALU!A54</f>
         <v>OpDT</v>
@@ -11713,7 +11712,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="55" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="str">
         <f>ALU!A55</f>
         <v>OpEXTS_B</v>
@@ -11895,7 +11894,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="56" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="str">
         <f>ALU!A56</f>
         <v>OpEXTS_W</v>
@@ -12077,7 +12076,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="57" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="str">
         <f>ALU!A57</f>
         <v>OpEXTU_B</v>
@@ -12259,7 +12258,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="58" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="str">
         <f>ALU!A58</f>
         <v>OpEXTU_W</v>
@@ -12441,7 +12440,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="59" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="str">
         <f>ALU!A59</f>
         <v>OpNEG</v>
@@ -12623,7 +12622,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="60" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="str">
         <f>ALU!A60</f>
         <v>OpNEGC</v>
@@ -12805,7 +12804,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="61" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="str">
         <f>ALU!A61</f>
         <v>OpSUB</v>
@@ -12987,7 +12986,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="62" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="str">
         <f>ALU!A62</f>
         <v>OpSUBC</v>
@@ -13169,7 +13168,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="63" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="str">
         <f>ALU!A63</f>
         <v>OpSUBV</v>
@@ -13351,7 +13350,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="64" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="str">
         <f>ALU!A64</f>
         <v>OpAND_Rm_Rn</v>
@@ -13533,7 +13532,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="65" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="str">
         <f>ALU!A65</f>
         <v>OpAND_Imm_Rn</v>
@@ -13715,7 +13714,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="66" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="str">
         <f>ALU!A66</f>
         <v>OpAND_Imm_B</v>
@@ -13897,7 +13896,7 @@
         <v>TempReg2Sel_Result</v>
       </c>
     </row>
-    <row r="67" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="str">
         <f>ALU!A67</f>
         <v>OpNOT</v>
@@ -14079,7 +14078,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="68" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="str">
         <f>ALU!A68</f>
         <v>OpOR_Rm_Rn</v>
@@ -14261,7 +14260,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="69" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="str">
         <f>ALU!A69</f>
         <v>OpOR_Imm</v>
@@ -14443,7 +14442,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="70" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="str">
         <f>ALU!A70</f>
         <v>OpOR_Imm_B</v>
@@ -14625,7 +14624,7 @@
         <v>TempReg2Sel_Result</v>
       </c>
     </row>
-    <row r="71" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="str">
         <f>ALU!A71</f>
         <v>OpTAS_B</v>
@@ -14807,7 +14806,7 @@
         <v>TempReg2Sel_Result</v>
       </c>
     </row>
-    <row r="72" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="str">
         <f>ALU!A72</f>
         <v>OpTST_Rm_Rn</v>
@@ -14989,7 +14988,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="73" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="str">
         <f>ALU!A73</f>
         <v>OpTST_Imm</v>
@@ -15171,7 +15170,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="74" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="str">
         <f>ALU!A74</f>
         <v>OpTST_Imm_B</v>
@@ -15353,7 +15352,7 @@
         <v>TempReg2Sel_Result</v>
       </c>
     </row>
-    <row r="75" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="str">
         <f>ALU!A75</f>
         <v>OpXOR_Rm_Rn</v>
@@ -15535,7 +15534,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="76" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="str">
         <f>ALU!A76</f>
         <v>OpXOR_Imm</v>
@@ -15717,7 +15716,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="77" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="str">
         <f>ALU!A77</f>
         <v>OpXOR_Imm_B</v>
@@ -15899,7 +15898,7 @@
         <v>TempReg2Sel_Result</v>
       </c>
     </row>
-    <row r="78" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="str">
         <f>ALU!A78</f>
         <v>OpROTL</v>
@@ -16081,7 +16080,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="79" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="str">
         <f>ALU!A79</f>
         <v>OpROTR</v>
@@ -16263,7 +16262,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="80" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="str">
         <f>ALU!A80</f>
         <v>OpROTCL</v>
@@ -16445,7 +16444,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="81" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="str">
         <f>ALU!A81</f>
         <v>OpROTCR</v>
@@ -16627,7 +16626,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="82" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="str">
         <f>ALU!A82</f>
         <v>OpSHAL</v>
@@ -16809,7 +16808,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="83" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="str">
         <f>ALU!A83</f>
         <v>OpSHAR</v>
@@ -16991,7 +16990,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="84" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="str">
         <f>ALU!A84</f>
         <v>OpSHLL</v>
@@ -17173,7 +17172,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="85" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="str">
         <f>ALU!A85</f>
         <v>OpSHLR</v>
@@ -17355,7 +17354,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="86" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="str">
         <f>ALU!A86</f>
         <v>OpSHLL2</v>
@@ -17537,7 +17536,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="87" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="str">
         <f>ALU!A87</f>
         <v>OpSHLR2</v>
@@ -17719,7 +17718,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="88" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="str">
         <f>ALU!A88</f>
         <v>OpSHLL8</v>
@@ -17901,7 +17900,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="89" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="str">
         <f>ALU!A89</f>
         <v>OpSHLR8</v>
@@ -18083,7 +18082,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="90" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="str">
         <f>ALU!A90</f>
         <v>OpSHLL16</v>
@@ -18265,7 +18264,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="91" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="str">
         <f>ALU!A91</f>
         <v>OpSHLR16</v>
@@ -18447,7 +18446,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="92" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="str">
         <f>ALU!A92</f>
         <v>OpBF</v>
@@ -18629,7 +18628,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="93" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="str">
         <f>ALU!A93</f>
         <v>OpBFS</v>
@@ -18811,7 +18810,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="94" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="str">
         <f>ALU!A94</f>
         <v>OpBT</v>
@@ -18993,7 +18992,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="95" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="str">
         <f>ALU!A95</f>
         <v>OpBTS</v>
@@ -19175,7 +19174,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="96" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="str">
         <f>ALU!A96</f>
         <v>OpBRA</v>
@@ -19357,7 +19356,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="97" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="str">
         <f>ALU!A97</f>
         <v>OpBRAF</v>
@@ -19539,7 +19538,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="98" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="str">
         <f>ALU!A98</f>
         <v>OpBSR</v>
@@ -19721,7 +19720,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="99" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="str">
         <f>ALU!A99</f>
         <v>OpBSRF</v>
@@ -19903,7 +19902,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="100" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="str">
         <f>ALU!A100</f>
         <v>OpJMP</v>
@@ -20085,7 +20084,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="101" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="str">
         <f>ALU!A101</f>
         <v>OpJSR</v>
@@ -20267,7 +20266,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="102" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="str">
         <f>ALU!A102</f>
         <v>OpRTS</v>
@@ -20449,7 +20448,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="103" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="str">
         <f>ALU!A103</f>
         <v>OpCLRT</v>
@@ -20631,7 +20630,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="104" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="str">
         <f>ALU!A104</f>
         <v>OpLDC_Rm_To_SR</v>
@@ -20813,7 +20812,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="105" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="str">
         <f>ALU!A105</f>
         <v>OpLDC_Rm_To_GBR</v>
@@ -20995,7 +20994,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="106" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="str">
         <f>ALU!A106</f>
         <v>OpLDC_Rm_To_VBR</v>
@@ -21177,7 +21176,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="107" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="str">
         <f>ALU!A107</f>
         <v>OpLDCL_At_Rm_Inc_To_SR</v>
@@ -21359,7 +21358,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="108" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="str">
         <f>ALU!A108</f>
         <v>OpLDCL_At_Rm_Inc_To_GBR</v>
@@ -21541,7 +21540,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="109" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="str">
         <f>ALU!A109</f>
         <v>OpLDCL_At_Rm_Inc_To_VBR</v>
@@ -21723,7 +21722,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="110" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="str">
         <f>ALU!A110</f>
         <v>OpLDS_Rm_To_PR</v>
@@ -21905,7 +21904,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="111" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="str">
         <f>ALU!A111</f>
         <v>OpLDSL_At_Rm_Inc_To_PR</v>
@@ -22087,7 +22086,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="112" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="str">
         <f>ALU!A112</f>
         <v>OpSLEEP</v>
@@ -22269,7 +22268,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="113" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="str">
         <f>ALU!A113</f>
         <v>OpNOP</v>
@@ -22451,7 +22450,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="114" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="str">
         <f>ALU!A114</f>
         <v>OpRTE</v>
@@ -22633,7 +22632,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="115" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="str">
         <f>ALU!A115</f>
         <v>OpSETT</v>
@@ -22815,7 +22814,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="116" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="str">
         <f>ALU!A116</f>
         <v>OpSTC_SR_To_Rn</v>
@@ -22997,7 +22996,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="117" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="str">
         <f>ALU!A117</f>
         <v>OpSTC_GBR_To_Rn</v>
@@ -23179,7 +23178,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="118" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="str">
         <f>ALU!A118</f>
         <v>OpSTC_VBR_To_Rn</v>
@@ -23361,7 +23360,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="119" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="str">
         <f>ALU!A119</f>
         <v>OpSTCL_SR_To_At_Dec_Rn</v>
@@ -23543,7 +23542,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="120" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="str">
         <f>ALU!A120</f>
         <v>OpSTCL_GBR_To_At_Dec_Rn</v>
@@ -23725,7 +23724,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="121" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="str">
         <f>ALU!A121</f>
         <v>OpSTCL_VBR_To_At_Dec_Rn</v>
@@ -23907,7 +23906,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="122" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="str">
         <f>ALU!A122</f>
         <v>OpSTS_PR_To_Rn</v>
@@ -24089,7 +24088,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="123" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="str">
         <f>ALU!A123</f>
         <v>OpSTSL_PR_To_At_Dec_Rn</v>
@@ -24271,7 +24270,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="124" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="str">
         <f>ALU!A124</f>
         <v>OpTRAPA</v>
@@ -24453,7 +24452,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="125" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="13" t="s">
         <v>44</v>
       </c>
@@ -24634,7 +24633,7 @@
         <v>unused</v>
       </c>
     </row>
-    <row r="126" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="14"/>
     </row>
   </sheetData>
@@ -24657,21 +24656,21 @@
       <selection activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="28" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29.3984375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.1328125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.3984375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.265625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.59765625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="2" customWidth="1"/>
     <col min="8" max="8" width="17" style="2" customWidth="1"/>
     <col min="9" max="9" width="13" style="3" customWidth="1"/>
-    <col min="10" max="10" width="14.1328125" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -24700,7 +24699,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>46</v>
       </c>
@@ -24729,7 +24728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>52</v>
       </c>
@@ -24758,7 +24757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>56</v>
       </c>
@@ -24787,7 +24786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>57</v>
       </c>
@@ -24816,7 +24815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>60</v>
       </c>
@@ -24845,7 +24844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>61</v>
       </c>
@@ -24874,7 +24873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>62</v>
       </c>
@@ -24903,7 +24902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>63</v>
       </c>
@@ -24932,7 +24931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>64</v>
       </c>
@@ -24961,7 +24960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>65</v>
       </c>
@@ -24990,7 +24989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>66</v>
       </c>
@@ -25019,7 +25018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>67</v>
       </c>
@@ -25048,7 +25047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>68</v>
       </c>
@@ -25077,7 +25076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>69</v>
       </c>
@@ -25106,7 +25105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>70</v>
       </c>
@@ -25135,7 +25134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>71</v>
       </c>
@@ -25164,7 +25163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>72</v>
       </c>
@@ -25193,7 +25192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>73</v>
       </c>
@@ -25222,7 +25221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>74</v>
       </c>
@@ -25251,7 +25250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>75</v>
       </c>
@@ -25280,7 +25279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>76</v>
       </c>
@@ -25309,7 +25308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>77</v>
       </c>
@@ -25338,7 +25337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>78</v>
       </c>
@@ -25367,7 +25366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>79</v>
       </c>
@@ -25396,7 +25395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>80</v>
       </c>
@@ -25425,7 +25424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>81</v>
       </c>
@@ -25454,7 +25453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>82</v>
       </c>
@@ -25483,7 +25482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>83</v>
       </c>
@@ -25512,7 +25511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>84</v>
       </c>
@@ -25541,7 +25540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>85</v>
       </c>
@@ -25570,7 +25569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>86</v>
       </c>
@@ -25599,7 +25598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>87</v>
       </c>
@@ -25628,7 +25627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>88</v>
       </c>
@@ -25657,7 +25656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>89</v>
       </c>
@@ -25686,7 +25685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>90</v>
       </c>
@@ -25715,7 +25714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>91</v>
       </c>
@@ -25744,7 +25743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>93</v>
       </c>
@@ -25773,7 +25772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>94</v>
       </c>
@@ -25802,7 +25801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>95</v>
       </c>
@@ -25831,7 +25830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>96</v>
       </c>
@@ -25860,7 +25859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>98</v>
       </c>
@@ -25889,7 +25888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>99</v>
       </c>
@@ -25918,7 +25917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>102</v>
       </c>
@@ -25947,7 +25946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>104</v>
       </c>
@@ -25976,7 +25975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>108</v>
       </c>
@@ -26005,7 +26004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>109</v>
       </c>
@@ -26034,7 +26033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>110</v>
       </c>
@@ -26063,7 +26062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>112</v>
       </c>
@@ -26092,7 +26091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>114</v>
       </c>
@@ -26121,7 +26120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>116</v>
       </c>
@@ -26150,7 +26149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>119</v>
       </c>
@@ -26179,7 +26178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>121</v>
       </c>
@@ -26208,7 +26207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>123</v>
       </c>
@@ -26237,7 +26236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>125</v>
       </c>
@@ -26266,7 +26265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>126</v>
       </c>
@@ -26295,7 +26294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>127</v>
       </c>
@@ -26324,7 +26323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>128</v>
       </c>
@@ -26353,7 +26352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>129</v>
       </c>
@@ -26382,7 +26381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>131</v>
       </c>
@@ -26411,7 +26410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>134</v>
       </c>
@@ -26440,7 +26439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>135</v>
       </c>
@@ -26469,7 +26468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>136</v>
       </c>
@@ -26498,7 +26497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>137</v>
       </c>
@@ -26527,7 +26526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>139</v>
       </c>
@@ -26556,7 +26555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>141</v>
       </c>
@@ -26585,7 +26584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>142</v>
       </c>
@@ -26614,7 +26613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>143</v>
       </c>
@@ -26643,7 +26642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>145</v>
       </c>
@@ -26672,7 +26671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>146</v>
       </c>
@@ -26701,7 +26700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>147</v>
       </c>
@@ -26730,7 +26729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>150</v>
       </c>
@@ -26759,7 +26758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>151</v>
       </c>
@@ -26788,7 +26787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>152</v>
       </c>
@@ -26817,7 +26816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>153</v>
       </c>
@@ -26846,7 +26845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>155</v>
       </c>
@@ -26875,7 +26874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>156</v>
       </c>
@@ -26904,7 +26903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
         <v>157</v>
       </c>
@@ -26933,7 +26932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
         <v>160</v>
       </c>
@@ -26962,7 +26961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
         <v>162</v>
       </c>
@@ -26991,7 +26990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
         <v>164</v>
       </c>
@@ -27020,7 +27019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
         <v>166</v>
       </c>
@@ -27049,7 +27048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
         <v>168</v>
       </c>
@@ -27078,7 +27077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
         <v>170</v>
       </c>
@@ -27107,7 +27106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
         <v>171</v>
       </c>
@@ -27136,7 +27135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="20" t="s">
         <v>173</v>
       </c>
@@ -27165,7 +27164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="20" t="s">
         <v>174</v>
       </c>
@@ -27194,7 +27193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="20" t="s">
         <v>175</v>
       </c>
@@ -27223,7 +27222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="20" t="s">
         <v>176</v>
       </c>
@@ -27252,7 +27251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="20" t="s">
         <v>177</v>
       </c>
@@ -27281,7 +27280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="20" t="s">
         <v>178</v>
       </c>
@@ -27310,7 +27309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
         <v>179</v>
       </c>
@@ -27339,7 +27338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
         <v>180</v>
       </c>
@@ -27368,7 +27367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
         <v>181</v>
       </c>
@@ -27397,7 +27396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="s">
         <v>182</v>
       </c>
@@ -27426,7 +27425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="s">
         <v>183</v>
       </c>
@@ -27455,7 +27454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="s">
         <v>184</v>
       </c>
@@ -27484,7 +27483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="s">
         <v>185</v>
       </c>
@@ -27513,7 +27512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
         <v>186</v>
       </c>
@@ -27542,7 +27541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
         <v>187</v>
       </c>
@@ -27571,7 +27570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
         <v>188</v>
       </c>
@@ -27600,7 +27599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
         <v>189</v>
       </c>
@@ -27629,7 +27628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
         <v>190</v>
       </c>
@@ -27658,7 +27657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
         <v>191</v>
       </c>
@@ -27687,7 +27686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
         <v>192</v>
       </c>
@@ -27716,7 +27715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
         <v>193</v>
       </c>
@@ -27745,7 +27744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
         <v>194</v>
       </c>
@@ -27774,7 +27773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
         <v>195</v>
       </c>
@@ -27803,7 +27802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
         <v>196</v>
       </c>
@@ -27832,7 +27831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
         <v>197</v>
       </c>
@@ -27861,7 +27860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
         <v>198</v>
       </c>
@@ -27890,7 +27889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
         <v>199</v>
       </c>
@@ -27919,7 +27918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
         <v>200</v>
       </c>
@@ -27948,7 +27947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
         <v>201</v>
       </c>
@@ -27977,7 +27976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="23" t="s">
         <v>202</v>
       </c>
@@ -28006,7 +28005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
         <v>204</v>
       </c>
@@ -28035,7 +28034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
         <v>205</v>
       </c>
@@ -28064,7 +28063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
         <v>206</v>
       </c>
@@ -28093,7 +28092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
         <v>207</v>
       </c>
@@ -28122,7 +28121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
         <v>208</v>
       </c>
@@ -28151,7 +28150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
         <v>209</v>
       </c>
@@ -28180,7 +28179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
         <v>210</v>
       </c>
@@ -28209,7 +28208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
         <v>211</v>
       </c>
@@ -28238,7 +28237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
         <v>212</v>
       </c>
@@ -28267,7 +28266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>44</v>
       </c>
@@ -28312,23 +28311,23 @@
   </sheetPr>
   <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="B115" sqref="B115:D115"/>
+    <sheetView zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.3984375" customWidth="1"/>
-    <col min="2" max="2" width="19.73046875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="51.265625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.59765625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="19.73046875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="35.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="51.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" style="3" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="17.3984375" customWidth="1"/>
-    <col min="8" max="8" width="14.59765625" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -28354,7 +28353,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>46</v>
       </c>
@@ -28380,7 +28379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>218</v>
       </c>
@@ -28406,7 +28405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>219</v>
       </c>
@@ -28432,7 +28431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>57</v>
       </c>
@@ -28458,7 +28457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>60</v>
       </c>
@@ -28484,7 +28483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>61</v>
       </c>
@@ -28510,7 +28509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>62</v>
       </c>
@@ -28536,7 +28535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>63</v>
       </c>
@@ -28562,7 +28561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>64</v>
       </c>
@@ -28588,7 +28587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>65</v>
       </c>
@@ -28614,7 +28613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>66</v>
       </c>
@@ -28640,7 +28639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>67</v>
       </c>
@@ -28666,7 +28665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>68</v>
       </c>
@@ -28692,7 +28691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>69</v>
       </c>
@@ -28718,7 +28717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>70</v>
       </c>
@@ -28744,7 +28743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>71</v>
       </c>
@@ -28770,7 +28769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>72</v>
       </c>
@@ -28796,7 +28795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>73</v>
       </c>
@@ -28822,7 +28821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>74</v>
       </c>
@@ -28848,7 +28847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>75</v>
       </c>
@@ -28874,7 +28873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>76</v>
       </c>
@@ -28900,7 +28899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>77</v>
       </c>
@@ -28926,7 +28925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>78</v>
       </c>
@@ -28952,7 +28951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>79</v>
       </c>
@@ -28978,7 +28977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>80</v>
       </c>
@@ -29004,7 +29003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>81</v>
       </c>
@@ -29030,7 +29029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>82</v>
       </c>
@@ -29056,7 +29055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>83</v>
       </c>
@@ -29082,7 +29081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>84</v>
       </c>
@@ -29108,7 +29107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>85</v>
       </c>
@@ -29134,7 +29133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>86</v>
       </c>
@@ -29160,7 +29159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>87</v>
       </c>
@@ -29186,7 +29185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>88</v>
       </c>
@@ -29212,7 +29211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>89</v>
       </c>
@@ -29238,7 +29237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>90</v>
       </c>
@@ -29264,7 +29263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>91</v>
       </c>
@@ -29290,7 +29289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>93</v>
       </c>
@@ -29316,7 +29315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>94</v>
       </c>
@@ -29342,7 +29341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>95</v>
       </c>
@@ -29368,7 +29367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>96</v>
       </c>
@@ -29394,7 +29393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>98</v>
       </c>
@@ -29420,7 +29419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>99</v>
       </c>
@@ -29446,7 +29445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>102</v>
       </c>
@@ -29472,7 +29471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>104</v>
       </c>
@@ -29498,7 +29497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>108</v>
       </c>
@@ -29524,7 +29523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>109</v>
       </c>
@@ -29550,7 +29549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>110</v>
       </c>
@@ -29576,7 +29575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>112</v>
       </c>
@@ -29602,7 +29601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>114</v>
       </c>
@@ -29628,7 +29627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>116</v>
       </c>
@@ -29654,7 +29653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>119</v>
       </c>
@@ -29680,7 +29679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>121</v>
       </c>
@@ -29706,7 +29705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>220</v>
       </c>
@@ -29732,7 +29731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>125</v>
       </c>
@@ -29758,7 +29757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>126</v>
       </c>
@@ -29784,7 +29783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>127</v>
       </c>
@@ -29810,7 +29809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>128</v>
       </c>
@@ -29836,7 +29835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>129</v>
       </c>
@@ -29862,7 +29861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>131</v>
       </c>
@@ -29888,7 +29887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>134</v>
       </c>
@@ -29914,7 +29913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>135</v>
       </c>
@@ -29940,7 +29939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>136</v>
       </c>
@@ -29966,7 +29965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>137</v>
       </c>
@@ -29992,7 +29991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>139</v>
       </c>
@@ -30018,7 +30017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>141</v>
       </c>
@@ -30044,7 +30043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>142</v>
       </c>
@@ -30070,7 +30069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>143</v>
       </c>
@@ -30096,7 +30095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>145</v>
       </c>
@@ -30122,7 +30121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>146</v>
       </c>
@@ -30148,7 +30147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>147</v>
       </c>
@@ -30174,7 +30173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>150</v>
       </c>
@@ -30200,7 +30199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>151</v>
       </c>
@@ -30226,7 +30225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>152</v>
       </c>
@@ -30252,7 +30251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>153</v>
       </c>
@@ -30278,7 +30277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>155</v>
       </c>
@@ -30304,7 +30303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>156</v>
       </c>
@@ -30330,7 +30329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
         <v>157</v>
       </c>
@@ -30356,7 +30355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
         <v>160</v>
       </c>
@@ -30382,7 +30381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
         <v>162</v>
       </c>
@@ -30408,7 +30407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
         <v>164</v>
       </c>
@@ -30434,7 +30433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
         <v>166</v>
       </c>
@@ -30460,7 +30459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
         <v>168</v>
       </c>
@@ -30486,7 +30485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
         <v>170</v>
       </c>
@@ -30512,7 +30511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
         <v>171</v>
       </c>
@@ -30538,7 +30537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
         <v>173</v>
       </c>
@@ -30564,7 +30563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
         <v>174</v>
       </c>
@@ -30590,7 +30589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
         <v>175</v>
       </c>
@@ -30616,7 +30615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
         <v>176</v>
       </c>
@@ -30642,7 +30641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
         <v>177</v>
       </c>
@@ -30668,7 +30667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
         <v>178</v>
       </c>
@@ -30694,7 +30693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
         <v>179</v>
       </c>
@@ -30720,7 +30719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
         <v>180</v>
       </c>
@@ -30746,7 +30745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
         <v>181</v>
       </c>
@@ -30772,7 +30771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="s">
         <v>182</v>
       </c>
@@ -30798,7 +30797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="s">
         <v>183</v>
       </c>
@@ -30824,7 +30823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="s">
         <v>184</v>
       </c>
@@ -30850,7 +30849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="s">
         <v>185</v>
       </c>
@@ -30876,7 +30875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
         <v>186</v>
       </c>
@@ -30902,7 +30901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
         <v>187</v>
       </c>
@@ -30928,7 +30927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
         <v>188</v>
       </c>
@@ -30954,7 +30953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
         <v>189</v>
       </c>
@@ -30980,7 +30979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
         <v>190</v>
       </c>
@@ -31006,7 +31005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
         <v>191</v>
       </c>
@@ -31032,7 +31031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
         <v>192</v>
       </c>
@@ -31058,7 +31057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
         <v>193</v>
       </c>
@@ -31084,7 +31083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
         <v>194</v>
       </c>
@@ -31110,7 +31109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
         <v>195</v>
       </c>
@@ -31136,7 +31135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
         <v>196</v>
       </c>
@@ -31162,7 +31161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
         <v>197</v>
       </c>
@@ -31188,7 +31187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
         <v>198</v>
       </c>
@@ -31214,7 +31213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
         <v>226</v>
       </c>
@@ -31240,7 +31239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
         <v>227</v>
       </c>
@@ -31266,7 +31265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
         <v>228</v>
       </c>
@@ -31292,7 +31291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
         <v>229</v>
       </c>
@@ -31318,7 +31317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
         <v>230</v>
       </c>
@@ -31344,7 +31343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
         <v>231</v>
       </c>
@@ -31370,7 +31369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
         <v>232</v>
       </c>
@@ -31396,7 +31395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
         <v>233</v>
       </c>
@@ -31422,7 +31421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
         <v>234</v>
       </c>
@@ -31448,7 +31447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
         <v>235</v>
       </c>
@@ -31474,7 +31473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
         <v>236</v>
       </c>
@@ -31500,7 +31499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
         <v>237</v>
       </c>
@@ -31526,7 +31525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
         <v>238</v>
       </c>
@@ -31552,7 +31551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>44</v>
       </c>
@@ -31598,19 +31597,19 @@
       <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="18.86328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.73046875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="16" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.59765625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="18.59765625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.73046875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.1328125" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -31636,7 +31635,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>46</v>
       </c>
@@ -31662,7 +31661,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>218</v>
       </c>
@@ -31688,7 +31687,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>219</v>
       </c>
@@ -31714,7 +31713,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>57</v>
       </c>
@@ -31740,7 +31739,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>60</v>
       </c>
@@ -31766,7 +31765,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>61</v>
       </c>
@@ -31792,7 +31791,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>62</v>
       </c>
@@ -31818,7 +31817,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>63</v>
       </c>
@@ -31844,7 +31843,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>64</v>
       </c>
@@ -31870,7 +31869,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>248</v>
       </c>
@@ -31896,7 +31895,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>66</v>
       </c>
@@ -31922,7 +31921,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>67</v>
       </c>
@@ -31948,7 +31947,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>68</v>
       </c>
@@ -31974,7 +31973,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>69</v>
       </c>
@@ -32000,7 +31999,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>70</v>
       </c>
@@ -32026,7 +32025,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>71</v>
       </c>
@@ -32052,7 +32051,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>72</v>
       </c>
@@ -32078,7 +32077,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>73</v>
       </c>
@@ -32104,7 +32103,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>74</v>
       </c>
@@ -32130,7 +32129,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>75</v>
       </c>
@@ -32156,7 +32155,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>76</v>
       </c>
@@ -32182,7 +32181,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>77</v>
       </c>
@@ -32208,7 +32207,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>78</v>
       </c>
@@ -32234,7 +32233,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>79</v>
       </c>
@@ -32260,7 +32259,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>80</v>
       </c>
@@ -32286,7 +32285,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>81</v>
       </c>
@@ -32312,7 +32311,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>82</v>
       </c>
@@ -32338,7 +32337,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>83</v>
       </c>
@@ -32364,7 +32363,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>84</v>
       </c>
@@ -32390,7 +32389,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>85</v>
       </c>
@@ -32416,7 +32415,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>86</v>
       </c>
@@ -32442,7 +32441,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>87</v>
       </c>
@@ -32468,7 +32467,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>88</v>
       </c>
@@ -32494,7 +32493,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>89</v>
       </c>
@@ -32520,7 +32519,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>90</v>
       </c>
@@ -32546,7 +32545,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>91</v>
       </c>
@@ -32572,7 +32571,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>93</v>
       </c>
@@ -32598,7 +32597,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>94</v>
       </c>
@@ -32624,7 +32623,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>95</v>
       </c>
@@ -32650,7 +32649,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>96</v>
       </c>
@@ -32676,7 +32675,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>98</v>
       </c>
@@ -32702,7 +32701,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>99</v>
       </c>
@@ -32728,7 +32727,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>102</v>
       </c>
@@ -32754,7 +32753,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>104</v>
       </c>
@@ -32780,7 +32779,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>108</v>
       </c>
@@ -32806,7 +32805,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>109</v>
       </c>
@@ -32832,7 +32831,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>110</v>
       </c>
@@ -32858,7 +32857,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>112</v>
       </c>
@@ -32884,7 +32883,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>114</v>
       </c>
@@ -32910,7 +32909,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>116</v>
       </c>
@@ -32936,7 +32935,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>119</v>
       </c>
@@ -32962,7 +32961,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>121</v>
       </c>
@@ -32988,7 +32987,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>220</v>
       </c>
@@ -33014,7 +33013,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>125</v>
       </c>
@@ -33040,7 +33039,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>126</v>
       </c>
@@ -33066,7 +33065,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>127</v>
       </c>
@@ -33092,7 +33091,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>128</v>
       </c>
@@ -33118,7 +33117,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>129</v>
       </c>
@@ -33144,7 +33143,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>131</v>
       </c>
@@ -33170,7 +33169,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>134</v>
       </c>
@@ -33196,7 +33195,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>135</v>
       </c>
@@ -33222,7 +33221,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>136</v>
       </c>
@@ -33248,7 +33247,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>137</v>
       </c>
@@ -33274,7 +33273,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>139</v>
       </c>
@@ -33300,7 +33299,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>141</v>
       </c>
@@ -33326,7 +33325,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>142</v>
       </c>
@@ -33352,7 +33351,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>143</v>
       </c>
@@ -33378,7 +33377,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>145</v>
       </c>
@@ -33404,7 +33403,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>146</v>
       </c>
@@ -33430,7 +33429,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>147</v>
       </c>
@@ -33456,7 +33455,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>150</v>
       </c>
@@ -33482,7 +33481,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>151</v>
       </c>
@@ -33508,7 +33507,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>152</v>
       </c>
@@ -33534,7 +33533,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>153</v>
       </c>
@@ -33560,7 +33559,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>155</v>
       </c>
@@ -33586,7 +33585,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>156</v>
       </c>
@@ -33612,7 +33611,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
         <v>157</v>
       </c>
@@ -33638,7 +33637,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
         <v>160</v>
       </c>
@@ -33664,7 +33663,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
         <v>162</v>
       </c>
@@ -33690,7 +33689,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
         <v>164</v>
       </c>
@@ -33716,7 +33715,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
         <v>166</v>
       </c>
@@ -33742,7 +33741,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
         <v>168</v>
       </c>
@@ -33768,7 +33767,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
         <v>170</v>
       </c>
@@ -33794,7 +33793,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
         <v>171</v>
       </c>
@@ -33820,7 +33819,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
         <v>173</v>
       </c>
@@ -33846,7 +33845,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
         <v>174</v>
       </c>
@@ -33872,7 +33871,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
         <v>175</v>
       </c>
@@ -33898,7 +33897,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
         <v>176</v>
       </c>
@@ -33924,7 +33923,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
         <v>177</v>
       </c>
@@ -33950,7 +33949,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
         <v>178</v>
       </c>
@@ -33976,7 +33975,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
         <v>179</v>
       </c>
@@ -34002,7 +34001,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
         <v>180</v>
       </c>
@@ -34028,7 +34027,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
         <v>181</v>
       </c>
@@ -34054,7 +34053,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="s">
         <v>182</v>
       </c>
@@ -34080,7 +34079,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="s">
         <v>183</v>
       </c>
@@ -34106,7 +34105,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="s">
         <v>184</v>
       </c>
@@ -34132,7 +34131,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="s">
         <v>185</v>
       </c>
@@ -34158,7 +34157,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
         <v>186</v>
       </c>
@@ -34184,7 +34183,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
         <v>187</v>
       </c>
@@ -34210,7 +34209,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
         <v>188</v>
       </c>
@@ -34236,7 +34235,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
         <v>189</v>
       </c>
@@ -34262,7 +34261,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
         <v>190</v>
       </c>
@@ -34288,7 +34287,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
         <v>191</v>
       </c>
@@ -34314,7 +34313,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
         <v>192</v>
       </c>
@@ -34340,7 +34339,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
         <v>193</v>
       </c>
@@ -34366,7 +34365,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
         <v>194</v>
       </c>
@@ -34392,7 +34391,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
         <v>195</v>
       </c>
@@ -34418,7 +34417,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
         <v>196</v>
       </c>
@@ -34444,7 +34443,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
         <v>197</v>
       </c>
@@ -34470,7 +34469,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
         <v>198</v>
       </c>
@@ -34496,7 +34495,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
         <v>199</v>
       </c>
@@ -34522,7 +34521,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
         <v>227</v>
       </c>
@@ -34548,7 +34547,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
         <v>228</v>
       </c>
@@ -34574,7 +34573,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
         <v>229</v>
       </c>
@@ -34600,7 +34599,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
         <v>230</v>
       </c>
@@ -34626,7 +34625,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
         <v>231</v>
       </c>
@@ -34652,7 +34651,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
         <v>232</v>
       </c>
@@ -34678,7 +34677,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
         <v>233</v>
       </c>
@@ -34704,7 +34703,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
         <v>234</v>
       </c>
@@ -34730,7 +34729,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
         <v>235</v>
       </c>
@@ -34756,7 +34755,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
         <v>236</v>
       </c>
@@ -34782,7 +34781,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
         <v>237</v>
       </c>
@@ -34808,7 +34807,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
         <v>238</v>
       </c>
@@ -34834,7 +34833,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>44</v>
       </c>
@@ -34881,21 +34880,21 @@
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="16" style="26" customWidth="1"/>
-    <col min="4" max="5" width="16.265625" customWidth="1"/>
-    <col min="6" max="6" width="19.265625" customWidth="1"/>
-    <col min="7" max="7" width="15.73046875" style="26" customWidth="1"/>
-    <col min="8" max="8" width="17.1328125" customWidth="1"/>
-    <col min="9" max="9" width="14.3984375" customWidth="1"/>
-    <col min="10" max="10" width="12.86328125" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="26" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
     <col min="11" max="11" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -34930,7 +34929,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>46</v>
       </c>
@@ -34965,7 +34964,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>52</v>
       </c>
@@ -35000,7 +34999,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>56</v>
       </c>
@@ -35035,7 +35034,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>57</v>
       </c>
@@ -35070,7 +35069,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>60</v>
       </c>
@@ -35105,7 +35104,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>61</v>
       </c>
@@ -35140,7 +35139,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>62</v>
       </c>
@@ -35175,7 +35174,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>63</v>
       </c>
@@ -35210,7 +35209,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>64</v>
       </c>
@@ -35245,7 +35244,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>248</v>
       </c>
@@ -35280,7 +35279,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>66</v>
       </c>
@@ -35315,7 +35314,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>67</v>
       </c>
@@ -35350,7 +35349,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>68</v>
       </c>
@@ -35385,7 +35384,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>69</v>
       </c>
@@ -35420,7 +35419,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>70</v>
       </c>
@@ -35455,7 +35454,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>71</v>
       </c>
@@ -35490,7 +35489,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>72</v>
       </c>
@@ -35525,7 +35524,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>73</v>
       </c>
@@ -35560,7 +35559,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>74</v>
       </c>
@@ -35595,7 +35594,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>75</v>
       </c>
@@ -35630,7 +35629,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>76</v>
       </c>
@@ -35665,7 +35664,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>77</v>
       </c>
@@ -35700,7 +35699,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>78</v>
       </c>
@@ -35735,7 +35734,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>79</v>
       </c>
@@ -35770,7 +35769,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>80</v>
       </c>
@@ -35805,7 +35804,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>81</v>
       </c>
@@ -35840,7 +35839,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>82</v>
       </c>
@@ -35875,7 +35874,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>83</v>
       </c>
@@ -35910,7 +35909,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>84</v>
       </c>
@@ -35945,7 +35944,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>85</v>
       </c>
@@ -35980,7 +35979,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>86</v>
       </c>
@@ -36015,7 +36014,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>87</v>
       </c>
@@ -36050,7 +36049,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>88</v>
       </c>
@@ -36085,7 +36084,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>89</v>
       </c>
@@ -36120,7 +36119,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>90</v>
       </c>
@@ -36155,7 +36154,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>91</v>
       </c>
@@ -36190,7 +36189,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>93</v>
       </c>
@@ -36225,7 +36224,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>94</v>
       </c>
@@ -36260,7 +36259,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>95</v>
       </c>
@@ -36295,7 +36294,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>96</v>
       </c>
@@ -36330,7 +36329,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>98</v>
       </c>
@@ -36365,7 +36364,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>99</v>
       </c>
@@ -36400,7 +36399,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>102</v>
       </c>
@@ -36435,7 +36434,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>104</v>
       </c>
@@ -36470,7 +36469,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>108</v>
       </c>
@@ -36505,7 +36504,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>109</v>
       </c>
@@ -36540,7 +36539,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>110</v>
       </c>
@@ -36575,7 +36574,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>112</v>
       </c>
@@ -36610,7 +36609,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>114</v>
       </c>
@@ -36645,7 +36644,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>116</v>
       </c>
@@ -36680,7 +36679,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>119</v>
       </c>
@@ -36715,7 +36714,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>121</v>
       </c>
@@ -36750,7 +36749,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>220</v>
       </c>
@@ -36785,7 +36784,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>125</v>
       </c>
@@ -36820,7 +36819,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>126</v>
       </c>
@@ -36855,7 +36854,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>127</v>
       </c>
@@ -36890,7 +36889,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>128</v>
       </c>
@@ -36925,7 +36924,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>129</v>
       </c>
@@ -36960,7 +36959,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>131</v>
       </c>
@@ -36995,7 +36994,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>134</v>
       </c>
@@ -37030,7 +37029,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>135</v>
       </c>
@@ -37065,7 +37064,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>136</v>
       </c>
@@ -37100,7 +37099,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>137</v>
       </c>
@@ -37135,7 +37134,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>139</v>
       </c>
@@ -37170,7 +37169,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>141</v>
       </c>
@@ -37205,7 +37204,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>142</v>
       </c>
@@ -37240,7 +37239,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>143</v>
       </c>
@@ -37275,7 +37274,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>145</v>
       </c>
@@ -37310,7 +37309,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>146</v>
       </c>
@@ -37345,7 +37344,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>147</v>
       </c>
@@ -37380,7 +37379,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>150</v>
       </c>
@@ -37415,7 +37414,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>151</v>
       </c>
@@ -37450,7 +37449,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>152</v>
       </c>
@@ -37485,7 +37484,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>153</v>
       </c>
@@ -37520,7 +37519,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>155</v>
       </c>
@@ -37555,7 +37554,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>156</v>
       </c>
@@ -37590,7 +37589,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
         <v>157</v>
       </c>
@@ -37625,7 +37624,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
         <v>160</v>
       </c>
@@ -37660,7 +37659,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
         <v>162</v>
       </c>
@@ -37695,7 +37694,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
         <v>164</v>
       </c>
@@ -37730,7 +37729,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
         <v>166</v>
       </c>
@@ -37765,7 +37764,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
         <v>168</v>
       </c>
@@ -37800,7 +37799,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
         <v>170</v>
       </c>
@@ -37835,7 +37834,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
         <v>171</v>
       </c>
@@ -37870,7 +37869,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
         <v>173</v>
       </c>
@@ -37905,7 +37904,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
         <v>174</v>
       </c>
@@ -37940,7 +37939,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
         <v>175</v>
       </c>
@@ -37975,7 +37974,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
         <v>176</v>
       </c>
@@ -38010,7 +38009,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
         <v>177</v>
       </c>
@@ -38045,7 +38044,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
         <v>178</v>
       </c>
@@ -38080,7 +38079,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
         <v>179</v>
       </c>
@@ -38115,7 +38114,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
         <v>180</v>
       </c>
@@ -38150,7 +38149,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
         <v>181</v>
       </c>
@@ -38185,7 +38184,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="s">
         <v>182</v>
       </c>
@@ -38220,7 +38219,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="s">
         <v>183</v>
       </c>
@@ -38255,7 +38254,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="s">
         <v>184</v>
       </c>
@@ -38290,7 +38289,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="s">
         <v>185</v>
       </c>
@@ -38325,7 +38324,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
         <v>186</v>
       </c>
@@ -38360,7 +38359,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
         <v>187</v>
       </c>
@@ -38395,7 +38394,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
         <v>188</v>
       </c>
@@ -38430,7 +38429,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
         <v>189</v>
       </c>
@@ -38465,7 +38464,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
         <v>190</v>
       </c>
@@ -38490,7 +38489,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
         <v>191</v>
       </c>
@@ -38521,7 +38520,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
         <v>192</v>
       </c>
@@ -38550,7 +38549,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
         <v>193</v>
       </c>
@@ -38579,7 +38578,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
         <v>194</v>
       </c>
@@ -38614,7 +38613,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
         <v>195</v>
       </c>
@@ -38649,7 +38648,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
         <v>196</v>
       </c>
@@ -38684,7 +38683,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
         <v>197</v>
       </c>
@@ -38713,7 +38712,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
         <v>198</v>
       </c>
@@ -38748,7 +38747,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
         <v>199</v>
       </c>
@@ -38773,7 +38772,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
         <v>227</v>
       </c>
@@ -38798,7 +38797,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
         <v>228</v>
       </c>
@@ -38831,7 +38830,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
         <v>229</v>
       </c>
@@ -38856,7 +38855,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
         <v>230</v>
       </c>
@@ -38883,7 +38882,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
         <v>231</v>
       </c>
@@ -38910,7 +38909,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
         <v>232</v>
       </c>
@@ -38937,7 +38936,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
         <v>233</v>
       </c>
@@ -38968,7 +38967,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
         <v>234</v>
       </c>
@@ -38999,7 +38998,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
         <v>235</v>
       </c>
@@ -39030,7 +39029,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
         <v>236</v>
       </c>
@@ -39057,7 +39056,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
         <v>237</v>
       </c>
@@ -39088,7 +39087,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
         <v>238</v>
       </c>
@@ -39117,7 +39116,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>299</v>
       </c>
@@ -39134,7 +39133,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B126" s="7"/>
       <c r="C126" s="22"/>
       <c r="D126" s="7"/>
@@ -39165,23 +39164,23 @@
       <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="7.265625" customWidth="1"/>
-    <col min="3" max="3" width="9.1328125" style="3" customWidth="1"/>
-    <col min="4" max="5" width="16.59765625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.265625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="3" customWidth="1"/>
+    <col min="4" max="5" width="16.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="2" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="13.265625" customWidth="1"/>
-    <col min="9" max="9" width="15.73046875" customWidth="1"/>
-    <col min="10" max="10" width="11.73046875" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="13.59765625" customWidth="1"/>
-    <col min="13" max="13" width="13.59765625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -39210,7 +39209,7 @@
       <c r="L1" s="15"/>
       <c r="M1" s="15"/>
     </row>
-    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>46</v>
       </c>
@@ -39239,7 +39238,7 @@
       <c r="L2" s="21"/>
       <c r="M2" s="21"/>
     </row>
-    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>52</v>
       </c>
@@ -39268,7 +39267,7 @@
       <c r="L3" s="21"/>
       <c r="M3" s="21"/>
     </row>
-    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>56</v>
       </c>
@@ -39297,7 +39296,7 @@
       <c r="L4" s="21"/>
       <c r="M4" s="21"/>
     </row>
-    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>57</v>
       </c>
@@ -39326,7 +39325,7 @@
       <c r="L5" s="21"/>
       <c r="M5" s="21"/>
     </row>
-    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>60</v>
       </c>
@@ -39355,7 +39354,7 @@
       <c r="L6" s="21"/>
       <c r="M6" s="21"/>
     </row>
-    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>61</v>
       </c>
@@ -39384,7 +39383,7 @@
       <c r="L7" s="21"/>
       <c r="M7" s="21"/>
     </row>
-    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>62</v>
       </c>
@@ -39413,7 +39412,7 @@
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
     </row>
-    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>63</v>
       </c>
@@ -39442,7 +39441,7 @@
       <c r="L9" s="21"/>
       <c r="M9" s="21"/>
     </row>
-    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>64</v>
       </c>
@@ -39471,7 +39470,7 @@
       <c r="L10" s="21"/>
       <c r="M10" s="21"/>
     </row>
-    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>248</v>
       </c>
@@ -39500,7 +39499,7 @@
       <c r="L11" s="21"/>
       <c r="M11" s="21"/>
     </row>
-    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>66</v>
       </c>
@@ -39529,7 +39528,7 @@
       <c r="L12" s="21"/>
       <c r="M12" s="21"/>
     </row>
-    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>67</v>
       </c>
@@ -39558,7 +39557,7 @@
       <c r="L13" s="21"/>
       <c r="M13" s="21"/>
     </row>
-    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>68</v>
       </c>
@@ -39587,7 +39586,7 @@
       <c r="L14" s="21"/>
       <c r="M14" s="21"/>
     </row>
-    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>69</v>
       </c>
@@ -39616,7 +39615,7 @@
       <c r="L15" s="21"/>
       <c r="M15" s="21"/>
     </row>
-    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>70</v>
       </c>
@@ -39645,7 +39644,7 @@
       <c r="L16" s="21"/>
       <c r="M16" s="21"/>
     </row>
-    <row r="17" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>71</v>
       </c>
@@ -39674,7 +39673,7 @@
       <c r="L17" s="21"/>
       <c r="M17" s="21"/>
     </row>
-    <row r="18" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>72</v>
       </c>
@@ -39703,7 +39702,7 @@
       <c r="L18" s="21"/>
       <c r="M18" s="21"/>
     </row>
-    <row r="19" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>73</v>
       </c>
@@ -39732,7 +39731,7 @@
       <c r="L19" s="21"/>
       <c r="M19" s="21"/>
     </row>
-    <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>74</v>
       </c>
@@ -39761,7 +39760,7 @@
       <c r="L20" s="21"/>
       <c r="M20" s="21"/>
     </row>
-    <row r="21" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>75</v>
       </c>
@@ -39790,7 +39789,7 @@
       <c r="L21" s="21"/>
       <c r="M21" s="21"/>
     </row>
-    <row r="22" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>76</v>
       </c>
@@ -39819,7 +39818,7 @@
       <c r="L22" s="21"/>
       <c r="M22" s="21"/>
     </row>
-    <row r="23" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>77</v>
       </c>
@@ -39848,7 +39847,7 @@
       <c r="L23" s="21"/>
       <c r="M23" s="21"/>
     </row>
-    <row r="24" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>78</v>
       </c>
@@ -39877,7 +39876,7 @@
       <c r="L24" s="21"/>
       <c r="M24" s="21"/>
     </row>
-    <row r="25" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>79</v>
       </c>
@@ -39906,7 +39905,7 @@
       <c r="L25" s="21"/>
       <c r="M25" s="21"/>
     </row>
-    <row r="26" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>80</v>
       </c>
@@ -39935,7 +39934,7 @@
       <c r="L26" s="21"/>
       <c r="M26" s="21"/>
     </row>
-    <row r="27" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>81</v>
       </c>
@@ -39964,7 +39963,7 @@
       <c r="L27" s="21"/>
       <c r="M27" s="21"/>
     </row>
-    <row r="28" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>82</v>
       </c>
@@ -39993,7 +39992,7 @@
       <c r="L28" s="21"/>
       <c r="M28" s="21"/>
     </row>
-    <row r="29" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>83</v>
       </c>
@@ -40022,7 +40021,7 @@
       <c r="L29" s="21"/>
       <c r="M29" s="21"/>
     </row>
-    <row r="30" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>84</v>
       </c>
@@ -40051,7 +40050,7 @@
       <c r="L30" s="21"/>
       <c r="M30" s="21"/>
     </row>
-    <row r="31" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>85</v>
       </c>
@@ -40080,7 +40079,7 @@
       <c r="L31" s="21"/>
       <c r="M31" s="21"/>
     </row>
-    <row r="32" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>86</v>
       </c>
@@ -40109,7 +40108,7 @@
       <c r="L32" s="21"/>
       <c r="M32" s="21"/>
     </row>
-    <row r="33" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>87</v>
       </c>
@@ -40138,7 +40137,7 @@
       <c r="L33" s="21"/>
       <c r="M33" s="21"/>
     </row>
-    <row r="34" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>88</v>
       </c>
@@ -40167,7 +40166,7 @@
       <c r="L34" s="21"/>
       <c r="M34" s="21"/>
     </row>
-    <row r="35" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>89</v>
       </c>
@@ -40196,7 +40195,7 @@
       <c r="L35" s="21"/>
       <c r="M35" s="21"/>
     </row>
-    <row r="36" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>90</v>
       </c>
@@ -40223,7 +40222,7 @@
       <c r="L36" s="21"/>
       <c r="M36" s="21"/>
     </row>
-    <row r="37" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>91</v>
       </c>
@@ -40250,7 +40249,7 @@
       <c r="L37" s="21"/>
       <c r="M37" s="21"/>
     </row>
-    <row r="38" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>93</v>
       </c>
@@ -40277,7 +40276,7 @@
       <c r="L38" s="21"/>
       <c r="M38" s="21"/>
     </row>
-    <row r="39" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>94</v>
       </c>
@@ -40304,7 +40303,7 @@
       <c r="L39" s="21"/>
       <c r="M39" s="21"/>
     </row>
-    <row r="40" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>95</v>
       </c>
@@ -40331,7 +40330,7 @@
       <c r="L40" s="21"/>
       <c r="M40" s="21"/>
     </row>
-    <row r="41" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>96</v>
       </c>
@@ -40360,7 +40359,7 @@
       <c r="L41" s="21"/>
       <c r="M41" s="21"/>
     </row>
-    <row r="42" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>98</v>
       </c>
@@ -40389,7 +40388,7 @@
       <c r="L42" s="21"/>
       <c r="M42" s="21"/>
     </row>
-    <row r="43" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>99</v>
       </c>
@@ -40418,7 +40417,7 @@
       <c r="L43" s="21"/>
       <c r="M43" s="21"/>
     </row>
-    <row r="44" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>102</v>
       </c>
@@ -40447,7 +40446,7 @@
       <c r="L44" s="21"/>
       <c r="M44" s="21"/>
     </row>
-    <row r="45" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>104</v>
       </c>
@@ -40476,7 +40475,7 @@
       <c r="L45" s="21"/>
       <c r="M45" s="21"/>
     </row>
-    <row r="46" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>108</v>
       </c>
@@ -40505,7 +40504,7 @@
       <c r="L46" s="21"/>
       <c r="M46" s="21"/>
     </row>
-    <row r="47" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>109</v>
       </c>
@@ -40534,7 +40533,7 @@
       <c r="L47" s="21"/>
       <c r="M47" s="21"/>
     </row>
-    <row r="48" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>110</v>
       </c>
@@ -40563,7 +40562,7 @@
       <c r="L48" s="21"/>
       <c r="M48" s="21"/>
     </row>
-    <row r="49" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>112</v>
       </c>
@@ -40592,7 +40591,7 @@
       <c r="L49" s="21"/>
       <c r="M49" s="21"/>
     </row>
-    <row r="50" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>114</v>
       </c>
@@ -40621,7 +40620,7 @@
       <c r="L50" s="21"/>
       <c r="M50" s="21"/>
     </row>
-    <row r="51" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>116</v>
       </c>
@@ -40650,7 +40649,7 @@
       <c r="L51" s="21"/>
       <c r="M51" s="21"/>
     </row>
-    <row r="52" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>119</v>
       </c>
@@ -40679,7 +40678,7 @@
       <c r="L52" s="21"/>
       <c r="M52" s="21"/>
     </row>
-    <row r="53" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>121</v>
       </c>
@@ -40708,7 +40707,7 @@
       <c r="L53" s="21"/>
       <c r="M53" s="21"/>
     </row>
-    <row r="54" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>220</v>
       </c>
@@ -40737,7 +40736,7 @@
       <c r="L54" s="21"/>
       <c r="M54" s="21"/>
     </row>
-    <row r="55" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>125</v>
       </c>
@@ -40766,7 +40765,7 @@
       <c r="L55" s="21"/>
       <c r="M55" s="21"/>
     </row>
-    <row r="56" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>126</v>
       </c>
@@ -40795,7 +40794,7 @@
       <c r="L56" s="21"/>
       <c r="M56" s="21"/>
     </row>
-    <row r="57" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>127</v>
       </c>
@@ -40824,7 +40823,7 @@
       <c r="L57" s="21"/>
       <c r="M57" s="21"/>
     </row>
-    <row r="58" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>128</v>
       </c>
@@ -40853,7 +40852,7 @@
       <c r="L58" s="21"/>
       <c r="M58" s="21"/>
     </row>
-    <row r="59" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>129</v>
       </c>
@@ -40882,7 +40881,7 @@
       <c r="L59" s="21"/>
       <c r="M59" s="21"/>
     </row>
-    <row r="60" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>131</v>
       </c>
@@ -40911,7 +40910,7 @@
       <c r="L60" s="21"/>
       <c r="M60" s="21"/>
     </row>
-    <row r="61" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>134</v>
       </c>
@@ -40940,7 +40939,7 @@
       <c r="L61" s="21"/>
       <c r="M61" s="21"/>
     </row>
-    <row r="62" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>135</v>
       </c>
@@ -40969,7 +40968,7 @@
       <c r="L62" s="21"/>
       <c r="M62" s="21"/>
     </row>
-    <row r="63" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>136</v>
       </c>
@@ -40998,7 +40997,7 @@
       <c r="L63" s="21"/>
       <c r="M63" s="21"/>
     </row>
-    <row r="64" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>137</v>
       </c>
@@ -41025,7 +41024,7 @@
       <c r="L64" s="21"/>
       <c r="M64" s="21"/>
     </row>
-    <row r="65" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>139</v>
       </c>
@@ -41052,7 +41051,7 @@
       <c r="L65" s="21"/>
       <c r="M65" s="21"/>
     </row>
-    <row r="66" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>141</v>
       </c>
@@ -41079,7 +41078,7 @@
       <c r="L66" s="21"/>
       <c r="M66" s="21"/>
     </row>
-    <row r="67" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>142</v>
       </c>
@@ -41106,7 +41105,7 @@
       <c r="L67" s="21"/>
       <c r="M67" s="21"/>
     </row>
-    <row r="68" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>143</v>
       </c>
@@ -41133,7 +41132,7 @@
       <c r="L68" s="21"/>
       <c r="M68" s="21"/>
     </row>
-    <row r="69" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>145</v>
       </c>
@@ -41160,7 +41159,7 @@
       <c r="L69" s="21"/>
       <c r="M69" s="21"/>
     </row>
-    <row r="70" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>146</v>
       </c>
@@ -41187,7 +41186,7 @@
       <c r="L70" s="21"/>
       <c r="M70" s="21"/>
     </row>
-    <row r="71" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>147</v>
       </c>
@@ -41214,7 +41213,7 @@
       <c r="L71" s="21"/>
       <c r="M71" s="21"/>
     </row>
-    <row r="72" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>150</v>
       </c>
@@ -41241,7 +41240,7 @@
       <c r="L72" s="21"/>
       <c r="M72" s="21"/>
     </row>
-    <row r="73" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>151</v>
       </c>
@@ -41268,7 +41267,7 @@
       <c r="L73" s="21"/>
       <c r="M73" s="21"/>
     </row>
-    <row r="74" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>152</v>
       </c>
@@ -41295,7 +41294,7 @@
       <c r="L74" s="21"/>
       <c r="M74" s="21"/>
     </row>
-    <row r="75" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>153</v>
       </c>
@@ -41322,7 +41321,7 @@
       <c r="L75" s="21"/>
       <c r="M75" s="21"/>
     </row>
-    <row r="76" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>155</v>
       </c>
@@ -41349,7 +41348,7 @@
       <c r="L76" s="21"/>
       <c r="M76" s="21"/>
     </row>
-    <row r="77" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>156</v>
       </c>
@@ -41376,7 +41375,7 @@
       <c r="L77" s="21"/>
       <c r="M77" s="21"/>
     </row>
-    <row r="78" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
         <v>157</v>
       </c>
@@ -41403,7 +41402,7 @@
       <c r="L78" s="21"/>
       <c r="M78" s="21"/>
     </row>
-    <row r="79" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
         <v>160</v>
       </c>
@@ -41430,7 +41429,7 @@
       <c r="L79" s="21"/>
       <c r="M79" s="21"/>
     </row>
-    <row r="80" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
         <v>162</v>
       </c>
@@ -41457,7 +41456,7 @@
       <c r="L80" s="21"/>
       <c r="M80" s="21"/>
     </row>
-    <row r="81" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
         <v>164</v>
       </c>
@@ -41484,7 +41483,7 @@
       <c r="L81" s="21"/>
       <c r="M81" s="21"/>
     </row>
-    <row r="82" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
         <v>166</v>
       </c>
@@ -41511,7 +41510,7 @@
       <c r="L82" s="21"/>
       <c r="M82" s="21"/>
     </row>
-    <row r="83" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
         <v>168</v>
       </c>
@@ -41538,7 +41537,7 @@
       <c r="L83" s="21"/>
       <c r="M83" s="21"/>
     </row>
-    <row r="84" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
         <v>170</v>
       </c>
@@ -41565,7 +41564,7 @@
       <c r="L84" s="21"/>
       <c r="M84" s="21"/>
     </row>
-    <row r="85" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
         <v>171</v>
       </c>
@@ -41592,7 +41591,7 @@
       <c r="L85" s="21"/>
       <c r="M85" s="21"/>
     </row>
-    <row r="86" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
         <v>173</v>
       </c>
@@ -41619,7 +41618,7 @@
       <c r="L86" s="21"/>
       <c r="M86" s="21"/>
     </row>
-    <row r="87" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
         <v>174</v>
       </c>
@@ -41646,7 +41645,7 @@
       <c r="L87" s="21"/>
       <c r="M87" s="21"/>
     </row>
-    <row r="88" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
         <v>175</v>
       </c>
@@ -41673,7 +41672,7 @@
       <c r="L88" s="21"/>
       <c r="M88" s="21"/>
     </row>
-    <row r="89" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
         <v>176</v>
       </c>
@@ -41700,7 +41699,7 @@
       <c r="L89" s="21"/>
       <c r="M89" s="21"/>
     </row>
-    <row r="90" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
         <v>177</v>
       </c>
@@ -41727,7 +41726,7 @@
       <c r="L90" s="21"/>
       <c r="M90" s="21"/>
     </row>
-    <row r="91" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
         <v>178</v>
       </c>
@@ -41754,7 +41753,7 @@
       <c r="L91" s="21"/>
       <c r="M91" s="21"/>
     </row>
-    <row r="92" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
         <v>179</v>
       </c>
@@ -41781,7 +41780,7 @@
       <c r="L92" s="21"/>
       <c r="M92" s="21"/>
     </row>
-    <row r="93" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
         <v>180</v>
       </c>
@@ -41808,7 +41807,7 @@
       <c r="L93" s="21"/>
       <c r="M93" s="21"/>
     </row>
-    <row r="94" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
         <v>181</v>
       </c>
@@ -41835,7 +41834,7 @@
       <c r="L94" s="21"/>
       <c r="M94" s="21"/>
     </row>
-    <row r="95" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="s">
         <v>182</v>
       </c>
@@ -41862,7 +41861,7 @@
       <c r="L95" s="21"/>
       <c r="M95" s="21"/>
     </row>
-    <row r="96" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="s">
         <v>183</v>
       </c>
@@ -41889,7 +41888,7 @@
       <c r="L96" s="21"/>
       <c r="M96" s="21"/>
     </row>
-    <row r="97" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="s">
         <v>184</v>
       </c>
@@ -41916,7 +41915,7 @@
       <c r="L97" s="21"/>
       <c r="M97" s="21"/>
     </row>
-    <row r="98" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="s">
         <v>185</v>
       </c>
@@ -41943,7 +41942,7 @@
       <c r="L98" s="21"/>
       <c r="M98" s="21"/>
     </row>
-    <row r="99" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
         <v>186</v>
       </c>
@@ -41970,7 +41969,7 @@
       <c r="L99" s="21"/>
       <c r="M99" s="21"/>
     </row>
-    <row r="100" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
         <v>187</v>
       </c>
@@ -41997,7 +41996,7 @@
       <c r="L100" s="21"/>
       <c r="M100" s="21"/>
     </row>
-    <row r="101" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
         <v>188</v>
       </c>
@@ -42024,7 +42023,7 @@
       <c r="L101" s="21"/>
       <c r="M101" s="21"/>
     </row>
-    <row r="102" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
         <v>189</v>
       </c>
@@ -42051,7 +42050,7 @@
       <c r="L102" s="21"/>
       <c r="M102" s="21"/>
     </row>
-    <row r="103" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
         <v>190</v>
       </c>
@@ -42076,7 +42075,7 @@
       <c r="L103" s="21"/>
       <c r="M103" s="21"/>
     </row>
-    <row r="104" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
         <v>191</v>
       </c>
@@ -42101,7 +42100,7 @@
       <c r="L104" s="21"/>
       <c r="M104" s="21"/>
     </row>
-    <row r="105" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
         <v>192</v>
       </c>
@@ -42126,7 +42125,7 @@
       <c r="L105" s="21"/>
       <c r="M105" s="21"/>
     </row>
-    <row r="106" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
         <v>193</v>
       </c>
@@ -42151,7 +42150,7 @@
       <c r="L106" s="21"/>
       <c r="M106" s="21"/>
     </row>
-    <row r="107" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
         <v>194</v>
       </c>
@@ -42176,7 +42175,7 @@
       <c r="L107" s="21"/>
       <c r="M107" s="21"/>
     </row>
-    <row r="108" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
         <v>195</v>
       </c>
@@ -42201,7 +42200,7 @@
       <c r="L108" s="21"/>
       <c r="M108" s="21"/>
     </row>
-    <row r="109" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
         <v>196</v>
       </c>
@@ -42226,7 +42225,7 @@
       <c r="L109" s="21"/>
       <c r="M109" s="21"/>
     </row>
-    <row r="110" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
         <v>197</v>
       </c>
@@ -42251,7 +42250,7 @@
       <c r="L110" s="21"/>
       <c r="M110" s="21"/>
     </row>
-    <row r="111" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
         <v>198</v>
       </c>
@@ -42276,7 +42275,7 @@
       <c r="L111" s="21"/>
       <c r="M111" s="21"/>
     </row>
-    <row r="112" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
         <v>199</v>
       </c>
@@ -42301,7 +42300,7 @@
       <c r="L112" s="21"/>
       <c r="M112" s="21"/>
     </row>
-    <row r="113" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
         <v>227</v>
       </c>
@@ -42326,7 +42325,7 @@
       <c r="L113" s="21"/>
       <c r="M113" s="21"/>
     </row>
-    <row r="114" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
         <v>228</v>
       </c>
@@ -42351,7 +42350,7 @@
       <c r="L114" s="21"/>
       <c r="M114" s="21"/>
     </row>
-    <row r="115" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
         <v>229</v>
       </c>
@@ -42376,7 +42375,7 @@
       <c r="L115" s="21"/>
       <c r="M115" s="21"/>
     </row>
-    <row r="116" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
         <v>230</v>
       </c>
@@ -42401,7 +42400,7 @@
       <c r="L116" s="21"/>
       <c r="M116" s="21"/>
     </row>
-    <row r="117" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
         <v>231</v>
       </c>
@@ -42426,7 +42425,7 @@
       <c r="L117" s="21"/>
       <c r="M117" s="21"/>
     </row>
-    <row r="118" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
         <v>232</v>
       </c>
@@ -42451,7 +42450,7 @@
       <c r="L118" s="21"/>
       <c r="M118" s="21"/>
     </row>
-    <row r="119" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
         <v>233</v>
       </c>
@@ -42478,7 +42477,7 @@
       <c r="L119" s="21"/>
       <c r="M119" s="21"/>
     </row>
-    <row r="120" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
         <v>234</v>
       </c>
@@ -42505,7 +42504,7 @@
       <c r="L120" s="21"/>
       <c r="M120" s="21"/>
     </row>
-    <row r="121" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
         <v>235</v>
       </c>
@@ -42532,7 +42531,7 @@
       <c r="L121" s="21"/>
       <c r="M121" s="21"/>
     </row>
-    <row r="122" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
         <v>236</v>
       </c>
@@ -42556,7 +42555,7 @@
       <c r="L122" s="21"/>
       <c r="M122" s="21"/>
     </row>
-    <row r="123" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
         <v>237</v>
       </c>
@@ -42583,7 +42582,7 @@
       <c r="L123" s="21"/>
       <c r="M123" s="21"/>
     </row>
-    <row r="124" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
         <v>238</v>
       </c>
@@ -42610,7 +42609,7 @@
       <c r="L124" s="21"/>
       <c r="M124" s="21"/>
     </row>
-    <row r="125" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>299</v>
       </c>
@@ -42645,22 +42644,22 @@
   </sheetPr>
   <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="E114" sqref="E114"/>
+    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.86328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.73046875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.3984375" customWidth="1"/>
-    <col min="5" max="5" width="19.3984375" customWidth="1"/>
-    <col min="6" max="6" width="12.59765625" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
     <col min="7" max="8" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -42686,7 +42685,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>46</v>
       </c>
@@ -42712,7 +42711,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>52</v>
       </c>
@@ -42738,7 +42737,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>56</v>
       </c>
@@ -42764,7 +42763,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>57</v>
       </c>
@@ -42790,7 +42789,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>60</v>
       </c>
@@ -42816,7 +42815,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>61</v>
       </c>
@@ -42842,7 +42841,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>62</v>
       </c>
@@ -42868,7 +42867,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>63</v>
       </c>
@@ -42894,7 +42893,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>64</v>
       </c>
@@ -42920,7 +42919,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>248</v>
       </c>
@@ -42946,7 +42945,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>66</v>
       </c>
@@ -42972,7 +42971,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>67</v>
       </c>
@@ -42998,7 +42997,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>68</v>
       </c>
@@ -43024,7 +43023,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>69</v>
       </c>
@@ -43050,7 +43049,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>70</v>
       </c>
@@ -43076,7 +43075,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>71</v>
       </c>
@@ -43102,7 +43101,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>72</v>
       </c>
@@ -43128,7 +43127,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>73</v>
       </c>
@@ -43154,7 +43153,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>74</v>
       </c>
@@ -43180,7 +43179,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>75</v>
       </c>
@@ -43206,7 +43205,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>76</v>
       </c>
@@ -43232,7 +43231,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>77</v>
       </c>
@@ -43258,7 +43257,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>78</v>
       </c>
@@ -43284,7 +43283,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>79</v>
       </c>
@@ -43310,7 +43309,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>80</v>
       </c>
@@ -43336,7 +43335,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>81</v>
       </c>
@@ -43362,7 +43361,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>82</v>
       </c>
@@ -43388,7 +43387,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>83</v>
       </c>
@@ -43414,7 +43413,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>84</v>
       </c>
@@ -43440,7 +43439,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>85</v>
       </c>
@@ -43466,7 +43465,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>86</v>
       </c>
@@ -43492,7 +43491,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>87</v>
       </c>
@@ -43518,7 +43517,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>88</v>
       </c>
@@ -43544,7 +43543,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>89</v>
       </c>
@@ -43570,7 +43569,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>90</v>
       </c>
@@ -43596,7 +43595,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>91</v>
       </c>
@@ -43622,7 +43621,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>93</v>
       </c>
@@ -43648,7 +43647,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>94</v>
       </c>
@@ -43674,7 +43673,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>95</v>
       </c>
@@ -43700,7 +43699,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>96</v>
       </c>
@@ -43726,7 +43725,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>98</v>
       </c>
@@ -43752,7 +43751,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>99</v>
       </c>
@@ -43778,7 +43777,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>102</v>
       </c>
@@ -43804,7 +43803,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>104</v>
       </c>
@@ -43830,7 +43829,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>108</v>
       </c>
@@ -43856,7 +43855,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>109</v>
       </c>
@@ -43882,7 +43881,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>110</v>
       </c>
@@ -43908,7 +43907,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>112</v>
       </c>
@@ -43934,7 +43933,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>114</v>
       </c>
@@ -43960,7 +43959,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>116</v>
       </c>
@@ -43986,7 +43985,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>119</v>
       </c>
@@ -44012,7 +44011,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>121</v>
       </c>
@@ -44038,7 +44037,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>220</v>
       </c>
@@ -44064,7 +44063,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>125</v>
       </c>
@@ -44090,7 +44089,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>126</v>
       </c>
@@ -44116,7 +44115,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>127</v>
       </c>
@@ -44142,7 +44141,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>128</v>
       </c>
@@ -44168,7 +44167,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>129</v>
       </c>
@@ -44194,7 +44193,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>131</v>
       </c>
@@ -44220,7 +44219,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>134</v>
       </c>
@@ -44246,7 +44245,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>135</v>
       </c>
@@ -44272,7 +44271,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>136</v>
       </c>
@@ -44298,7 +44297,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>137</v>
       </c>
@@ -44324,7 +44323,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>139</v>
       </c>
@@ -44350,7 +44349,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>141</v>
       </c>
@@ -44376,7 +44375,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>142</v>
       </c>
@@ -44402,7 +44401,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>143</v>
       </c>
@@ -44428,7 +44427,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>145</v>
       </c>
@@ -44454,7 +44453,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>146</v>
       </c>
@@ -44480,7 +44479,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>147</v>
       </c>
@@ -44506,7 +44505,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>150</v>
       </c>
@@ -44532,7 +44531,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>151</v>
       </c>
@@ -44558,7 +44557,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>152</v>
       </c>
@@ -44584,7 +44583,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>153</v>
       </c>
@@ -44610,7 +44609,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>155</v>
       </c>
@@ -44636,7 +44635,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>156</v>
       </c>
@@ -44662,7 +44661,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
         <v>157</v>
       </c>
@@ -44688,7 +44687,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
         <v>160</v>
       </c>
@@ -44714,7 +44713,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
         <v>162</v>
       </c>
@@ -44740,7 +44739,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
         <v>164</v>
       </c>
@@ -44766,7 +44765,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
         <v>166</v>
       </c>
@@ -44792,7 +44791,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
         <v>168</v>
       </c>
@@ -44818,7 +44817,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
         <v>170</v>
       </c>
@@ -44844,7 +44843,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
         <v>171</v>
       </c>
@@ -44870,7 +44869,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
         <v>173</v>
       </c>
@@ -44896,7 +44895,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
         <v>174</v>
       </c>
@@ -44922,7 +44921,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
         <v>175</v>
       </c>
@@ -44948,7 +44947,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
         <v>176</v>
       </c>
@@ -44974,7 +44973,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
         <v>177</v>
       </c>
@@ -45000,7 +44999,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
         <v>178</v>
       </c>
@@ -45026,7 +45025,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
         <v>179</v>
       </c>
@@ -45052,7 +45051,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
         <v>180</v>
       </c>
@@ -45078,7 +45077,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
         <v>181</v>
       </c>
@@ -45104,7 +45103,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="s">
         <v>182</v>
       </c>
@@ -45130,7 +45129,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="s">
         <v>183</v>
       </c>
@@ -45156,7 +45155,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="s">
         <v>184</v>
       </c>
@@ -45182,7 +45181,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="s">
         <v>185</v>
       </c>
@@ -45208,7 +45207,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
         <v>186</v>
       </c>
@@ -45234,7 +45233,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
         <v>187</v>
       </c>
@@ -45260,7 +45259,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
         <v>188</v>
       </c>
@@ -45286,7 +45285,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
         <v>189</v>
       </c>
@@ -45312,7 +45311,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
         <v>190</v>
       </c>
@@ -45332,7 +45331,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
         <v>191</v>
       </c>
@@ -45355,7 +45354,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
         <v>192</v>
       </c>
@@ -45375,7 +45374,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
         <v>193</v>
       </c>
@@ -45395,7 +45394,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
         <v>194</v>
       </c>
@@ -45418,7 +45417,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
         <v>195</v>
       </c>
@@ -45438,7 +45437,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
         <v>196</v>
       </c>
@@ -45458,7 +45457,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
         <v>197</v>
       </c>
@@ -45478,7 +45477,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
         <v>198</v>
       </c>
@@ -45498,7 +45497,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
         <v>199</v>
       </c>
@@ -45518,7 +45517,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
         <v>227</v>
       </c>
@@ -45538,7 +45537,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
         <v>228</v>
       </c>
@@ -45561,7 +45560,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
         <v>229</v>
       </c>
@@ -45581,7 +45580,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
         <v>230</v>
       </c>
@@ -45601,7 +45600,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
         <v>231</v>
       </c>
@@ -45621,7 +45620,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
         <v>232</v>
       </c>
@@ -45641,7 +45640,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
         <v>233</v>
       </c>
@@ -45661,7 +45660,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
         <v>234</v>
       </c>
@@ -45681,7 +45680,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
         <v>235</v>
       </c>
@@ -45701,7 +45700,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
         <v>236</v>
       </c>
@@ -45721,7 +45720,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
         <v>237</v>
       </c>
@@ -45741,7 +45740,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
         <v>238</v>
       </c>
@@ -45761,7 +45760,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="13" t="s">
         <v>44</v>
       </c>
@@ -45795,53 +45794,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AS18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+    <sheetView zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
       <selection activeCell="AJ13" sqref="AJ13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="20.19921875" customWidth="1"/>
-    <col min="3" max="3" width="16.59765625" customWidth="1"/>
-    <col min="5" max="5" width="9.73046875" customWidth="1"/>
-    <col min="7" max="7" width="10.3984375" customWidth="1"/>
-    <col min="9" max="9" width="12.86328125" customWidth="1"/>
-    <col min="10" max="10" width="16.73046875" customWidth="1"/>
-    <col min="11" max="11" width="15.73046875" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" customWidth="1"/>
     <col min="12" max="12" width="19" customWidth="1"/>
-    <col min="13" max="13" width="18.1328125" customWidth="1"/>
-    <col min="14" max="14" width="13.1328125" customWidth="1"/>
-    <col min="15" max="15" width="15.86328125" customWidth="1"/>
-    <col min="16" max="16" width="16.265625" customWidth="1"/>
-    <col min="17" max="17" width="16.1328125" customWidth="1"/>
-    <col min="18" max="18" width="17.1328125" customWidth="1"/>
-    <col min="19" max="20" width="15.73046875" customWidth="1"/>
-    <col min="21" max="21" width="17.265625" customWidth="1"/>
-    <col min="22" max="22" width="10.86328125" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" customWidth="1"/>
+    <col min="15" max="15" width="15.85546875" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" customWidth="1"/>
+    <col min="17" max="17" width="16.140625" customWidth="1"/>
+    <col min="18" max="18" width="17.140625" customWidth="1"/>
+    <col min="19" max="20" width="15.7109375" customWidth="1"/>
+    <col min="21" max="21" width="17.28515625" customWidth="1"/>
+    <col min="22" max="22" width="10.85546875" customWidth="1"/>
     <col min="23" max="23" width="14" customWidth="1"/>
-    <col min="24" max="25" width="13.86328125" customWidth="1"/>
-    <col min="26" max="26" width="20.3984375" customWidth="1"/>
-    <col min="27" max="27" width="13.1328125" customWidth="1"/>
-    <col min="28" max="28" width="20.86328125" customWidth="1"/>
-    <col min="29" max="29" width="11.3984375" customWidth="1"/>
-    <col min="30" max="30" width="10.86328125" customWidth="1"/>
-    <col min="31" max="31" width="11.59765625" customWidth="1"/>
-    <col min="32" max="32" width="19.86328125" customWidth="1"/>
-    <col min="33" max="34" width="11.265625" customWidth="1"/>
-    <col min="35" max="35" width="28.3984375" customWidth="1"/>
-    <col min="36" max="36" width="33.265625" customWidth="1"/>
-    <col min="37" max="37" width="11.1328125" customWidth="1"/>
-    <col min="38" max="38" width="18.73046875" customWidth="1"/>
-    <col min="39" max="39" width="17.73046875" customWidth="1"/>
-    <col min="40" max="40" width="18.59765625" customWidth="1"/>
-    <col min="41" max="41" width="17.265625" customWidth="1"/>
-    <col min="42" max="43" width="19.3984375" customWidth="1"/>
-    <col min="44" max="44" width="16.86328125" customWidth="1"/>
-    <col min="45" max="45" width="12.59765625" customWidth="1"/>
+    <col min="24" max="25" width="13.85546875" customWidth="1"/>
+    <col min="26" max="26" width="20.42578125" customWidth="1"/>
+    <col min="27" max="27" width="13.140625" customWidth="1"/>
+    <col min="28" max="28" width="20.85546875" customWidth="1"/>
+    <col min="29" max="29" width="11.42578125" customWidth="1"/>
+    <col min="30" max="30" width="10.85546875" customWidth="1"/>
+    <col min="31" max="31" width="11.5703125" customWidth="1"/>
+    <col min="32" max="32" width="19.85546875" customWidth="1"/>
+    <col min="33" max="34" width="11.28515625" customWidth="1"/>
+    <col min="35" max="35" width="28.42578125" customWidth="1"/>
+    <col min="36" max="36" width="33.28515625" customWidth="1"/>
+    <col min="37" max="37" width="11.140625" customWidth="1"/>
+    <col min="38" max="38" width="18.7109375" customWidth="1"/>
+    <col min="39" max="39" width="17.7109375" customWidth="1"/>
+    <col min="40" max="40" width="18.5703125" customWidth="1"/>
+    <col min="41" max="41" width="17.28515625" customWidth="1"/>
+    <col min="42" max="43" width="19.42578125" customWidth="1"/>
+    <col min="44" max="44" width="16.85546875" customWidth="1"/>
+    <col min="45" max="45" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="31" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:45" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>330</v>
       </c>
@@ -45978,7 +45977,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>314</v>
       </c>
@@ -46115,7 +46114,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="3" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>327</v>
       </c>
@@ -46252,7 +46251,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="4" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>320</v>
       </c>
@@ -46389,7 +46388,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="5" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>324</v>
       </c>
@@ -46526,7 +46525,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="6" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>323</v>
       </c>
@@ -46663,7 +46662,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="7" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>329</v>
       </c>
@@ -46800,7 +46799,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="8" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>338</v>
       </c>
@@ -46937,7 +46936,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="9" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>315</v>
       </c>
@@ -47074,7 +47073,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="10" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>345</v>
       </c>
@@ -47211,7 +47210,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="11" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>344</v>
       </c>
@@ -47287,7 +47286,7 @@
       <c r="Y11" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="Z11" s="36" t="s">
+      <c r="Z11" t="s">
         <v>53</v>
       </c>
       <c r="AA11" s="22">
@@ -47348,7 +47347,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="12" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>346</v>
       </c>
@@ -47424,7 +47423,7 @@
       <c r="Y12" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="Z12" s="36" t="s">
+      <c r="Z12" t="s">
         <v>268</v>
       </c>
       <c r="AA12" s="22">
@@ -47485,7 +47484,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="13" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>343</v>
       </c>
@@ -47561,7 +47560,7 @@
       <c r="Y13" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="Z13" s="36" t="s">
+      <c r="Z13" t="s">
         <v>53</v>
       </c>
       <c r="AA13">
@@ -47622,7 +47621,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="15" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -47667,7 +47666,7 @@
       <c r="AQ15" s="30"/>
       <c r="AR15" s="30"/>
     </row>
-    <row r="18" spans="21:30" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="21:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U18" s="16"/>
       <c r="V18" s="17"/>
       <c r="W18" s="16"/>

--- a/HW3/autogen/CUSignals.xlsx
+++ b/HW3/autogen/CUSignals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\garre\Desktop\EE 188\HW3\autogen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2660E3C2-B2A8-44EB-A889-82F4B57EF3FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D51593-09B9-4ADF-AE7D-341757150D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="1" r:id="rId1"/>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="L3" s="8">
         <f>PAU!D3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" s="8" t="str">
         <f>PAU!E3</f>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="L4" s="8">
         <f>PAU!D4</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="8" t="str">
         <f>PAU!E4</f>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="L6" s="8">
         <f>PAU!D6</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="8" t="str">
         <f>PAU!E6</f>
@@ -3023,7 +3023,7 @@
       </c>
       <c r="L7" s="8">
         <f>PAU!D7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="8" t="str">
         <f>PAU!E7</f>
@@ -3205,7 +3205,7 @@
       </c>
       <c r="L8" s="8">
         <f>PAU!D8</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="8" t="str">
         <f>PAU!E8</f>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="L9" s="8">
         <f>PAU!D9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" s="8" t="str">
         <f>PAU!E9</f>
@@ -3569,7 +3569,7 @@
       </c>
       <c r="L10" s="8">
         <f>PAU!D10</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="8" t="str">
         <f>PAU!E10</f>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="L11" s="8">
         <f>PAU!D11</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="8" t="str">
         <f>PAU!E11</f>
@@ -3933,7 +3933,7 @@
       </c>
       <c r="L12" s="8">
         <f>PAU!D12</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="8" t="str">
         <f>PAU!E12</f>
@@ -4115,7 +4115,7 @@
       </c>
       <c r="L13" s="8">
         <f>PAU!D13</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="8" t="str">
         <f>PAU!E13</f>
@@ -4297,7 +4297,7 @@
       </c>
       <c r="L14" s="8">
         <f>PAU!D14</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="8" t="str">
         <f>PAU!E14</f>
@@ -4479,7 +4479,7 @@
       </c>
       <c r="L15" s="8">
         <f>PAU!D15</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="8" t="str">
         <f>PAU!E15</f>
@@ -4661,7 +4661,7 @@
       </c>
       <c r="L16" s="8">
         <f>PAU!D16</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" s="8" t="str">
         <f>PAU!E16</f>
@@ -4843,7 +4843,7 @@
       </c>
       <c r="L17" s="8">
         <f>PAU!D17</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" s="8" t="str">
         <f>PAU!E17</f>
@@ -5025,7 +5025,7 @@
       </c>
       <c r="L18" s="8">
         <f>PAU!D18</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" s="8" t="str">
         <f>PAU!E18</f>
@@ -5207,7 +5207,7 @@
       </c>
       <c r="L19" s="8">
         <f>PAU!D19</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" s="8" t="str">
         <f>PAU!E19</f>
@@ -5389,7 +5389,7 @@
       </c>
       <c r="L20" s="8">
         <f>PAU!D20</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" s="8" t="str">
         <f>PAU!E20</f>
@@ -5571,7 +5571,7 @@
       </c>
       <c r="L21" s="8">
         <f>PAU!D21</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" s="8" t="str">
         <f>PAU!E21</f>
@@ -5753,7 +5753,7 @@
       </c>
       <c r="L22" s="8">
         <f>PAU!D22</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" s="8" t="str">
         <f>PAU!E22</f>
@@ -5935,7 +5935,7 @@
       </c>
       <c r="L23" s="8">
         <f>PAU!D23</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" s="8" t="str">
         <f>PAU!E23</f>
@@ -6117,7 +6117,7 @@
       </c>
       <c r="L24" s="8">
         <f>PAU!D24</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" s="8" t="str">
         <f>PAU!E24</f>
@@ -6299,7 +6299,7 @@
       </c>
       <c r="L25" s="8">
         <f>PAU!D25</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" s="8" t="str">
         <f>PAU!E25</f>
@@ -6481,7 +6481,7 @@
       </c>
       <c r="L26" s="8">
         <f>PAU!D26</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" s="8" t="str">
         <f>PAU!E26</f>
@@ -6663,7 +6663,7 @@
       </c>
       <c r="L27" s="8">
         <f>PAU!D27</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" s="8" t="str">
         <f>PAU!E27</f>
@@ -6845,7 +6845,7 @@
       </c>
       <c r="L28" s="8">
         <f>PAU!D28</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28" s="8" t="str">
         <f>PAU!E28</f>
@@ -7027,7 +7027,7 @@
       </c>
       <c r="L29" s="8">
         <f>PAU!D29</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" s="8" t="str">
         <f>PAU!E29</f>
@@ -7209,7 +7209,7 @@
       </c>
       <c r="L30" s="8">
         <f>PAU!D30</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30" s="8" t="str">
         <f>PAU!E30</f>
@@ -7391,7 +7391,7 @@
       </c>
       <c r="L31" s="8">
         <f>PAU!D31</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" s="8" t="str">
         <f>PAU!E31</f>
@@ -7573,7 +7573,7 @@
       </c>
       <c r="L32" s="8">
         <f>PAU!D32</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32" s="8" t="str">
         <f>PAU!E32</f>
@@ -7755,7 +7755,7 @@
       </c>
       <c r="L33" s="8">
         <f>PAU!D33</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M33" s="8" t="str">
         <f>PAU!E33</f>
@@ -7937,7 +7937,7 @@
       </c>
       <c r="L34" s="8">
         <f>PAU!D34</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34" s="8" t="str">
         <f>PAU!E34</f>
@@ -8119,7 +8119,7 @@
       </c>
       <c r="L35" s="8">
         <f>PAU!D35</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35" s="8" t="str">
         <f>PAU!E35</f>
@@ -28311,8 +28311,8 @@
   </sheetPr>
   <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -28390,7 +28390,7 @@
         <v>215</v>
       </c>
       <c r="D3" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="19" t="s">
         <v>216</v>
@@ -28416,7 +28416,7 @@
         <v>215</v>
       </c>
       <c r="D4" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>216</v>
@@ -28468,7 +28468,7 @@
         <v>215</v>
       </c>
       <c r="D6" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>216</v>
@@ -28494,7 +28494,7 @@
         <v>215</v>
       </c>
       <c r="D7" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>216</v>
@@ -28520,7 +28520,7 @@
         <v>215</v>
       </c>
       <c r="D8" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>216</v>
@@ -28546,7 +28546,7 @@
         <v>215</v>
       </c>
       <c r="D9" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>216</v>
@@ -28572,7 +28572,7 @@
         <v>215</v>
       </c>
       <c r="D10" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>216</v>
@@ -28598,7 +28598,7 @@
         <v>215</v>
       </c>
       <c r="D11" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>216</v>
@@ -28624,7 +28624,7 @@
         <v>215</v>
       </c>
       <c r="D12" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>216</v>
@@ -28650,7 +28650,7 @@
         <v>215</v>
       </c>
       <c r="D13" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>216</v>
@@ -28676,7 +28676,7 @@
         <v>215</v>
       </c>
       <c r="D14" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>216</v>
@@ -28702,7 +28702,7 @@
         <v>215</v>
       </c>
       <c r="D15" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="19" t="s">
         <v>216</v>
@@ -28728,7 +28728,7 @@
         <v>215</v>
       </c>
       <c r="D16" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>216</v>
@@ -28754,7 +28754,7 @@
         <v>215</v>
       </c>
       <c r="D17" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" s="19" t="s">
         <v>216</v>
@@ -28780,7 +28780,7 @@
         <v>215</v>
       </c>
       <c r="D18" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>216</v>
@@ -28806,7 +28806,7 @@
         <v>215</v>
       </c>
       <c r="D19" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" s="19" t="s">
         <v>216</v>
@@ -28832,7 +28832,7 @@
         <v>215</v>
       </c>
       <c r="D20" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="19" t="s">
         <v>216</v>
@@ -28858,7 +28858,7 @@
         <v>215</v>
       </c>
       <c r="D21" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="19" t="s">
         <v>216</v>
@@ -28884,7 +28884,7 @@
         <v>215</v>
       </c>
       <c r="D22" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="19" t="s">
         <v>216</v>
@@ -28910,7 +28910,7 @@
         <v>215</v>
       </c>
       <c r="D23" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" s="19" t="s">
         <v>216</v>
@@ -28936,7 +28936,7 @@
         <v>215</v>
       </c>
       <c r="D24" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="19" t="s">
         <v>216</v>
@@ -28962,7 +28962,7 @@
         <v>215</v>
       </c>
       <c r="D25" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" s="19" t="s">
         <v>216</v>
@@ -28988,7 +28988,7 @@
         <v>215</v>
       </c>
       <c r="D26" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="19" t="s">
         <v>216</v>
@@ -29014,7 +29014,7 @@
         <v>215</v>
       </c>
       <c r="D27" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" s="19" t="s">
         <v>216</v>
@@ -29040,7 +29040,7 @@
         <v>215</v>
       </c>
       <c r="D28" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" s="19" t="s">
         <v>216</v>
@@ -29066,7 +29066,7 @@
         <v>215</v>
       </c>
       <c r="D29" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" s="19" t="s">
         <v>216</v>
@@ -29092,7 +29092,7 @@
         <v>215</v>
       </c>
       <c r="D30" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" s="19" t="s">
         <v>216</v>
@@ -29118,7 +29118,7 @@
         <v>215</v>
       </c>
       <c r="D31" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" s="19" t="s">
         <v>216</v>
@@ -29144,7 +29144,7 @@
         <v>215</v>
       </c>
       <c r="D32" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" s="19" t="s">
         <v>216</v>
@@ -29170,7 +29170,7 @@
         <v>215</v>
       </c>
       <c r="D33" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" s="19" t="s">
         <v>216</v>
@@ -29196,7 +29196,7 @@
         <v>215</v>
       </c>
       <c r="D34" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" s="19" t="s">
         <v>216</v>
@@ -29222,7 +29222,7 @@
         <v>215</v>
       </c>
       <c r="D35" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" s="19" t="s">
         <v>216</v>
@@ -42644,7 +42644,7 @@
   </sheetPr>
   <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+    <sheetView zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -45795,7 +45795,7 @@
   <dimension ref="A1:AS18"/>
   <sheetViews>
     <sheetView zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="AJ13" sqref="AJ13"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -46009,10 +46009,10 @@
         <v>214</v>
       </c>
       <c r="K2" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" t="s">
         <v>216</v>

--- a/HW3/autogen/CUSignals.xlsx
+++ b/HW3/autogen/CUSignals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\garre\Desktop\EE 188\HW3\autogen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D51593-09B9-4ADF-AE7D-341757150D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CB7A11-14C0-4C58-8453-A92996582BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5470" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5471" uniqueCount="350">
   <si>
     <t>Instruction</t>
   </si>
@@ -1015,13 +1015,7 @@
     <t>TempRegSel_Result</t>
   </si>
   <si>
-    <t>BranchSlot when SR(0)='0' else Normal</t>
-  </si>
-  <si>
     <t>TempRegSel_Offset8</t>
-  </si>
-  <si>
-    <t>BranchSlot when SR(0)='1' else Normal</t>
   </si>
   <si>
     <t>BranchSlot</t>
@@ -1127,6 +1121,9 @@
   </si>
   <si>
     <t>SRSel_Tmp2</t>
+  </si>
+  <si>
+    <t>Column1</t>
   </si>
 </sst>
 </file>
@@ -1279,7 +1276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1380,6 +1377,7 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1631,9 +1629,9 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table7" displayName="Table7" ref="A1:H125" totalsRowShown="0">
-  <autoFilter ref="A1:H125" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table7" displayName="Table7" ref="A1:I125" totalsRowShown="0">
+  <autoFilter ref="A1:I125" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Instruction"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="NextState"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="UpdateIR"/>
@@ -1642,6 +1640,7 @@
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="SRSel"/>
     <tableColumn id="8" xr3:uid="{4B77E926-C156-4D39-8F23-C4453A726B52}" name="UpdateTempReg2"/>
     <tableColumn id="7" xr3:uid="{4F5AE407-7225-43E3-8C1D-4D80A945FCB4}" name="TempReg2Sel"/>
+    <tableColumn id="9" xr3:uid="{4071D217-4E1B-473B-8F81-A216DAD5646F}" name="Column1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1883,8 +1882,8 @@
   <dimension ref="A1:AS126"/>
   <sheetViews>
     <sheetView zoomScale="69" zoomScaleNormal="103" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AL124" sqref="AL124"/>
+      <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AM112" sqref="AM112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2063,7 +2062,7 @@
         <v>43</v>
       </c>
       <c r="AS1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18783,7 +18782,7 @@
       </c>
       <c r="AM93" t="str">
         <f>CU!B93</f>
-        <v>BranchSlot when SR(0)='0' else Normal</v>
+        <v>Normal</v>
       </c>
       <c r="AN93" s="4">
         <f>CU!C93</f>
@@ -19147,7 +19146,7 @@
       </c>
       <c r="AM95" t="str">
         <f>CU!B95</f>
-        <v>BranchSlot when SR(0)='1' else Normal</v>
+        <v>Normal</v>
       </c>
       <c r="AN95" s="4">
         <f>CU!C95</f>
@@ -24652,8 +24651,8 @@
   </sheetPr>
   <dimension ref="A1:I125"/>
   <sheetViews>
-    <sheetView topLeftCell="A105" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="B115" sqref="B115"/>
+    <sheetView topLeftCell="A69" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="I78" sqref="I78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -28311,14 +28310,14 @@
   </sheetPr>
   <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D35"/>
+    <sheetView topLeftCell="A78" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.42578125" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="55.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="51.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="21.5703125" style="3" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" style="3" customWidth="1"/>
@@ -34876,7 +34875,7 @@
   </sheetPr>
   <dimension ref="A1:K126"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+    <sheetView zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
@@ -39160,7 +39159,7 @@
   </sheetPr>
   <dimension ref="A1:M125"/>
   <sheetViews>
-    <sheetView topLeftCell="A105" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+    <sheetView topLeftCell="A83" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
       <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
@@ -42642,10 +42641,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H125"/>
+  <dimension ref="A1:I125"/>
   <sheetViews>
-    <sheetView zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -42659,7 +42658,7 @@
     <col min="7" max="8" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -42682,10 +42681,13 @@
         <v>43</v>
       </c>
       <c r="H1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+      <c r="I1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>46</v>
       </c>
@@ -42711,7 +42713,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>52</v>
       </c>
@@ -42737,7 +42739,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>56</v>
       </c>
@@ -42763,7 +42765,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>57</v>
       </c>
@@ -42789,7 +42791,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>60</v>
       </c>
@@ -42815,7 +42817,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>61</v>
       </c>
@@ -42841,7 +42843,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>62</v>
       </c>
@@ -42867,7 +42869,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>63</v>
       </c>
@@ -42893,7 +42895,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>64</v>
       </c>
@@ -42919,7 +42921,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>248</v>
       </c>
@@ -42945,7 +42947,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>66</v>
       </c>
@@ -42971,7 +42973,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>67</v>
       </c>
@@ -42997,7 +42999,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>68</v>
       </c>
@@ -43023,7 +43025,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>69</v>
       </c>
@@ -43049,7 +43051,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>70</v>
       </c>
@@ -44372,7 +44374,7 @@
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -44476,7 +44478,7 @@
         <v>1</v>
       </c>
       <c r="H70" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -44502,7 +44504,7 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -44580,7 +44582,7 @@
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -44658,7 +44660,7 @@
         <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -44739,7 +44741,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
         <v>164</v>
       </c>
@@ -44765,7 +44767,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
         <v>166</v>
       </c>
@@ -44791,7 +44793,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
         <v>168</v>
       </c>
@@ -44817,7 +44819,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
         <v>170</v>
       </c>
@@ -44843,7 +44845,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
         <v>171</v>
       </c>
@@ -44869,7 +44871,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
         <v>173</v>
       </c>
@@ -44895,7 +44897,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
         <v>174</v>
       </c>
@@ -44921,7 +44923,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
         <v>175</v>
       </c>
@@ -44947,7 +44949,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
         <v>176</v>
       </c>
@@ -44973,7 +44975,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
         <v>177</v>
       </c>
@@ -44999,7 +45001,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
         <v>178</v>
       </c>
@@ -45025,7 +45027,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
         <v>179</v>
       </c>
@@ -45050,22 +45052,23 @@
       <c r="H92" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I92" s="36"/>
+    </row>
+    <row r="93" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
         <v>180</v>
       </c>
       <c r="B93" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C93" s="3">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93" t="s">
         <v>317</v>
-      </c>
-      <c r="C93" s="3">
-        <v>1</v>
-      </c>
-      <c r="D93">
-        <v>1</v>
-      </c>
-      <c r="E93" t="s">
-        <v>318</v>
       </c>
       <c r="F93" t="s">
         <v>313</v>
@@ -45076,8 +45079,9 @@
       <c r="H93" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I93" s="36"/>
+    </row>
+    <row r="94" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
         <v>181</v>
       </c>
@@ -45103,12 +45107,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="s">
         <v>182</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C95" s="3">
         <v>1</v>
@@ -45117,7 +45121,7 @@
         <v>1</v>
       </c>
       <c r="E95" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F95" t="s">
         <v>313</v>
@@ -45129,12 +45133,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="s">
         <v>183</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C96" s="3">
         <v>1</v>
@@ -45143,7 +45147,7 @@
         <v>1</v>
       </c>
       <c r="E96" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F96" t="s">
         <v>313</v>
@@ -45160,16 +45164,16 @@
         <v>184</v>
       </c>
       <c r="B97" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C97" s="3">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97" t="s">
         <v>320</v>
-      </c>
-      <c r="C97" s="3">
-        <v>1</v>
-      </c>
-      <c r="D97">
-        <v>1</v>
-      </c>
-      <c r="E97" t="s">
-        <v>322</v>
       </c>
       <c r="F97" t="s">
         <v>313</v>
@@ -45186,7 +45190,7 @@
         <v>185</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C98" s="3">
         <v>1</v>
@@ -45195,7 +45199,7 @@
         <v>1</v>
       </c>
       <c r="E98" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F98" t="s">
         <v>313</v>
@@ -45212,16 +45216,16 @@
         <v>186</v>
       </c>
       <c r="B99" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C99" s="3">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99" t="s">
         <v>320</v>
-      </c>
-      <c r="C99" s="3">
-        <v>1</v>
-      </c>
-      <c r="D99">
-        <v>1</v>
-      </c>
-      <c r="E99" t="s">
-        <v>322</v>
       </c>
       <c r="F99" t="s">
         <v>313</v>
@@ -45238,7 +45242,7 @@
         <v>187</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C100" s="3">
         <v>1</v>
@@ -45247,7 +45251,7 @@
         <v>1</v>
       </c>
       <c r="E100" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F100" t="s">
         <v>313</v>
@@ -45264,7 +45268,7 @@
         <v>188</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C101" s="3">
         <v>1</v>
@@ -45273,7 +45277,7 @@
         <v>1</v>
       </c>
       <c r="E101" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F101" t="s">
         <v>313</v>
@@ -45290,7 +45294,7 @@
         <v>189</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C102" s="3">
         <v>1</v>
@@ -45299,7 +45303,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F102" t="s">
         <v>313</v>
@@ -45345,7 +45349,7 @@
         <v>0</v>
       </c>
       <c r="F104" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -45408,7 +45412,7 @@
         <v>0</v>
       </c>
       <c r="F107" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -45502,7 +45506,7 @@
         <v>199</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C112" s="3">
         <v>0</v>
@@ -45542,7 +45546,7 @@
         <v>228</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C114" s="3">
         <v>0</v>
@@ -45551,7 +45555,7 @@
         <v>1</v>
       </c>
       <c r="E114" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -45745,7 +45749,7 @@
         <v>238</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C124" s="3">
         <v>0</v>
@@ -45765,7 +45769,7 @@
         <v>44</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C125" s="3">
         <v>1</v>
@@ -45795,7 +45799,7 @@
   <dimension ref="A1:AS18"/>
   <sheetViews>
     <sheetView zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -45842,10 +45846,10 @@
   <sheetData>
     <row r="1" spans="1:45" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C1" s="32" t="s">
         <v>2</v>
@@ -45968,7 +45972,7 @@
         <v>43</v>
       </c>
       <c r="AQ1" s="33" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AR1" s="33" t="s">
         <v>15</v>
@@ -46102,21 +46106,21 @@
         <v>217</v>
       </c>
       <c r="AP2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AQ2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AR2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AS2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B3" t="s">
         <v>53</v>
@@ -46221,7 +46225,7 @@
         <v>301</v>
       </c>
       <c r="AJ3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AK3">
         <v>0</v>
@@ -46239,51 +46243,51 @@
         <v>217</v>
       </c>
       <c r="AP3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AQ3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AR3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AS3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J4" t="s">
         <v>214</v>
       </c>
       <c r="K4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -46292,76 +46296,76 @@
         <v>216</v>
       </c>
       <c r="N4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="O4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="P4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="Q4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="R4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="S4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="T4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="U4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="V4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="W4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="X4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="Y4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="Z4" t="s">
         <v>53</v>
       </c>
       <c r="AA4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AB4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AC4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AD4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AE4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AF4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AG4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AH4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AI4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AJ4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AK4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -46376,51 +46380,51 @@
         <v>250</v>
       </c>
       <c r="AP4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AQ4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AR4" t="s">
         <v>249</v>
       </c>
       <c r="AS4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C5" t="s">
+        <v>329</v>
+      </c>
+      <c r="D5" t="s">
+        <v>329</v>
+      </c>
+      <c r="E5" t="s">
+        <v>329</v>
+      </c>
+      <c r="F5" t="s">
+        <v>329</v>
+      </c>
+      <c r="G5" t="s">
+        <v>329</v>
+      </c>
+      <c r="H5" t="s">
+        <v>329</v>
+      </c>
+      <c r="I5" t="s">
+        <v>329</v>
+      </c>
+      <c r="J5" t="s">
         <v>331</v>
       </c>
-      <c r="C5" t="s">
-        <v>331</v>
-      </c>
-      <c r="D5" t="s">
-        <v>331</v>
-      </c>
-      <c r="E5" t="s">
-        <v>331</v>
-      </c>
-      <c r="F5" t="s">
-        <v>331</v>
-      </c>
-      <c r="G5" t="s">
-        <v>331</v>
-      </c>
-      <c r="H5" t="s">
-        <v>331</v>
-      </c>
-      <c r="I5" t="s">
-        <v>331</v>
-      </c>
-      <c r="J5" t="s">
-        <v>333</v>
-      </c>
       <c r="K5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -46429,76 +46433,76 @@
         <v>216</v>
       </c>
       <c r="N5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="O5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="P5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="Q5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="R5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="S5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="T5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="U5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="V5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="W5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="X5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="Y5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="Z5" t="s">
         <v>53</v>
       </c>
       <c r="AA5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AB5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AC5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AD5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AE5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AF5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AG5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AH5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AI5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AJ5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AK5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -46513,51 +46517,51 @@
         <v>217</v>
       </c>
       <c r="AP5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AQ5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AR5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AS5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K6" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -46566,76 +46570,76 @@
         <v>216</v>
       </c>
       <c r="N6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="O6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="P6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="Q6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="R6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="S6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="T6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="U6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="V6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="W6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="X6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="Y6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="Z6" t="s">
         <v>53</v>
       </c>
       <c r="AA6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AB6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AC6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AD6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AE6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AF6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AG6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AH6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AI6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AJ6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AK6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -46650,51 +46654,51 @@
         <v>217</v>
       </c>
       <c r="AP6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AQ6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AR6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AS6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B7" t="s">
         <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D7" t="s">
         <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G7" t="s">
         <v>51</v>
       </c>
       <c r="H7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -46706,49 +46710,49 @@
         <v>262</v>
       </c>
       <c r="O7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="P7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="Q7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="R7" t="s">
         <v>217</v>
       </c>
       <c r="S7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="T7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="U7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="V7">
         <v>1</v>
       </c>
       <c r="W7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="X7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="Y7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="Z7" t="s">
         <v>53</v>
       </c>
       <c r="AA7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AB7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AC7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AD7">
         <v>0</v>
@@ -46760,19 +46764,19 @@
         <v>302</v>
       </c>
       <c r="AG7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AH7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AI7" t="s">
         <v>304</v>
       </c>
       <c r="AJ7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="AK7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AL7">
         <v>0</v>
@@ -46787,21 +46791,21 @@
         <v>250</v>
       </c>
       <c r="AP7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AQ7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AR7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AS7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -46924,16 +46928,16 @@
         <v>217</v>
       </c>
       <c r="AP8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AQ8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AR8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AS8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.25">
@@ -46941,46 +46945,46 @@
         <v>315</v>
       </c>
       <c r="B9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D9" t="s">
         <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G9" t="s">
         <v>51</v>
       </c>
       <c r="H9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>50</v>
@@ -46998,19 +47002,19 @@
         <v>242</v>
       </c>
       <c r="U9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="V9">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="X9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="Y9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="Z9" t="s">
         <v>53</v>
@@ -47019,10 +47023,10 @@
         <v>0</v>
       </c>
       <c r="AB9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AC9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AD9">
         <v>1</v>
@@ -47034,7 +47038,7 @@
         <v>302</v>
       </c>
       <c r="AG9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AH9" t="s">
         <v>305</v>
@@ -47061,57 +47065,57 @@
         <v>217</v>
       </c>
       <c r="AP9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AQ9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AR9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AS9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="N10" t="s">
         <v>246</v>
@@ -47135,16 +47139,16 @@
         <v>242</v>
       </c>
       <c r="U10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="V10">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="X10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="Y10" s="7" t="s">
         <v>293</v>
@@ -47159,7 +47163,7 @@
         <v>294</v>
       </c>
       <c r="AC10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AD10">
         <v>1</v>
@@ -47171,72 +47175,72 @@
         <v>302</v>
       </c>
       <c r="AG10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AH10" s="8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AI10" t="s">
         <v>304</v>
       </c>
       <c r="AJ10" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="AK10">
         <v>0</v>
       </c>
       <c r="AL10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AM10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AN10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AP10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AQ10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AR10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AS10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>239</v>
@@ -47248,10 +47252,10 @@
         <v>1</v>
       </c>
       <c r="M11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>245</v>
@@ -47272,16 +47276,16 @@
         <v>242</v>
       </c>
       <c r="U11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="V11">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="X11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="Y11" s="7" t="s">
         <v>293</v>
@@ -47293,10 +47297,10 @@
         <v>0</v>
       </c>
       <c r="AB11" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AC11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AD11" s="19">
         <v>0</v>
@@ -47311,7 +47315,7 @@
         <v>307</v>
       </c>
       <c r="AH11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AI11" t="s">
         <v>304</v>
@@ -47323,69 +47327,69 @@
         <v>0</v>
       </c>
       <c r="AL11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AM11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AN11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AP11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AQ11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AR11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AS11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B12" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C12" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D12" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E12" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F12" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G12" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H12" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I12" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J12" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K12" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L12" s="8">
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="N12" t="s">
         <v>246</v>
@@ -47409,16 +47413,16 @@
         <v>242</v>
       </c>
       <c r="U12" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="V12">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="X12" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="Y12" s="7" t="s">
         <v>293</v>
@@ -47433,7 +47437,7 @@
         <v>294</v>
       </c>
       <c r="AC12" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AD12" s="19">
         <v>0</v>
@@ -47445,16 +47449,16 @@
         <v>302</v>
       </c>
       <c r="AG12" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AH12" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AI12" t="s">
         <v>304</v>
       </c>
       <c r="AJ12" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="AK12">
         <v>0</v>
@@ -47463,60 +47467,60 @@
         <v>0</v>
       </c>
       <c r="AM12" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AN12" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO12" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AP12">
         <v>1</v>
       </c>
       <c r="AQ12" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AR12" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AS12" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="13" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B13" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C13" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D13" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E13" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F13" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G13" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H13" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K13" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -47525,37 +47529,37 @@
         <v>216</v>
       </c>
       <c r="N13" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="O13" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="P13" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="Q13" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="R13" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="S13" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="T13" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="U13" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="V13">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="X13" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="Y13" s="7" t="s">
         <v>293</v>
@@ -47567,25 +47571,25 @@
         <v>0</v>
       </c>
       <c r="AB13" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AC13" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AD13" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AE13" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AF13" t="s">
         <v>300</v>
       </c>
       <c r="AG13" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AH13" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AI13" t="s">
         <v>301</v>
@@ -47609,16 +47613,16 @@
         <v>250</v>
       </c>
       <c r="AP13" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AQ13" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AR13" t="s">
         <v>251</v>
       </c>
       <c r="AS13" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.25">

--- a/HW3/autogen/CUSignals.xlsx
+++ b/HW3/autogen/CUSignals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\garre\Desktop\EE 188\HW3\autogen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7AEF27-BFBB-4530-9FFA-D81F9F94D731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A2BCB2-7FBC-49CE-8316-E703C5C2553D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14303" yWindow="-3945" windowWidth="24495" windowHeight="15675" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14303" yWindow="-3945" windowWidth="24495" windowHeight="15675" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5593" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5592" uniqueCount="359">
   <si>
     <t>Instruction</t>
   </si>
@@ -8495,15 +8495,15 @@
       </c>
       <c r="S36" s="8" t="str">
         <f>DAU!D36</f>
-        <v>-</v>
-      </c>
-      <c r="T36" s="8" t="str">
+        <v>MemUnit_DEC</v>
+      </c>
+      <c r="T36" s="8">
         <f>DAU!E36</f>
-        <v>unused</v>
+        <v>1</v>
       </c>
       <c r="U36" s="8" t="str">
         <f>DAU!F36</f>
-        <v>MemUnit_POST</v>
+        <v>MemUnit_PRE</v>
       </c>
       <c r="V36" s="8" t="str">
         <f>DAU!G36</f>
@@ -28837,8 +28837,8 @@
   </sheetPr>
   <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="C103" sqref="C103"/>
+    <sheetView topLeftCell="A88" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -32119,8 +32119,8 @@
   </sheetPr>
   <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -33056,13 +33056,13 @@
         <v>243</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>53</v>
+        <v>247</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="G36" s="22" t="s">
         <v>239</v>
@@ -35387,9 +35387,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -43170,8 +43170,8 @@
   </sheetPr>
   <dimension ref="A1:I125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="I102" sqref="I102"/>
+    <sheetView topLeftCell="A83" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/HW3/autogen/CUSignals.xlsx
+++ b/HW3/autogen/CUSignals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\garre\Desktop\EE 188\HW3\autogen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A2BCB2-7FBC-49CE-8316-E703C5C2553D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDFEE9C-C4D0-4959-BDE5-5212896ED010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14303" yWindow="-3945" windowWidth="24495" windowHeight="15675" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5592" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5594" uniqueCount="360">
   <si>
     <t>Instruction</t>
   </si>
@@ -1135,9 +1135,6 @@
     <t>BranchSel_BFS</t>
   </si>
   <si>
-    <t>BranchSel_Always</t>
-  </si>
-  <si>
     <t>PAU_Offset8</t>
   </si>
   <si>
@@ -1150,7 +1147,13 @@
     <t>BranchSel_RET</t>
   </si>
   <si>
-    <t>BranchSel_JUMP</t>
+    <t>UseWB</t>
+  </si>
+  <si>
+    <t>BranchSel_Direct</t>
+  </si>
+  <si>
+    <t>BranchSel_Indirect</t>
   </si>
 </sst>
 </file>
@@ -1656,9 +1659,9 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table7" displayName="Table7" ref="A1:I125" totalsRowShown="0">
-  <autoFilter ref="A1:I125" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table7" displayName="Table7" ref="A1:J125" totalsRowShown="0">
+  <autoFilter ref="A1:J125" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Instruction"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="NextState"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="UpdateIR"/>
@@ -1668,6 +1671,7 @@
     <tableColumn id="8" xr3:uid="{4B77E926-C156-4D39-8F23-C4453A726B52}" name="UpdateTempReg2"/>
     <tableColumn id="7" xr3:uid="{4F5AE407-7225-43E3-8C1D-4D80A945FCB4}" name="TempReg2Sel"/>
     <tableColumn id="9" xr3:uid="{4071D217-4E1B-473B-8F81-A216DAD5646F}" name="BranchSel"/>
+    <tableColumn id="10" xr3:uid="{F9A4569D-949C-41DF-971B-D4B8928083B8}" name="UseWB"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1906,11 +1910,11 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AT126"/>
+  <dimension ref="A1:AU126"/>
   <sheetViews>
-    <sheetView zoomScale="69" zoomScaleNormal="103" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="X1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AT124" sqref="AT124"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AK1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AU127" sqref="AU127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1956,7 +1960,7 @@
     <col min="46" max="46" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2095,8 +2099,11 @@
       <c r="AT1" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="2" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="str">
         <f>ALU!A2</f>
         <v>OpMOV_Imm_To_Rn</v>
@@ -2281,8 +2288,12 @@
         <f>CU!I2</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="3" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU2" s="8">
+        <f>CU!J2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="str">
         <f>ALU!A3</f>
         <v>OpMOVW_At_Disp_PC_To_Rn</v>
@@ -2467,8 +2478,12 @@
         <f>CU!I3</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="4" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU3" s="8">
+        <f>CU!J3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="str">
         <f>ALU!A4</f>
         <v>OpMOVL_At_Disp_PC_To_Rn</v>
@@ -2653,8 +2668,12 @@
         <f>CU!I4</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="5" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU4" s="8">
+        <f>CU!J4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="str">
         <f>ALU!A5</f>
         <v>OpMOV_Rm_To_Rn</v>
@@ -2839,8 +2858,12 @@
         <f>CU!I5</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="6" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU5" s="8">
+        <f>CU!J5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="str">
         <f>ALU!A6</f>
         <v>OpMOVB_Rm_To_At_Rn</v>
@@ -3025,8 +3048,12 @@
         <f>CU!I6</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="7" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU6" s="8">
+        <f>CU!J6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="str">
         <f>ALU!A7</f>
         <v>OpMOVW_Rm_To_At_Rn</v>
@@ -3211,8 +3238,12 @@
         <f>CU!I7</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="8" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU7" s="8">
+        <f>CU!J7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="str">
         <f>ALU!A8</f>
         <v>OpMOVL_Rm_To_At_Rn</v>
@@ -3397,8 +3428,12 @@
         <f>CU!I8</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="9" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU8" s="8">
+        <f>CU!J8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="str">
         <f>ALU!A9</f>
         <v>OpMOVB_At_Rm_To_Rn</v>
@@ -3583,8 +3618,12 @@
         <f>CU!I9</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="10" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU9" s="8">
+        <f>CU!J9</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="str">
         <f>ALU!A10</f>
         <v>OpMOVW_At_Rm_To_Rn</v>
@@ -3769,8 +3808,12 @@
         <f>CU!I10</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="11" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU10" s="8">
+        <f>CU!J10</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="str">
         <f>ALU!A11</f>
         <v>OpMOVL_At_Rm_Rn</v>
@@ -3955,8 +3998,12 @@
         <f>CU!I11</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="12" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU11" s="8">
+        <f>CU!J11</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="str">
         <f>ALU!A12</f>
         <v>OpMOVB_Rm_To_At_Dec_Rn</v>
@@ -4141,8 +4188,12 @@
         <f>CU!I12</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="13" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU12" s="8">
+        <f>CU!J12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="str">
         <f>ALU!A13</f>
         <v>OpMOVW_Rm_To_At_Dec_Rn</v>
@@ -4327,8 +4378,12 @@
         <f>CU!I13</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="14" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU13" s="8">
+        <f>CU!J13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="str">
         <f>ALU!A14</f>
         <v>OpMOVL_Rm_To_At_Dec_Rn</v>
@@ -4513,8 +4568,12 @@
         <f>CU!I14</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="15" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU14" s="8">
+        <f>CU!J14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="str">
         <f>ALU!A15</f>
         <v>OpMOVB_At_Rm_Inc_To_Rn</v>
@@ -4699,8 +4758,12 @@
         <f>CU!I15</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="16" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU15" s="8">
+        <f>CU!J15</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="str">
         <f>ALU!A16</f>
         <v>OpMOVW_At_Rm_Inc_To_Rn</v>
@@ -4885,8 +4948,12 @@
         <f>CU!I16</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="17" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU16" s="8">
+        <f>CU!J16</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="str">
         <f>ALU!A17</f>
         <v>OpMOVL_At_Rm_Inc_To_Rn</v>
@@ -5071,8 +5138,12 @@
         <f>CU!I17</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="18" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU17" s="8">
+        <f>CU!J17</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="str">
         <f>ALU!A18</f>
         <v>OpMOVB_R0_To_At_Disp_Rn</v>
@@ -5257,8 +5328,12 @@
         <f>CU!I18</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="19" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU18" s="8">
+        <f>CU!J18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="str">
         <f>ALU!A19</f>
         <v>OpMOVW_R0_To_At_Disp_Rn</v>
@@ -5443,8 +5518,12 @@
         <f>CU!I19</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="20" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU19" s="8">
+        <f>CU!J19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="str">
         <f>ALU!A20</f>
         <v>OpMOVL_R0_To_At_Disp_Rn</v>
@@ -5629,8 +5708,12 @@
         <f>CU!I20</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="21" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU20" s="8">
+        <f>CU!J20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="str">
         <f>ALU!A21</f>
         <v>OpMOVB_At_Disp_Rm_To_R0</v>
@@ -5815,8 +5898,12 @@
         <f>CU!I21</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="22" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU21" s="8">
+        <f>CU!J21</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="str">
         <f>ALU!A22</f>
         <v>OpMOVW_At_Disp_Rm_To_R0</v>
@@ -6001,8 +6088,12 @@
         <f>CU!I22</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="23" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU22" s="8">
+        <f>CU!J22</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="str">
         <f>ALU!A23</f>
         <v>OpMOVL_At_Disp_Rm_To_Rn</v>
@@ -6187,8 +6278,12 @@
         <f>CU!I23</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="24" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU23" s="8">
+        <f>CU!J23</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="str">
         <f>ALU!A24</f>
         <v>OpMOVB_Rm_To_At_R0_Rn</v>
@@ -6373,8 +6468,12 @@
         <f>CU!I24</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="25" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU24" s="8">
+        <f>CU!J24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="str">
         <f>ALU!A25</f>
         <v>OpMOVW_Rm_To_At_R0_Rn</v>
@@ -6559,8 +6658,12 @@
         <f>CU!I25</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="26" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU25" s="8">
+        <f>CU!J25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="str">
         <f>ALU!A26</f>
         <v>OpMOVL_Rm_To_At_R0_Rn</v>
@@ -6745,8 +6848,12 @@
         <f>CU!I26</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="27" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU26" s="8">
+        <f>CU!J26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="str">
         <f>ALU!A27</f>
         <v>OpMOVB_At_R0_Rm_To_Rn</v>
@@ -6931,8 +7038,12 @@
         <f>CU!I27</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="28" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU27" s="8">
+        <f>CU!J27</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="str">
         <f>ALU!A28</f>
         <v>OpMOVW_At_R0_Rm_To_Rn</v>
@@ -7117,8 +7228,12 @@
         <f>CU!I28</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="29" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU28" s="8">
+        <f>CU!J28</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="str">
         <f>ALU!A29</f>
         <v>OpMOVL_At_R0_Rm_To_Rn</v>
@@ -7303,8 +7418,12 @@
         <f>CU!I29</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="30" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU29" s="8">
+        <f>CU!J29</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="str">
         <f>ALU!A30</f>
         <v>OpMOVB_R0_To_At_Disp_GBR</v>
@@ -7489,8 +7608,12 @@
         <f>CU!I30</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="31" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU30" s="8">
+        <f>CU!J30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="str">
         <f>ALU!A31</f>
         <v>OpMOVW_R0_To_At_Disp_GBR</v>
@@ -7675,8 +7798,12 @@
         <f>CU!I31</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="32" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU31" s="8">
+        <f>CU!J31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="str">
         <f>ALU!A32</f>
         <v>OpMOVL_R0_To_At_Disp_GBR</v>
@@ -7861,8 +7988,12 @@
         <f>CU!I32</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="33" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU32" s="8">
+        <f>CU!J32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="str">
         <f>ALU!A33</f>
         <v>OpMOVB_At_Disp_GBR_To_R0</v>
@@ -8047,8 +8178,12 @@
         <f>CU!I33</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="34" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU33" s="8">
+        <f>CU!J33</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="str">
         <f>ALU!A34</f>
         <v>OpMOVW_At_Disp_GBR_To_R0</v>
@@ -8233,8 +8368,12 @@
         <f>CU!I34</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="35" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU34" s="8">
+        <f>CU!J34</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="str">
         <f>ALU!A35</f>
         <v>OpMOVL_At_Disp_GBR_To_R0</v>
@@ -8419,8 +8558,12 @@
         <f>CU!I35</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="36" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU35" s="8">
+        <f>CU!J35</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="str">
         <f>ALU!A36</f>
         <v>OpMOVA</v>
@@ -8605,8 +8748,12 @@
         <f>CU!I36</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="37" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU36" s="8">
+        <f>CU!J36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="str">
         <f>ALU!A37</f>
         <v>OpMOVT</v>
@@ -8791,8 +8938,12 @@
         <f>CU!I37</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="38" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU37" s="8">
+        <f>CU!J37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="str">
         <f>ALU!A38</f>
         <v>OpSwapB</v>
@@ -8977,8 +9128,12 @@
         <f>CU!I38</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="39" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU38" s="8">
+        <f>CU!J38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="str">
         <f>ALU!A39</f>
         <v>OpSwapW</v>
@@ -9163,8 +9318,12 @@
         <f>CU!I39</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="40" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU39" s="8">
+        <f>CU!J39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="str">
         <f>ALU!A40</f>
         <v>OpXTRCT</v>
@@ -9349,8 +9508,12 @@
         <f>CU!I40</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="41" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU40" s="8">
+        <f>CU!J40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="str">
         <f>ALU!A41</f>
         <v>OpADD_Rm_Rn</v>
@@ -9535,8 +9698,12 @@
         <f>CU!I41</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="42" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU41" s="8">
+        <f>CU!J41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="str">
         <f>ALU!A42</f>
         <v>OpADD_Imm_Rn</v>
@@ -9721,8 +9888,12 @@
         <f>CU!I42</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="43" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU42" s="8">
+        <f>CU!J42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="str">
         <f>ALU!A43</f>
         <v>OpADDC</v>
@@ -9907,8 +10078,12 @@
         <f>CU!I43</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="44" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU43" s="8">
+        <f>CU!J43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="str">
         <f>ALU!A44</f>
         <v>OpADDV</v>
@@ -10093,8 +10268,12 @@
         <f>CU!I44</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="45" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU44" s="8">
+        <f>CU!J44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="str">
         <f>ALU!A45</f>
         <v>OpCMP_EQ_Imm</v>
@@ -10279,8 +10458,12 @@
         <f>CU!I45</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="46" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU45" s="8">
+        <f>CU!J45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="str">
         <f>ALU!A46</f>
         <v>OpCMP_EQ_RmRn</v>
@@ -10465,8 +10648,12 @@
         <f>CU!I46</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="47" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU46" s="8">
+        <f>CU!J46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="str">
         <f>ALU!A47</f>
         <v>OpCMP_HS</v>
@@ -10651,8 +10838,12 @@
         <f>CU!I47</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="48" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU47" s="8">
+        <f>CU!J47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="str">
         <f>ALU!A48</f>
         <v>OpCMP_GE</v>
@@ -10837,8 +11028,12 @@
         <f>CU!I48</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="49" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU48" s="8">
+        <f>CU!J48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="str">
         <f>ALU!A49</f>
         <v>OpCMP_HI</v>
@@ -11023,8 +11218,12 @@
         <f>CU!I49</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="50" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU49" s="8">
+        <f>CU!J49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="str">
         <f>ALU!A50</f>
         <v>OpCMP_GT</v>
@@ -11209,8 +11408,12 @@
         <f>CU!I50</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="51" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU50" s="8">
+        <f>CU!J50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="str">
         <f>ALU!A51</f>
         <v>OpCMP_PL</v>
@@ -11395,8 +11598,12 @@
         <f>CU!I51</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="52" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU51" s="8">
+        <f>CU!J51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="str">
         <f>ALU!A52</f>
         <v>OpCMP_PZ</v>
@@ -11581,8 +11788,12 @@
         <f>CU!I52</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="53" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU52" s="8">
+        <f>CU!J52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="str">
         <f>ALU!A53</f>
         <v>OpCMP_STR</v>
@@ -11767,8 +11978,12 @@
         <f>CU!I53</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="54" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU53" s="8">
+        <f>CU!J53</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="str">
         <f>ALU!A54</f>
         <v>OpDT</v>
@@ -11953,8 +12168,12 @@
         <f>CU!I54</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="55" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU54" s="8">
+        <f>CU!J54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="str">
         <f>ALU!A55</f>
         <v>OpEXTS_B</v>
@@ -12139,8 +12358,12 @@
         <f>CU!I55</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="56" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU55" s="8">
+        <f>CU!J55</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="str">
         <f>ALU!A56</f>
         <v>OpEXTS_W</v>
@@ -12325,8 +12548,12 @@
         <f>CU!I56</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="57" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU56" s="8">
+        <f>CU!J56</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="str">
         <f>ALU!A57</f>
         <v>OpEXTU_B</v>
@@ -12511,8 +12738,12 @@
         <f>CU!I57</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="58" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU57" s="8">
+        <f>CU!J57</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="str">
         <f>ALU!A58</f>
         <v>OpEXTU_W</v>
@@ -12697,8 +12928,12 @@
         <f>CU!I58</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="59" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU58" s="8">
+        <f>CU!J58</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="str">
         <f>ALU!A59</f>
         <v>OpNEG</v>
@@ -12883,8 +13118,12 @@
         <f>CU!I59</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="60" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU59" s="8">
+        <f>CU!J59</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="str">
         <f>ALU!A60</f>
         <v>OpNEGC</v>
@@ -13069,8 +13308,12 @@
         <f>CU!I60</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="61" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU60" s="8">
+        <f>CU!J60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="str">
         <f>ALU!A61</f>
         <v>OpSUB</v>
@@ -13255,8 +13498,12 @@
         <f>CU!I61</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="62" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU61" s="8">
+        <f>CU!J61</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="str">
         <f>ALU!A62</f>
         <v>OpSUBC</v>
@@ -13441,8 +13688,12 @@
         <f>CU!I62</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="63" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU62" s="8">
+        <f>CU!J62</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="str">
         <f>ALU!A63</f>
         <v>OpSUBV</v>
@@ -13627,8 +13878,12 @@
         <f>CU!I63</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="64" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU63" s="8">
+        <f>CU!J63</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="str">
         <f>ALU!A64</f>
         <v>OpAND_Rm_Rn</v>
@@ -13813,8 +14068,12 @@
         <f>CU!I64</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="65" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU64" s="8">
+        <f>CU!J64</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="str">
         <f>ALU!A65</f>
         <v>OpAND_Imm_Rn</v>
@@ -13999,8 +14258,12 @@
         <f>CU!I65</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="66" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU65" s="8">
+        <f>CU!J65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="str">
         <f>ALU!A66</f>
         <v>OpAND_Imm_B</v>
@@ -14185,8 +14448,12 @@
         <f>CU!I66</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="67" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU66" s="8">
+        <f>CU!J66</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="str">
         <f>ALU!A67</f>
         <v>OpNOT</v>
@@ -14371,8 +14638,12 @@
         <f>CU!I67</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="68" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU67" s="8">
+        <f>CU!J67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="str">
         <f>ALU!A68</f>
         <v>OpOR_Rm_Rn</v>
@@ -14557,8 +14828,12 @@
         <f>CU!I68</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="69" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU68" s="8">
+        <f>CU!J68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="str">
         <f>ALU!A69</f>
         <v>OpOR_Imm</v>
@@ -14743,8 +15018,12 @@
         <f>CU!I69</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="70" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU69" s="8">
+        <f>CU!J69</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="str">
         <f>ALU!A70</f>
         <v>OpOR_Imm_B</v>
@@ -14929,8 +15208,12 @@
         <f>CU!I70</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="71" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU70" s="8">
+        <f>CU!J70</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="str">
         <f>ALU!A71</f>
         <v>OpTAS_B</v>
@@ -15115,8 +15398,12 @@
         <f>CU!I71</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="72" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU71" s="8">
+        <f>CU!J71</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="str">
         <f>ALU!A72</f>
         <v>OpTST_Rm_Rn</v>
@@ -15301,8 +15588,12 @@
         <f>CU!I72</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="73" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU72" s="8">
+        <f>CU!J72</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="str">
         <f>ALU!A73</f>
         <v>OpTST_Imm</v>
@@ -15487,8 +15778,12 @@
         <f>CU!I73</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="74" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU73" s="8">
+        <f>CU!J73</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="str">
         <f>ALU!A74</f>
         <v>OpTST_Imm_B</v>
@@ -15673,8 +15968,12 @@
         <f>CU!I74</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="75" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU74" s="8">
+        <f>CU!J74</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="str">
         <f>ALU!A75</f>
         <v>OpXOR_Rm_Rn</v>
@@ -15859,8 +16158,12 @@
         <f>CU!I75</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="76" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU75" s="8">
+        <f>CU!J75</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="str">
         <f>ALU!A76</f>
         <v>OpXOR_Imm</v>
@@ -16045,8 +16348,12 @@
         <f>CU!I76</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="77" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU76" s="8">
+        <f>CU!J76</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="str">
         <f>ALU!A77</f>
         <v>OpXOR_Imm_B</v>
@@ -16231,8 +16538,12 @@
         <f>CU!I77</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="78" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU77" s="8">
+        <f>CU!J77</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="str">
         <f>ALU!A78</f>
         <v>OpROTL</v>
@@ -16417,8 +16728,12 @@
         <f>CU!I78</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="79" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU78" s="8">
+        <f>CU!J78</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="str">
         <f>ALU!A79</f>
         <v>OpROTR</v>
@@ -16603,8 +16918,12 @@
         <f>CU!I79</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="80" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU79" s="8">
+        <f>CU!J79</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="str">
         <f>ALU!A80</f>
         <v>OpROTCL</v>
@@ -16789,8 +17108,12 @@
         <f>CU!I80</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="81" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU80" s="8">
+        <f>CU!J80</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="str">
         <f>ALU!A81</f>
         <v>OpROTCR</v>
@@ -16975,8 +17298,12 @@
         <f>CU!I81</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="82" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU81" s="8">
+        <f>CU!J81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="str">
         <f>ALU!A82</f>
         <v>OpSHAL</v>
@@ -17161,8 +17488,12 @@
         <f>CU!I82</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="83" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU82" s="8">
+        <f>CU!J82</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="str">
         <f>ALU!A83</f>
         <v>OpSHAR</v>
@@ -17347,8 +17678,12 @@
         <f>CU!I83</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="84" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU83" s="8">
+        <f>CU!J83</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="str">
         <f>ALU!A84</f>
         <v>OpSHLL</v>
@@ -17533,8 +17868,12 @@
         <f>CU!I84</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="85" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU84" s="8">
+        <f>CU!J84</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="str">
         <f>ALU!A85</f>
         <v>OpSHLR</v>
@@ -17719,8 +18058,12 @@
         <f>CU!I85</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="86" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU85" s="8">
+        <f>CU!J85</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="str">
         <f>ALU!A86</f>
         <v>OpSHLL2</v>
@@ -17905,8 +18248,12 @@
         <f>CU!I86</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="87" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU86" s="8">
+        <f>CU!J86</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="str">
         <f>ALU!A87</f>
         <v>OpSHLR2</v>
@@ -18091,8 +18438,12 @@
         <f>CU!I87</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="88" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU87" s="8">
+        <f>CU!J87</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="str">
         <f>ALU!A88</f>
         <v>OpSHLL8</v>
@@ -18277,8 +18628,12 @@
         <f>CU!I88</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="89" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU88" s="8">
+        <f>CU!J88</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="str">
         <f>ALU!A89</f>
         <v>OpSHLR8</v>
@@ -18463,8 +18818,12 @@
         <f>CU!I89</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="90" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU89" s="8">
+        <f>CU!J89</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="str">
         <f>ALU!A90</f>
         <v>OpSHLL16</v>
@@ -18649,8 +19008,12 @@
         <f>CU!I90</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="91" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU90" s="8">
+        <f>CU!J90</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="str">
         <f>ALU!A91</f>
         <v>OpSHLR16</v>
@@ -18835,8 +19198,12 @@
         <f>CU!I91</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="92" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU91" s="8">
+        <f>CU!J91</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="str">
         <f>ALU!A92</f>
         <v>OpBF</v>
@@ -19021,8 +19388,12 @@
         <f>CU!I92</f>
         <v>BranchSel_BF</v>
       </c>
-    </row>
-    <row r="93" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU92" s="8">
+        <f>CU!J92</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="str">
         <f>ALU!A93</f>
         <v>OpBFS</v>
@@ -19207,8 +19578,12 @@
         <f>CU!I93</f>
         <v>BranchSel_BFS</v>
       </c>
-    </row>
-    <row r="94" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU93" s="8">
+        <f>CU!J93</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="str">
         <f>ALU!A94</f>
         <v>OpBT</v>
@@ -19393,8 +19768,12 @@
         <f>CU!I94</f>
         <v>BranchSel_BT</v>
       </c>
-    </row>
-    <row r="95" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU94" s="8">
+        <f>CU!J94</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="str">
         <f>ALU!A95</f>
         <v>OpBTS</v>
@@ -19579,8 +19958,12 @@
         <f>CU!I95</f>
         <v>BranchSel_BTS</v>
       </c>
-    </row>
-    <row r="96" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU95" s="8">
+        <f>CU!J95</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="str">
         <f>ALU!A96</f>
         <v>OpBRA</v>
@@ -19763,10 +20146,14 @@
       </c>
       <c r="AT96" s="8" t="str">
         <f>CU!I96</f>
-        <v>BranchSel_Always</v>
-      </c>
-    </row>
-    <row r="97" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>BranchSel_Direct</v>
+      </c>
+      <c r="AU96" s="8">
+        <f>CU!J96</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="str">
         <f>ALU!A97</f>
         <v>OpBRAF</v>
@@ -19949,10 +20336,14 @@
       </c>
       <c r="AT97" s="8" t="str">
         <f>CU!I97</f>
-        <v>BranchSel_Always</v>
-      </c>
-    </row>
-    <row r="98" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>BranchSel_Direct</v>
+      </c>
+      <c r="AU97" s="8">
+        <f>CU!J97</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="str">
         <f>ALU!A98</f>
         <v>OpBSR</v>
@@ -20135,10 +20526,14 @@
       </c>
       <c r="AT98" s="8" t="str">
         <f>CU!I98</f>
-        <v>BranchSel_Always</v>
-      </c>
-    </row>
-    <row r="99" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>BranchSel_Direct</v>
+      </c>
+      <c r="AU98" s="8">
+        <f>CU!J98</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="str">
         <f>ALU!A99</f>
         <v>OpBSRF</v>
@@ -20321,10 +20716,14 @@
       </c>
       <c r="AT99" s="8" t="str">
         <f>CU!I99</f>
-        <v>BranchSel_Always</v>
-      </c>
-    </row>
-    <row r="100" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>BranchSel_Direct</v>
+      </c>
+      <c r="AU99" s="8">
+        <f>CU!J99</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="str">
         <f>ALU!A100</f>
         <v>OpJMP</v>
@@ -20507,10 +20906,14 @@
       </c>
       <c r="AT100" s="8" t="str">
         <f>CU!I100</f>
-        <v>BranchSel_JUMP</v>
-      </c>
-    </row>
-    <row r="101" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>BranchSel_Indirect</v>
+      </c>
+      <c r="AU100" s="8">
+        <f>CU!J100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="str">
         <f>ALU!A101</f>
         <v>OpJSR</v>
@@ -20693,10 +21096,14 @@
       </c>
       <c r="AT101" s="8" t="str">
         <f>CU!I101</f>
-        <v>BranchSel_JUMP</v>
-      </c>
-    </row>
-    <row r="102" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>BranchSel_Indirect</v>
+      </c>
+      <c r="AU101" s="8">
+        <f>CU!J101</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="str">
         <f>ALU!A102</f>
         <v>OpRTS</v>
@@ -20881,8 +21288,12 @@
         <f>CU!I102</f>
         <v>BranchSel_RET</v>
       </c>
-    </row>
-    <row r="103" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU102" s="8">
+        <f>CU!J102</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="str">
         <f>ALU!A103</f>
         <v>OpCLRT</v>
@@ -21067,8 +21478,12 @@
         <f>CU!I103</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="104" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU103" s="8">
+        <f>CU!J103</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="str">
         <f>ALU!A104</f>
         <v>OpLDC_Rm_To_SR</v>
@@ -21253,8 +21668,12 @@
         <f>CU!I104</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="105" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU104" s="8">
+        <f>CU!J104</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="str">
         <f>ALU!A105</f>
         <v>OpLDC_Rm_To_GBR</v>
@@ -21439,8 +21858,12 @@
         <f>CU!I105</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="106" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU105" s="8">
+        <f>CU!J105</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="str">
         <f>ALU!A106</f>
         <v>OpLDC_Rm_To_VBR</v>
@@ -21625,8 +22048,12 @@
         <f>CU!I106</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="107" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU106" s="8">
+        <f>CU!J106</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="str">
         <f>ALU!A107</f>
         <v>OpLDCL_At_Rm_Inc_To_SR</v>
@@ -21811,8 +22238,12 @@
         <f>CU!I107</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="108" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU107" s="8">
+        <f>CU!J107</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="str">
         <f>ALU!A108</f>
         <v>OpLDCL_At_Rm_Inc_To_GBR</v>
@@ -21997,8 +22428,12 @@
         <f>CU!I108</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="109" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU108" s="8">
+        <f>CU!J108</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="str">
         <f>ALU!A109</f>
         <v>OpLDCL_At_Rm_Inc_To_VBR</v>
@@ -22183,8 +22618,12 @@
         <f>CU!I109</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="110" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU109" s="8">
+        <f>CU!J109</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="str">
         <f>ALU!A110</f>
         <v>OpLDS_Rm_To_PR</v>
@@ -22369,8 +22808,12 @@
         <f>CU!I110</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="111" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU110" s="8">
+        <f>CU!J110</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="str">
         <f>ALU!A111</f>
         <v>OpLDSL_At_Rm_Inc_To_PR</v>
@@ -22555,8 +22998,12 @@
         <f>CU!I111</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="112" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU111" s="8">
+        <f>CU!J111</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="str">
         <f>ALU!A112</f>
         <v>OpSLEEP</v>
@@ -22741,8 +23188,12 @@
         <f>CU!I112</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="113" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU112" s="8">
+        <f>CU!J112</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="str">
         <f>ALU!A113</f>
         <v>OpNOP</v>
@@ -22927,8 +23378,12 @@
         <f>CU!I113</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="114" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU113" s="8">
+        <f>CU!J113</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="str">
         <f>ALU!A114</f>
         <v>OpRTE</v>
@@ -23113,8 +23568,12 @@
         <f>CU!I114</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU114" s="8">
+        <f>CU!J114</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="str">
         <f>ALU!A115</f>
         <v>OpSETT</v>
@@ -23299,8 +23758,12 @@
         <f>CU!I115</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="116" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU115" s="8">
+        <f>CU!J115</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="str">
         <f>ALU!A116</f>
         <v>OpSTC_SR_To_Rn</v>
@@ -23485,8 +23948,12 @@
         <f>CU!I116</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="117" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU116" s="8">
+        <f>CU!J116</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="str">
         <f>ALU!A117</f>
         <v>OpSTC_GBR_To_Rn</v>
@@ -23671,8 +24138,12 @@
         <f>CU!I117</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="118" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU117" s="8">
+        <f>CU!J117</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="str">
         <f>ALU!A118</f>
         <v>OpSTC_VBR_To_Rn</v>
@@ -23857,8 +24328,12 @@
         <f>CU!I118</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="119" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU118" s="8">
+        <f>CU!J118</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="str">
         <f>ALU!A119</f>
         <v>OpSTCL_SR_To_At_Dec_Rn</v>
@@ -24043,8 +24518,12 @@
         <f>CU!I119</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="120" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU119" s="8">
+        <f>CU!J119</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="str">
         <f>ALU!A120</f>
         <v>OpSTCL_GBR_To_At_Dec_Rn</v>
@@ -24229,8 +24708,12 @@
         <f>CU!I120</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="121" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU120" s="8">
+        <f>CU!J120</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="str">
         <f>ALU!A121</f>
         <v>OpSTCL_VBR_To_At_Dec_Rn</v>
@@ -24415,8 +24898,12 @@
         <f>CU!I121</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="122" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU121" s="8">
+        <f>CU!J121</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="str">
         <f>ALU!A122</f>
         <v>OpSTS_PR_To_Rn</v>
@@ -24601,8 +25088,12 @@
         <f>CU!I122</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="123" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU122" s="8">
+        <f>CU!J122</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="str">
         <f>ALU!A123</f>
         <v>OpSTSL_PR_To_At_Dec_Rn</v>
@@ -24787,8 +25278,12 @@
         <f>CU!I123</f>
         <v>BranchSel_None</v>
       </c>
-    </row>
-    <row r="124" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU123" s="8">
+        <f>CU!J123</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="str">
         <f>ALU!A124</f>
         <v>OpTRAPA</v>
@@ -24973,8 +25468,12 @@
         <f>CU!I124</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU124" s="8">
+        <f>CU!J124</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="13" t="s">
         <v>44</v>
       </c>
@@ -25158,8 +25657,12 @@
         <f>CU!I125</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU125" s="8">
+        <f>CU!J125</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="14"/>
     </row>
   </sheetData>
@@ -28837,7 +29340,7 @@
   </sheetPr>
   <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+    <sheetView topLeftCell="A90" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
       <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
@@ -31224,10 +31727,10 @@
         <v>179</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D92" s="8">
         <v>1</v>
@@ -31250,10 +31753,10 @@
         <v>180</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D93" s="8">
         <v>1</v>
@@ -31276,10 +31779,10 @@
         <v>181</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D94" s="8">
         <v>1</v>
@@ -31302,10 +31805,10 @@
         <v>182</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D95" s="8">
         <v>1</v>
@@ -31328,10 +31831,10 @@
         <v>183</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D96" s="8">
         <v>1</v>
@@ -31354,10 +31857,10 @@
         <v>184</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D97" s="8">
         <v>1</v>
@@ -31380,10 +31883,10 @@
         <v>185</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D98" s="8">
         <v>1</v>
@@ -31406,10 +31909,10 @@
         <v>186</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D99" s="8">
         <v>1</v>
@@ -31435,7 +31938,7 @@
         <v>331</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D100" s="8">
         <v>1</v>
@@ -31461,7 +31964,7 @@
         <v>331</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D101" s="8">
         <v>1</v>
@@ -32119,7 +32622,7 @@
   </sheetPr>
   <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
@@ -43168,10 +43671,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I125"/>
+  <dimension ref="A1:J125"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="D101" sqref="D101"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="I101" sqref="I101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -43184,9 +43687,10 @@
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
     <col min="7" max="8" width="20" customWidth="1"/>
     <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -43214,8 +43718,11 @@
       <c r="I1" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>46</v>
       </c>
@@ -43243,8 +43750,11 @@
       <c r="I2" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>52</v>
       </c>
@@ -43272,8 +43782,11 @@
       <c r="I3" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>56</v>
       </c>
@@ -43301,8 +43814,11 @@
       <c r="I4" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>57</v>
       </c>
@@ -43330,8 +43846,11 @@
       <c r="I5" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>60</v>
       </c>
@@ -43359,8 +43878,11 @@
       <c r="I6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>61</v>
       </c>
@@ -43388,8 +43910,11 @@
       <c r="I7" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>62</v>
       </c>
@@ -43417,8 +43942,11 @@
       <c r="I8" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>63</v>
       </c>
@@ -43446,8 +43974,11 @@
       <c r="I9" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>64</v>
       </c>
@@ -43475,8 +44006,11 @@
       <c r="I10" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>246</v>
       </c>
@@ -43504,8 +44038,11 @@
       <c r="I11" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>66</v>
       </c>
@@ -43533,8 +44070,11 @@
       <c r="I12" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>67</v>
       </c>
@@ -43562,8 +44102,11 @@
       <c r="I13" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>68</v>
       </c>
@@ -43591,8 +44134,11 @@
       <c r="I14" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>69</v>
       </c>
@@ -43620,8 +44166,11 @@
       <c r="I15" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>70</v>
       </c>
@@ -43649,8 +44198,11 @@
       <c r="I16" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>71</v>
       </c>
@@ -43678,8 +44230,11 @@
       <c r="I17" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>72</v>
       </c>
@@ -43707,8 +44262,11 @@
       <c r="I18" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>73</v>
       </c>
@@ -43736,8 +44294,11 @@
       <c r="I19" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>74</v>
       </c>
@@ -43765,8 +44326,11 @@
       <c r="I20" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>75</v>
       </c>
@@ -43794,8 +44358,11 @@
       <c r="I21" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>76</v>
       </c>
@@ -43823,8 +44390,11 @@
       <c r="I22" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>77</v>
       </c>
@@ -43852,8 +44422,11 @@
       <c r="I23" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>78</v>
       </c>
@@ -43881,8 +44454,11 @@
       <c r="I24" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>79</v>
       </c>
@@ -43910,8 +44486,11 @@
       <c r="I25" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>80</v>
       </c>
@@ -43939,8 +44518,11 @@
       <c r="I26" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>81</v>
       </c>
@@ -43968,8 +44550,11 @@
       <c r="I27" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>82</v>
       </c>
@@ -43997,8 +44582,11 @@
       <c r="I28" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>83</v>
       </c>
@@ -44026,8 +44614,11 @@
       <c r="I29" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>84</v>
       </c>
@@ -44055,8 +44646,11 @@
       <c r="I30" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>85</v>
       </c>
@@ -44084,8 +44678,11 @@
       <c r="I31" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>86</v>
       </c>
@@ -44113,8 +44710,11 @@
       <c r="I32" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>87</v>
       </c>
@@ -44142,8 +44742,11 @@
       <c r="I33" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>88</v>
       </c>
@@ -44171,8 +44774,11 @@
       <c r="I34" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>89</v>
       </c>
@@ -44200,8 +44806,11 @@
       <c r="I35" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>90</v>
       </c>
@@ -44229,8 +44838,11 @@
       <c r="I36" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>91</v>
       </c>
@@ -44258,8 +44870,11 @@
       <c r="I37" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>93</v>
       </c>
@@ -44287,8 +44902,11 @@
       <c r="I38" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>94</v>
       </c>
@@ -44316,8 +44934,11 @@
       <c r="I39" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>95</v>
       </c>
@@ -44345,8 +44966,11 @@
       <c r="I40" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>96</v>
       </c>
@@ -44374,8 +44998,11 @@
       <c r="I41" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>98</v>
       </c>
@@ -44403,8 +45030,11 @@
       <c r="I42" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>99</v>
       </c>
@@ -44432,8 +45062,11 @@
       <c r="I43" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>102</v>
       </c>
@@ -44461,8 +45094,11 @@
       <c r="I44" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>104</v>
       </c>
@@ -44490,8 +45126,11 @@
       <c r="I45" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>108</v>
       </c>
@@ -44519,8 +45158,11 @@
       <c r="I46" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>109</v>
       </c>
@@ -44548,8 +45190,11 @@
       <c r="I47" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>110</v>
       </c>
@@ -44577,8 +45222,11 @@
       <c r="I48" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>112</v>
       </c>
@@ -44606,8 +45254,11 @@
       <c r="I49" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>114</v>
       </c>
@@ -44635,8 +45286,11 @@
       <c r="I50" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>116</v>
       </c>
@@ -44664,8 +45318,11 @@
       <c r="I51" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>119</v>
       </c>
@@ -44693,8 +45350,11 @@
       <c r="I52" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>121</v>
       </c>
@@ -44722,8 +45382,11 @@
       <c r="I53" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>220</v>
       </c>
@@ -44751,8 +45414,11 @@
       <c r="I54" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>125</v>
       </c>
@@ -44780,8 +45446,11 @@
       <c r="I55" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>126</v>
       </c>
@@ -44809,8 +45478,11 @@
       <c r="I56" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>127</v>
       </c>
@@ -44838,8 +45510,11 @@
       <c r="I57" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>128</v>
       </c>
@@ -44867,8 +45542,11 @@
       <c r="I58" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>129</v>
       </c>
@@ -44896,8 +45574,11 @@
       <c r="I59" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>131</v>
       </c>
@@ -44925,8 +45606,11 @@
       <c r="I60" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>134</v>
       </c>
@@ -44954,8 +45638,11 @@
       <c r="I61" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>135</v>
       </c>
@@ -44983,8 +45670,11 @@
       <c r="I62" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>136</v>
       </c>
@@ -45012,8 +45702,11 @@
       <c r="I63" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>137</v>
       </c>
@@ -45041,8 +45734,11 @@
       <c r="I64" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>139</v>
       </c>
@@ -45070,8 +45766,11 @@
       <c r="I65" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>141</v>
       </c>
@@ -45099,8 +45798,11 @@
       <c r="I66" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>142</v>
       </c>
@@ -45128,8 +45830,11 @@
       <c r="I67" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>143</v>
       </c>
@@ -45157,8 +45862,11 @@
       <c r="I68" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>145</v>
       </c>
@@ -45186,8 +45894,11 @@
       <c r="I69" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>146</v>
       </c>
@@ -45215,8 +45926,11 @@
       <c r="I70" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>147</v>
       </c>
@@ -45244,8 +45958,11 @@
       <c r="I71" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>150</v>
       </c>
@@ -45273,8 +45990,11 @@
       <c r="I72" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>151</v>
       </c>
@@ -45302,8 +46022,11 @@
       <c r="I73" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>152</v>
       </c>
@@ -45331,8 +46054,11 @@
       <c r="I74" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>153</v>
       </c>
@@ -45360,8 +46086,11 @@
       <c r="I75" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>155</v>
       </c>
@@ -45389,8 +46118,11 @@
       <c r="I76" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>156</v>
       </c>
@@ -45418,8 +46150,11 @@
       <c r="I77" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
         <v>157</v>
       </c>
@@ -45447,8 +46182,11 @@
       <c r="I78" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
         <v>160</v>
       </c>
@@ -45476,8 +46214,11 @@
       <c r="I79" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
         <v>162</v>
       </c>
@@ -45505,8 +46246,11 @@
       <c r="I80" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
         <v>164</v>
       </c>
@@ -45534,8 +46278,11 @@
       <c r="I81" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
         <v>166</v>
       </c>
@@ -45563,8 +46310,11 @@
       <c r="I82" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
         <v>168</v>
       </c>
@@ -45592,8 +46342,11 @@
       <c r="I83" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
         <v>170</v>
       </c>
@@ -45621,8 +46374,11 @@
       <c r="I84" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
         <v>171</v>
       </c>
@@ -45650,8 +46406,11 @@
       <c r="I85" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
         <v>173</v>
       </c>
@@ -45679,8 +46438,11 @@
       <c r="I86" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
         <v>174</v>
       </c>
@@ -45708,8 +46470,11 @@
       <c r="I87" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
         <v>175</v>
       </c>
@@ -45737,8 +46502,11 @@
       <c r="I88" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
         <v>176</v>
       </c>
@@ -45766,8 +46534,11 @@
       <c r="I89" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
         <v>177</v>
       </c>
@@ -45795,8 +46566,11 @@
       <c r="I90" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
         <v>178</v>
       </c>
@@ -45824,8 +46598,11 @@
       <c r="I91" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
         <v>179</v>
       </c>
@@ -45853,8 +46630,11 @@
       <c r="I92" s="36" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
         <v>180</v>
       </c>
@@ -45882,8 +46662,11 @@
       <c r="I93" s="36" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
         <v>181</v>
       </c>
@@ -45911,8 +46694,11 @@
       <c r="I94" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="s">
         <v>182</v>
       </c>
@@ -45940,8 +46726,11 @@
       <c r="I95" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="s">
         <v>183</v>
       </c>
@@ -45967,10 +46756,13 @@
         <v>53</v>
       </c>
       <c r="I96" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="s">
         <v>184</v>
       </c>
@@ -45996,10 +46788,13 @@
         <v>53</v>
       </c>
       <c r="I97" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="s">
         <v>185</v>
       </c>
@@ -46025,10 +46820,13 @@
         <v>53</v>
       </c>
       <c r="I98" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
         <v>186</v>
       </c>
@@ -46054,10 +46852,13 @@
         <v>53</v>
       </c>
       <c r="I99" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
         <v>187</v>
       </c>
@@ -46083,10 +46884,13 @@
         <v>53</v>
       </c>
       <c r="I100" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
         <v>188</v>
       </c>
@@ -46112,10 +46916,13 @@
         <v>53</v>
       </c>
       <c r="I101" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
         <v>189</v>
       </c>
@@ -46141,10 +46948,13 @@
         <v>53</v>
       </c>
       <c r="I102" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
         <v>190</v>
       </c>
@@ -46166,8 +46976,11 @@
       <c r="I103" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
         <v>191</v>
       </c>
@@ -46192,8 +47005,11 @@
       <c r="I104" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
         <v>192</v>
       </c>
@@ -46215,8 +47031,11 @@
       <c r="I105" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
         <v>193</v>
       </c>
@@ -46238,8 +47057,11 @@
       <c r="I106" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
         <v>194</v>
       </c>
@@ -46264,8 +47086,11 @@
       <c r="I107" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
         <v>195</v>
       </c>
@@ -46287,8 +47112,11 @@
       <c r="I108" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
         <v>196</v>
       </c>
@@ -46310,8 +47138,11 @@
       <c r="I109" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
         <v>197</v>
       </c>
@@ -46333,8 +47164,11 @@
       <c r="I110" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
         <v>198</v>
       </c>
@@ -46356,8 +47190,11 @@
       <c r="I111" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
         <v>199</v>
       </c>
@@ -46379,8 +47216,11 @@
       <c r="I112" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
         <v>225</v>
       </c>
@@ -46402,8 +47242,11 @@
       <c r="I113" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
         <v>226</v>
       </c>
@@ -46425,8 +47268,11 @@
       <c r="H114" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
         <v>227</v>
       </c>
@@ -46448,8 +47294,11 @@
       <c r="I115" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
         <v>228</v>
       </c>
@@ -46471,8 +47320,11 @@
       <c r="I116" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
         <v>229</v>
       </c>
@@ -46494,8 +47346,11 @@
       <c r="I117" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
         <v>230</v>
       </c>
@@ -46517,8 +47372,11 @@
       <c r="I118" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
         <v>231</v>
       </c>
@@ -46540,8 +47398,11 @@
       <c r="I119" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
         <v>232</v>
       </c>
@@ -46563,8 +47424,11 @@
       <c r="I120" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
         <v>233</v>
       </c>
@@ -46586,8 +47450,11 @@
       <c r="I121" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
         <v>234</v>
       </c>
@@ -46609,8 +47476,11 @@
       <c r="I122" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
         <v>235</v>
       </c>
@@ -46632,8 +47502,11 @@
       <c r="I123" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
         <v>236</v>
       </c>
@@ -46652,8 +47525,11 @@
       <c r="H124" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="13" t="s">
         <v>44</v>
       </c>
@@ -46671,6 +47547,9 @@
       </c>
       <c r="H125" t="s">
         <v>53</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/HW3/autogen/CUSignals.xlsx
+++ b/HW3/autogen/CUSignals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\garre\Desktop\EE 188\HW3\autogen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B19EA0F-0225-4D26-A180-6C2C3C3BC297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E39A54-7711-41BB-A191-0B07D58D43C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15675" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5594" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5504" uniqueCount="359">
   <si>
     <t>Instruction</t>
   </si>
@@ -1012,19 +1012,10 @@
     <t>TempRegSel_Offset8</t>
   </si>
   <si>
-    <t>BranchSlot</t>
-  </si>
-  <si>
     <t>TempRegSel_Offset12</t>
   </si>
   <si>
     <t>TempRegSel_RegB</t>
-  </si>
-  <si>
-    <t>BranchSlotDirect</t>
-  </si>
-  <si>
-    <t>BranchSlotRet</t>
   </si>
   <si>
     <t>SRSel_Reg</t>
@@ -1052,9 +1043,6 @@
   </si>
   <si>
     <t>PAU_AddrPR</t>
-  </si>
-  <si>
-    <t>PAU_OffsetLong</t>
   </si>
   <si>
     <t>PAU_AddrZero</t>
@@ -1157,6 +1145,12 @@
   </si>
   <si>
     <t>RMW</t>
+  </si>
+  <si>
+    <t>RMW_WaitForFetch</t>
+  </si>
+  <si>
+    <t>StallPL</t>
   </si>
 </sst>
 </file>
@@ -1663,9 +1657,9 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table7" displayName="Table7" ref="A1:K125" totalsRowShown="0">
-  <autoFilter ref="A1:K125" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table7" displayName="Table7" ref="A1:L125" totalsRowShown="0">
+  <autoFilter ref="A1:L125" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+  <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Instruction"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="NextState"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="UpdateIR"/>
@@ -1677,14 +1671,15 @@
     <tableColumn id="9" xr3:uid="{4071D217-4E1B-473B-8F81-A216DAD5646F}" name="BranchSel"/>
     <tableColumn id="10" xr3:uid="{F9A4569D-949C-41DF-971B-D4B8928083B8}" name="UseWB"/>
     <tableColumn id="11" xr3:uid="{55A7D24D-6E10-4260-9C5D-FCA46F50ECED}" name="RMW"/>
+    <tableColumn id="12" xr3:uid="{069F178D-1891-4310-A7A0-8850B0965365}" name="StallPL"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table8" displayName="Table8" ref="A1:AS13" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:AS13" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table8" displayName="Table8" ref="A1:AS11" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:AS11" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="45">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="State"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="ALUOpASel"/>
@@ -1915,11 +1910,11 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AV126"/>
+  <dimension ref="A1:AW126"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="78" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AP1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AY13" sqref="AY13"/>
+    <sheetView topLeftCell="A90" zoomScale="78" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AO1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AV2" sqref="AV2:AW125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1965,7 +1960,7 @@
     <col min="46" max="46" width="14.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2099,19 +2094,22 @@
         <v>43</v>
       </c>
       <c r="AS1" t="s">
+        <v>339</v>
+      </c>
+      <c r="AT1" t="s">
         <v>343</v>
       </c>
-      <c r="AT1" t="s">
-        <v>347</v>
-      </c>
       <c r="AU1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AV1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="2" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>356</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="2" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="str">
         <f>ALU!A2</f>
         <v>OpMOV_Imm_To_Rn</v>
@@ -2304,8 +2302,12 @@
         <f>CU!K2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW2" s="8">
+        <f>CU!L2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="str">
         <f>ALU!A3</f>
         <v>OpMOVW_At_Disp_PC_To_Rn</v>
@@ -2498,8 +2500,12 @@
         <f>CU!K3</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW3" s="8">
+        <f>CU!L3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="str">
         <f>ALU!A4</f>
         <v>OpMOVL_At_Disp_PC_To_Rn</v>
@@ -2692,8 +2698,12 @@
         <f>CU!K4</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW4" s="8">
+        <f>CU!L4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="str">
         <f>ALU!A5</f>
         <v>OpMOV_Rm_To_Rn</v>
@@ -2886,8 +2896,12 @@
         <f>CU!K5</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW5" s="8">
+        <f>CU!L5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="str">
         <f>ALU!A6</f>
         <v>OpMOVB_Rm_To_At_Rn</v>
@@ -3080,8 +3094,12 @@
         <f>CU!K6</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW6" s="8">
+        <f>CU!L6</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="str">
         <f>ALU!A7</f>
         <v>OpMOVW_Rm_To_At_Rn</v>
@@ -3274,8 +3292,12 @@
         <f>CU!K7</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW7" s="8">
+        <f>CU!L7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="str">
         <f>ALU!A8</f>
         <v>OpMOVL_Rm_To_At_Rn</v>
@@ -3468,8 +3490,12 @@
         <f>CU!K8</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW8" s="8">
+        <f>CU!L8</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="str">
         <f>ALU!A9</f>
         <v>OpMOVB_At_Rm_To_Rn</v>
@@ -3662,8 +3688,12 @@
         <f>CU!K9</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW9" s="8">
+        <f>CU!L9</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="str">
         <f>ALU!A10</f>
         <v>OpMOVW_At_Rm_To_Rn</v>
@@ -3856,8 +3886,12 @@
         <f>CU!K10</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW10" s="8">
+        <f>CU!L10</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="6" t="str">
         <f>ALU!A11</f>
         <v>OpMOVL_At_Rm_Rn</v>
@@ -4050,8 +4084,12 @@
         <f>CU!K11</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW11" s="8">
+        <f>CU!L11</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="str">
         <f>ALU!A12</f>
         <v>OpMOVB_Rm_To_At_Dec_Rn</v>
@@ -4244,8 +4282,12 @@
         <f>CU!K12</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW12" s="8">
+        <f>CU!L12</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="6" t="str">
         <f>ALU!A13</f>
         <v>OpMOVW_Rm_To_At_Dec_Rn</v>
@@ -4438,8 +4480,12 @@
         <f>CU!K13</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW13" s="8">
+        <f>CU!L13</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="str">
         <f>ALU!A14</f>
         <v>OpMOVL_Rm_To_At_Dec_Rn</v>
@@ -4632,8 +4678,12 @@
         <f>CU!K14</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW14" s="8">
+        <f>CU!L14</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="str">
         <f>ALU!A15</f>
         <v>OpMOVB_At_Rm_Inc_To_Rn</v>
@@ -4826,8 +4876,12 @@
         <f>CU!K15</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW15" s="8">
+        <f>CU!L15</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="str">
         <f>ALU!A16</f>
         <v>OpMOVW_At_Rm_Inc_To_Rn</v>
@@ -5020,8 +5074,12 @@
         <f>CU!K16</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW16" s="8">
+        <f>CU!L16</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="6" t="str">
         <f>ALU!A17</f>
         <v>OpMOVL_At_Rm_Inc_To_Rn</v>
@@ -5214,8 +5272,12 @@
         <f>CU!K17</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW17" s="8">
+        <f>CU!L17</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="str">
         <f>ALU!A18</f>
         <v>OpMOVB_R0_To_At_Disp_Rn</v>
@@ -5408,8 +5470,12 @@
         <f>CU!K18</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW18" s="8">
+        <f>CU!L18</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="str">
         <f>ALU!A19</f>
         <v>OpMOVW_R0_To_At_Disp_Rn</v>
@@ -5602,8 +5668,12 @@
         <f>CU!K19</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW19" s="8">
+        <f>CU!L19</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="6" t="str">
         <f>ALU!A20</f>
         <v>OpMOVL_R0_To_At_Disp_Rn</v>
@@ -5796,8 +5866,12 @@
         <f>CU!K20</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW20" s="8">
+        <f>CU!L20</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="6" t="str">
         <f>ALU!A21</f>
         <v>OpMOVB_At_Disp_Rm_To_R0</v>
@@ -5990,8 +6064,12 @@
         <f>CU!K21</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW21" s="8">
+        <f>CU!L21</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="6" t="str">
         <f>ALU!A22</f>
         <v>OpMOVW_At_Disp_Rm_To_R0</v>
@@ -6184,8 +6262,12 @@
         <f>CU!K22</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW22" s="8">
+        <f>CU!L22</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="6" t="str">
         <f>ALU!A23</f>
         <v>OpMOVL_At_Disp_Rm_To_Rn</v>
@@ -6378,8 +6460,12 @@
         <f>CU!K23</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW23" s="8">
+        <f>CU!L23</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="6" t="str">
         <f>ALU!A24</f>
         <v>OpMOVB_Rm_To_At_R0_Rn</v>
@@ -6572,8 +6658,12 @@
         <f>CU!K24</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW24" s="8">
+        <f>CU!L24</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="6" t="str">
         <f>ALU!A25</f>
         <v>OpMOVW_Rm_To_At_R0_Rn</v>
@@ -6766,8 +6856,12 @@
         <f>CU!K25</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW25" s="8">
+        <f>CU!L25</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="6" t="str">
         <f>ALU!A26</f>
         <v>OpMOVL_Rm_To_At_R0_Rn</v>
@@ -6960,8 +7054,12 @@
         <f>CU!K26</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW26" s="8">
+        <f>CU!L26</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="6" t="str">
         <f>ALU!A27</f>
         <v>OpMOVB_At_R0_Rm_To_Rn</v>
@@ -7154,8 +7252,12 @@
         <f>CU!K27</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW27" s="8">
+        <f>CU!L27</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="6" t="str">
         <f>ALU!A28</f>
         <v>OpMOVW_At_R0_Rm_To_Rn</v>
@@ -7348,8 +7450,12 @@
         <f>CU!K28</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW28" s="8">
+        <f>CU!L28</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="6" t="str">
         <f>ALU!A29</f>
         <v>OpMOVL_At_R0_Rm_To_Rn</v>
@@ -7542,8 +7648,12 @@
         <f>CU!K29</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW29" s="8">
+        <f>CU!L29</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="6" t="str">
         <f>ALU!A30</f>
         <v>OpMOVB_R0_To_At_Disp_GBR</v>
@@ -7736,8 +7846,12 @@
         <f>CU!K30</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW30" s="8">
+        <f>CU!L30</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="6" t="str">
         <f>ALU!A31</f>
         <v>OpMOVW_R0_To_At_Disp_GBR</v>
@@ -7930,8 +8044,12 @@
         <f>CU!K31</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW31" s="8">
+        <f>CU!L31</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="6" t="str">
         <f>ALU!A32</f>
         <v>OpMOVL_R0_To_At_Disp_GBR</v>
@@ -8124,8 +8242,12 @@
         <f>CU!K32</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW32" s="8">
+        <f>CU!L32</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="6" t="str">
         <f>ALU!A33</f>
         <v>OpMOVB_At_Disp_GBR_To_R0</v>
@@ -8318,8 +8440,12 @@
         <f>CU!K33</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW33" s="8">
+        <f>CU!L33</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="6" t="str">
         <f>ALU!A34</f>
         <v>OpMOVW_At_Disp_GBR_To_R0</v>
@@ -8512,8 +8638,12 @@
         <f>CU!K34</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW34" s="8">
+        <f>CU!L34</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="6" t="str">
         <f>ALU!A35</f>
         <v>OpMOVL_At_Disp_GBR_To_R0</v>
@@ -8706,8 +8836,12 @@
         <f>CU!K35</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW35" s="8">
+        <f>CU!L35</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="6" t="str">
         <f>ALU!A36</f>
         <v>OpMOVA</v>
@@ -8900,8 +9034,12 @@
         <f>CU!K36</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW36" s="8">
+        <f>CU!L36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="6" t="str">
         <f>ALU!A37</f>
         <v>OpMOVT</v>
@@ -9094,8 +9232,12 @@
         <f>CU!K37</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW37" s="8">
+        <f>CU!L37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="6" t="str">
         <f>ALU!A38</f>
         <v>OpSwapB</v>
@@ -9288,8 +9430,12 @@
         <f>CU!K38</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW38" s="8">
+        <f>CU!L38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="6" t="str">
         <f>ALU!A39</f>
         <v>OpSwapW</v>
@@ -9482,8 +9628,12 @@
         <f>CU!K39</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW39" s="8">
+        <f>CU!L39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="6" t="str">
         <f>ALU!A40</f>
         <v>OpXTRCT</v>
@@ -9676,8 +9826,12 @@
         <f>CU!K40</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW40" s="8">
+        <f>CU!L40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="9" t="str">
         <f>ALU!A41</f>
         <v>OpADD_Rm_Rn</v>
@@ -9870,8 +10024,12 @@
         <f>CU!K41</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW41" s="8">
+        <f>CU!L41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="9" t="str">
         <f>ALU!A42</f>
         <v>OpADD_Imm_Rn</v>
@@ -10064,8 +10222,12 @@
         <f>CU!K42</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW42" s="8">
+        <f>CU!L42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="9" t="str">
         <f>ALU!A43</f>
         <v>OpADDC</v>
@@ -10258,8 +10420,12 @@
         <f>CU!K43</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW43" s="8">
+        <f>CU!L43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="9" t="str">
         <f>ALU!A44</f>
         <v>OpADDV</v>
@@ -10452,8 +10618,12 @@
         <f>CU!K44</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW44" s="8">
+        <f>CU!L44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="9" t="str">
         <f>ALU!A45</f>
         <v>OpCMP_EQ_Imm</v>
@@ -10646,8 +10816,12 @@
         <f>CU!K45</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW45" s="8">
+        <f>CU!L45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="9" t="str">
         <f>ALU!A46</f>
         <v>OpCMP_EQ_RmRn</v>
@@ -10840,8 +11014,12 @@
         <f>CU!K46</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW46" s="8">
+        <f>CU!L46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="9" t="str">
         <f>ALU!A47</f>
         <v>OpCMP_HS</v>
@@ -11034,8 +11212,12 @@
         <f>CU!K47</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW47" s="8">
+        <f>CU!L47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="9" t="str">
         <f>ALU!A48</f>
         <v>OpCMP_GE</v>
@@ -11228,8 +11410,12 @@
         <f>CU!K48</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW48" s="8">
+        <f>CU!L48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="9" t="str">
         <f>ALU!A49</f>
         <v>OpCMP_HI</v>
@@ -11422,8 +11608,12 @@
         <f>CU!K49</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW49" s="8">
+        <f>CU!L49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="9" t="str">
         <f>ALU!A50</f>
         <v>OpCMP_GT</v>
@@ -11616,8 +11806,12 @@
         <f>CU!K50</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW50" s="8">
+        <f>CU!L50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="9" t="str">
         <f>ALU!A51</f>
         <v>OpCMP_PL</v>
@@ -11810,8 +12004,12 @@
         <f>CU!K51</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW51" s="8">
+        <f>CU!L51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="9" t="str">
         <f>ALU!A52</f>
         <v>OpCMP_PZ</v>
@@ -12004,8 +12202,12 @@
         <f>CU!K52</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW52" s="8">
+        <f>CU!L52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="9" t="str">
         <f>ALU!A53</f>
         <v>OpCMP_STR</v>
@@ -12198,8 +12400,12 @@
         <f>CU!K53</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW53" s="8">
+        <f>CU!L53</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="9" t="str">
         <f>ALU!A54</f>
         <v>OpDT</v>
@@ -12392,8 +12598,12 @@
         <f>CU!K54</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW54" s="8">
+        <f>CU!L54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="9" t="str">
         <f>ALU!A55</f>
         <v>OpEXTS_B</v>
@@ -12586,8 +12796,12 @@
         <f>CU!K55</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW55" s="8">
+        <f>CU!L55</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="9" t="str">
         <f>ALU!A56</f>
         <v>OpEXTS_W</v>
@@ -12780,8 +12994,12 @@
         <f>CU!K56</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW56" s="8">
+        <f>CU!L56</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="9" t="str">
         <f>ALU!A57</f>
         <v>OpEXTU_B</v>
@@ -12974,8 +13192,12 @@
         <f>CU!K57</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW57" s="8">
+        <f>CU!L57</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="9" t="str">
         <f>ALU!A58</f>
         <v>OpEXTU_W</v>
@@ -13168,8 +13390,12 @@
         <f>CU!K58</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW58" s="8">
+        <f>CU!L58</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="9" t="str">
         <f>ALU!A59</f>
         <v>OpNEG</v>
@@ -13362,8 +13588,12 @@
         <f>CU!K59</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW59" s="8">
+        <f>CU!L59</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="9" t="str">
         <f>ALU!A60</f>
         <v>OpNEGC</v>
@@ -13556,8 +13786,12 @@
         <f>CU!K60</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW60" s="8">
+        <f>CU!L60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="9" t="str">
         <f>ALU!A61</f>
         <v>OpSUB</v>
@@ -13750,8 +13984,12 @@
         <f>CU!K61</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW61" s="8">
+        <f>CU!L61</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="9" t="str">
         <f>ALU!A62</f>
         <v>OpSUBC</v>
@@ -13944,8 +14182,12 @@
         <f>CU!K62</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW62" s="8">
+        <f>CU!L62</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="9" t="str">
         <f>ALU!A63</f>
         <v>OpSUBV</v>
@@ -14138,8 +14380,12 @@
         <f>CU!K63</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW63" s="8">
+        <f>CU!L63</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="10" t="str">
         <f>ALU!A64</f>
         <v>OpAND_Rm_Rn</v>
@@ -14332,8 +14578,12 @@
         <f>CU!K64</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW64" s="8">
+        <f>CU!L64</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="10" t="str">
         <f>ALU!A65</f>
         <v>OpAND_Imm_Rn</v>
@@ -14526,8 +14776,12 @@
         <f>CU!K65</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW65" s="8">
+        <f>CU!L65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="10" t="str">
         <f>ALU!A66</f>
         <v>OpAND_Imm_B</v>
@@ -14720,8 +14974,12 @@
         <f>CU!K66</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW66" s="8">
+        <f>CU!L66</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="10" t="str">
         <f>ALU!A67</f>
         <v>OpNOT</v>
@@ -14914,8 +15172,12 @@
         <f>CU!K67</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW67" s="8">
+        <f>CU!L67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="10" t="str">
         <f>ALU!A68</f>
         <v>OpOR_Rm_Rn</v>
@@ -15108,8 +15370,12 @@
         <f>CU!K68</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW68" s="8">
+        <f>CU!L68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="10" t="str">
         <f>ALU!A69</f>
         <v>OpOR_Imm</v>
@@ -15302,8 +15568,12 @@
         <f>CU!K69</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW69" s="8">
+        <f>CU!L69</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="10" t="str">
         <f>ALU!A70</f>
         <v>OpOR_Imm_B</v>
@@ -15496,8 +15766,12 @@
         <f>CU!K70</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW70" s="8">
+        <f>CU!L70</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="10" t="str">
         <f>ALU!A71</f>
         <v>OpTAS_B</v>
@@ -15690,8 +15964,12 @@
         <f>CU!K71</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW71" s="8">
+        <f>CU!L71</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="10" t="str">
         <f>ALU!A72</f>
         <v>OpTST_Rm_Rn</v>
@@ -15884,8 +16162,12 @@
         <f>CU!K72</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW72" s="8">
+        <f>CU!L72</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="10" t="str">
         <f>ALU!A73</f>
         <v>OpTST_Imm</v>
@@ -16078,8 +16360,12 @@
         <f>CU!K73</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW73" s="8">
+        <f>CU!L73</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="10" t="str">
         <f>ALU!A74</f>
         <v>OpTST_Imm_B</v>
@@ -16272,8 +16558,12 @@
         <f>CU!K74</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW74" s="8">
+        <f>CU!L74</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="10" t="str">
         <f>ALU!A75</f>
         <v>OpXOR_Rm_Rn</v>
@@ -16466,8 +16756,12 @@
         <f>CU!K75</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW75" s="8">
+        <f>CU!L75</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="10" t="str">
         <f>ALU!A76</f>
         <v>OpXOR_Imm</v>
@@ -16660,8 +16954,12 @@
         <f>CU!K76</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW76" s="8">
+        <f>CU!L76</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="10" t="str">
         <f>ALU!A77</f>
         <v>OpXOR_Imm_B</v>
@@ -16854,8 +17152,12 @@
         <f>CU!K77</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW77" s="8">
+        <f>CU!L77</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="11" t="str">
         <f>ALU!A78</f>
         <v>OpROTL</v>
@@ -17048,8 +17350,12 @@
         <f>CU!K78</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW78" s="8">
+        <f>CU!L78</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="11" t="str">
         <f>ALU!A79</f>
         <v>OpROTR</v>
@@ -17242,8 +17548,12 @@
         <f>CU!K79</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW79" s="8">
+        <f>CU!L79</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="11" t="str">
         <f>ALU!A80</f>
         <v>OpROTCL</v>
@@ -17436,8 +17746,12 @@
         <f>CU!K80</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW80" s="8">
+        <f>CU!L80</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="11" t="str">
         <f>ALU!A81</f>
         <v>OpROTCR</v>
@@ -17630,8 +17944,12 @@
         <f>CU!K81</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW81" s="8">
+        <f>CU!L81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="11" t="str">
         <f>ALU!A82</f>
         <v>OpSHAL</v>
@@ -17824,8 +18142,12 @@
         <f>CU!K82</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW82" s="8">
+        <f>CU!L82</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="11" t="str">
         <f>ALU!A83</f>
         <v>OpSHAR</v>
@@ -18018,8 +18340,12 @@
         <f>CU!K83</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW83" s="8">
+        <f>CU!L83</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="11" t="str">
         <f>ALU!A84</f>
         <v>OpSHLL</v>
@@ -18212,8 +18538,12 @@
         <f>CU!K84</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW84" s="8">
+        <f>CU!L84</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="11" t="str">
         <f>ALU!A85</f>
         <v>OpSHLR</v>
@@ -18406,8 +18736,12 @@
         <f>CU!K85</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW85" s="8">
+        <f>CU!L85</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" s="11" t="str">
         <f>ALU!A86</f>
         <v>OpSHLL2</v>
@@ -18600,8 +18934,12 @@
         <f>CU!K86</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW86" s="8">
+        <f>CU!L86</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" s="11" t="str">
         <f>ALU!A87</f>
         <v>OpSHLR2</v>
@@ -18794,8 +19132,12 @@
         <f>CU!K87</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW87" s="8">
+        <f>CU!L87</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="11" t="str">
         <f>ALU!A88</f>
         <v>OpSHLL8</v>
@@ -18988,8 +19330,12 @@
         <f>CU!K88</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW88" s="8">
+        <f>CU!L88</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="11" t="str">
         <f>ALU!A89</f>
         <v>OpSHLR8</v>
@@ -19182,8 +19528,12 @@
         <f>CU!K89</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW89" s="8">
+        <f>CU!L89</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90" s="11" t="str">
         <f>ALU!A90</f>
         <v>OpSHLL16</v>
@@ -19376,8 +19726,12 @@
         <f>CU!K90</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW90" s="8">
+        <f>CU!L90</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" s="11" t="str">
         <f>ALU!A91</f>
         <v>OpSHLR16</v>
@@ -19570,8 +19924,12 @@
         <f>CU!K91</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW91" s="8">
+        <f>CU!L91</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" s="12" t="str">
         <f>ALU!A92</f>
         <v>OpBF</v>
@@ -19764,8 +20122,12 @@
         <f>CU!K92</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW92" s="8">
+        <f>CU!L92</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" s="12" t="str">
         <f>ALU!A93</f>
         <v>OpBFS</v>
@@ -19804,7 +20166,7 @@
       </c>
       <c r="J93" s="7" t="str">
         <f>PAU!B93</f>
-        <v>PAU_AddrPC_EX</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K93" s="7" t="str">
         <f>PAU!C93</f>
@@ -19958,8 +20320,12 @@
         <f>CU!K93</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW93" s="8">
+        <f>CU!L93</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94" s="12" t="str">
         <f>ALU!A94</f>
         <v>OpBT</v>
@@ -20152,8 +20518,12 @@
         <f>CU!K94</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW94" s="8">
+        <f>CU!L94</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95" s="12" t="str">
         <f>ALU!A95</f>
         <v>OpBTS</v>
@@ -20192,7 +20562,7 @@
       </c>
       <c r="J95" s="7" t="str">
         <f>PAU!B95</f>
-        <v>PAU_AddrPC_EX</v>
+        <v>PAU_AddrPC</v>
       </c>
       <c r="K95" s="7" t="str">
         <f>PAU!C95</f>
@@ -20346,8 +20716,12 @@
         <f>CU!K95</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW95" s="8">
+        <f>CU!L95</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" s="12" t="str">
         <f>ALU!A96</f>
         <v>OpBRA</v>
@@ -20540,8 +20914,12 @@
         <f>CU!K96</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW96" s="8">
+        <f>CU!L96</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" s="12" t="str">
         <f>ALU!A97</f>
         <v>OpBRAF</v>
@@ -20734,8 +21112,12 @@
         <f>CU!K97</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW97" s="8">
+        <f>CU!L97</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="12" t="str">
         <f>ALU!A98</f>
         <v>OpBSR</v>
@@ -20928,8 +21310,12 @@
         <f>CU!K98</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW98" s="8">
+        <f>CU!L98</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" s="12" t="str">
         <f>ALU!A99</f>
         <v>OpBSRF</v>
@@ -21122,8 +21508,12 @@
         <f>CU!K99</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW99" s="8">
+        <f>CU!L99</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100" s="12" t="str">
         <f>ALU!A100</f>
         <v>OpJMP</v>
@@ -21316,8 +21706,12 @@
         <f>CU!K100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW100" s="8">
+        <f>CU!L100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A101" s="12" t="str">
         <f>ALU!A101</f>
         <v>OpJSR</v>
@@ -21510,8 +21904,12 @@
         <f>CU!K101</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW101" s="8">
+        <f>CU!L101</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" s="12" t="str">
         <f>ALU!A102</f>
         <v>OpRTS</v>
@@ -21704,8 +22102,12 @@
         <f>CU!K102</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW102" s="8">
+        <f>CU!L102</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A103" s="13" t="str">
         <f>ALU!A103</f>
         <v>OpCLRT</v>
@@ -21898,8 +22300,12 @@
         <f>CU!K103</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW103" s="8">
+        <f>CU!L103</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A104" s="13" t="str">
         <f>ALU!A104</f>
         <v>OpLDC_Rm_To_SR</v>
@@ -22092,8 +22498,12 @@
         <f>CU!K104</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW104" s="8">
+        <f>CU!L104</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A105" s="13" t="str">
         <f>ALU!A105</f>
         <v>OpLDC_Rm_To_GBR</v>
@@ -22286,8 +22696,12 @@
         <f>CU!K105</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW105" s="8">
+        <f>CU!L105</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A106" s="13" t="str">
         <f>ALU!A106</f>
         <v>OpLDC_Rm_To_VBR</v>
@@ -22480,8 +22894,12 @@
         <f>CU!K106</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW106" s="8">
+        <f>CU!L106</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A107" s="13" t="str">
         <f>ALU!A107</f>
         <v>OpLDCL_At_Rm_Inc_To_SR</v>
@@ -22528,7 +22946,7 @@
       </c>
       <c r="L107" s="8">
         <f>PAU!D107</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M107" s="8" t="str">
         <f>PAU!E107</f>
@@ -22674,8 +23092,12 @@
         <f>CU!K107</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW107" s="8">
+        <f>CU!L107</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A108" s="13" t="str">
         <f>ALU!A108</f>
         <v>OpLDCL_At_Rm_Inc_To_GBR</v>
@@ -22722,7 +23144,7 @@
       </c>
       <c r="L108" s="8">
         <f>PAU!D108</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M108" s="8" t="str">
         <f>PAU!E108</f>
@@ -22868,8 +23290,12 @@
         <f>CU!K108</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW108" s="8">
+        <f>CU!L108</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A109" s="13" t="str">
         <f>ALU!A109</f>
         <v>OpLDCL_At_Rm_Inc_To_VBR</v>
@@ -22916,7 +23342,7 @@
       </c>
       <c r="L109" s="8">
         <f>PAU!D109</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M109" s="8" t="str">
         <f>PAU!E109</f>
@@ -23062,8 +23488,12 @@
         <f>CU!K109</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW109" s="8">
+        <f>CU!L109</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A110" s="13" t="str">
         <f>ALU!A110</f>
         <v>OpLDS_Rm_To_PR</v>
@@ -23256,8 +23686,12 @@
         <f>CU!K110</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW110" s="8">
+        <f>CU!L110</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A111" s="13" t="str">
         <f>ALU!A111</f>
         <v>OpLDSL_At_Rm_Inc_To_PR</v>
@@ -23304,7 +23738,7 @@
       </c>
       <c r="L111" s="8">
         <f>PAU!D111</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M111" s="8" t="str">
         <f>PAU!E111</f>
@@ -23450,8 +23884,12 @@
         <f>CU!K111</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW111" s="8">
+        <f>CU!L111</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A112" s="13" t="str">
         <f>ALU!A112</f>
         <v>OpSLEEP</v>
@@ -23644,8 +24082,12 @@
         <f>CU!K112</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW112" s="8">
+        <f>CU!L112</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A113" s="13" t="str">
         <f>ALU!A113</f>
         <v>OpNOP</v>
@@ -23838,8 +24280,12 @@
         <f>CU!K113</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW113" s="8">
+        <f>CU!L113</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A114" s="13" t="str">
         <f>ALU!A114</f>
         <v>OpRTE</v>
@@ -24032,8 +24478,12 @@
         <f>CU!K114</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW114" s="8">
+        <f>CU!L114</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A115" s="13" t="str">
         <f>ALU!A115</f>
         <v>OpSETT</v>
@@ -24226,8 +24676,12 @@
         <f>CU!K115</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW115" s="8">
+        <f>CU!L115</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A116" s="13" t="str">
         <f>ALU!A116</f>
         <v>OpSTC_SR_To_Rn</v>
@@ -24420,8 +24874,12 @@
         <f>CU!K116</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW116" s="8">
+        <f>CU!L116</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A117" s="13" t="str">
         <f>ALU!A117</f>
         <v>OpSTC_GBR_To_Rn</v>
@@ -24614,8 +25072,12 @@
         <f>CU!K117</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW117" s="8">
+        <f>CU!L117</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A118" s="13" t="str">
         <f>ALU!A118</f>
         <v>OpSTC_VBR_To_Rn</v>
@@ -24808,8 +25270,12 @@
         <f>CU!K118</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW118" s="8">
+        <f>CU!L118</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A119" s="13" t="str">
         <f>ALU!A119</f>
         <v>OpSTCL_SR_To_At_Dec_Rn</v>
@@ -24856,7 +25322,7 @@
       </c>
       <c r="L119" s="8">
         <f>PAU!D119</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M119" s="8" t="str">
         <f>PAU!E119</f>
@@ -25002,8 +25468,12 @@
         <f>CU!K119</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW119" s="8">
+        <f>CU!L119</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A120" s="13" t="str">
         <f>ALU!A120</f>
         <v>OpSTCL_GBR_To_At_Dec_Rn</v>
@@ -25050,7 +25520,7 @@
       </c>
       <c r="L120" s="8">
         <f>PAU!D120</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M120" s="8" t="str">
         <f>PAU!E120</f>
@@ -25196,8 +25666,12 @@
         <f>CU!K120</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW120" s="8">
+        <f>CU!L120</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A121" s="13" t="str">
         <f>ALU!A121</f>
         <v>OpSTCL_VBR_To_At_Dec_Rn</v>
@@ -25244,7 +25718,7 @@
       </c>
       <c r="L121" s="8">
         <f>PAU!D121</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M121" s="8" t="str">
         <f>PAU!E121</f>
@@ -25390,8 +25864,12 @@
         <f>CU!K121</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW121" s="8">
+        <f>CU!L121</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A122" s="13" t="str">
         <f>ALU!A122</f>
         <v>OpSTS_PR_To_Rn</v>
@@ -25584,8 +26062,12 @@
         <f>CU!K122</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW122" s="8">
+        <f>CU!L122</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A123" s="13" t="str">
         <f>ALU!A123</f>
         <v>OpSTSL_PR_To_At_Dec_Rn</v>
@@ -25632,7 +26114,7 @@
       </c>
       <c r="L123" s="8">
         <f>PAU!D123</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M123" s="8" t="str">
         <f>PAU!E123</f>
@@ -25778,8 +26260,12 @@
         <f>CU!K123</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW123" s="8">
+        <f>CU!L123</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A124" s="13" t="str">
         <f>ALU!A124</f>
         <v>OpTRAPA</v>
@@ -25972,8 +26458,12 @@
         <f>CU!K124</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW124" s="8">
+        <f>CU!L124</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A125" s="13" t="s">
         <v>44</v>
       </c>
@@ -26165,8 +26655,12 @@
         <f>CU!K125</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AW125" s="8">
+        <f>CU!L125</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A126" s="14"/>
     </row>
   </sheetData>
@@ -29844,8 +30338,8 @@
   </sheetPr>
   <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" zoomScale="90" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="90" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -32234,7 +32728,7 @@
         <v>214</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D92" s="8">
         <v>1</v>
@@ -32257,10 +32751,10 @@
         <v>180</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>355</v>
+        <v>214</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D93" s="8">
         <v>1</v>
@@ -32286,7 +32780,7 @@
         <v>214</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D94" s="8">
         <v>1</v>
@@ -32309,10 +32803,10 @@
         <v>182</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>355</v>
+        <v>214</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D95" s="8">
         <v>1</v>
@@ -32335,10 +32829,10 @@
         <v>183</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D96" s="8">
         <v>1</v>
@@ -32361,10 +32855,10 @@
         <v>184</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D97" s="8">
         <v>1</v>
@@ -32387,10 +32881,10 @@
         <v>185</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D98" s="8">
         <v>1</v>
@@ -32413,10 +32907,10 @@
         <v>186</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D99" s="8">
         <v>1</v>
@@ -32439,10 +32933,10 @@
         <v>187</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D100" s="8">
         <v>1</v>
@@ -32465,10 +32959,10 @@
         <v>188</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D101" s="8">
         <v>1</v>
@@ -32491,7 +32985,7 @@
         <v>189</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>215</v>
@@ -32627,7 +33121,7 @@
         <v>215</v>
       </c>
       <c r="D107" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E107" s="19" t="s">
         <v>216</v>
@@ -32653,7 +33147,7 @@
         <v>215</v>
       </c>
       <c r="D108" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E108" s="19" t="s">
         <v>216</v>
@@ -32679,7 +33173,7 @@
         <v>215</v>
       </c>
       <c r="D109" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E109" s="19" t="s">
         <v>216</v>
@@ -32731,7 +33225,7 @@
         <v>215</v>
       </c>
       <c r="D111" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E111" s="19" t="s">
         <v>223</v>
@@ -32939,7 +33433,7 @@
         <v>215</v>
       </c>
       <c r="D119" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E119" s="19" t="s">
         <v>216</v>
@@ -32965,7 +33459,7 @@
         <v>215</v>
       </c>
       <c r="D120" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E120" s="19" t="s">
         <v>216</v>
@@ -32991,7 +33485,7 @@
         <v>215</v>
       </c>
       <c r="D121" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E121" s="19" t="s">
         <v>216</v>
@@ -33043,7 +33537,7 @@
         <v>215</v>
       </c>
       <c r="D123" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E123" s="19" t="s">
         <v>216</v>
@@ -33126,7 +33620,7 @@
   </sheetPr>
   <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+    <sheetView topLeftCell="A54" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -40693,8 +41187,8 @@
   </sheetPr>
   <dimension ref="A1:M125"/>
   <sheetViews>
-    <sheetView zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114"/>
+    <sheetView topLeftCell="A61" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -44175,10 +44669,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K125"/>
+  <dimension ref="A1:L125"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="R87" sqref="R87"/>
+    <sheetView topLeftCell="A82" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="L122" sqref="L122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -44194,7 +44688,7 @@
     <col min="10" max="10" width="14.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -44217,19 +44711,22 @@
         <v>43</v>
       </c>
       <c r="H1" t="s">
+        <v>339</v>
+      </c>
+      <c r="I1" t="s">
         <v>343</v>
       </c>
-      <c r="I1" t="s">
-        <v>347</v>
-      </c>
       <c r="J1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="K1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>356</v>
+      </c>
+      <c r="L1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="11" t="s">
         <v>46</v>
       </c>
@@ -44255,7 +44752,7 @@
         <v>53</v>
       </c>
       <c r="I2" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -44263,8 +44760,11 @@
       <c r="K2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="11" t="s">
         <v>52</v>
       </c>
@@ -44290,7 +44790,7 @@
         <v>53</v>
       </c>
       <c r="I3" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -44298,8 +44798,11 @@
       <c r="K3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
         <v>56</v>
       </c>
@@ -44325,7 +44828,7 @@
         <v>53</v>
       </c>
       <c r="I4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -44333,8 +44836,11 @@
       <c r="K4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
         <v>57</v>
       </c>
@@ -44360,7 +44866,7 @@
         <v>53</v>
       </c>
       <c r="I5" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -44368,8 +44874,11 @@
       <c r="K5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="11" t="s">
         <v>60</v>
       </c>
@@ -44395,7 +44904,7 @@
         <v>53</v>
       </c>
       <c r="I6" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -44403,8 +44912,11 @@
       <c r="K6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="11" t="s">
         <v>61</v>
       </c>
@@ -44430,7 +44942,7 @@
         <v>53</v>
       </c>
       <c r="I7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -44438,8 +44950,11 @@
       <c r="K7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="11" t="s">
         <v>62</v>
       </c>
@@ -44465,7 +44980,7 @@
         <v>53</v>
       </c>
       <c r="I8" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -44473,8 +44988,11 @@
       <c r="K8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="11" t="s">
         <v>63</v>
       </c>
@@ -44500,7 +45018,7 @@
         <v>53</v>
       </c>
       <c r="I9" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -44508,8 +45026,11 @@
       <c r="K9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="11" t="s">
         <v>64</v>
       </c>
@@ -44535,7 +45056,7 @@
         <v>53</v>
       </c>
       <c r="I10" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -44543,8 +45064,11 @@
       <c r="K10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="25" t="s">
         <v>246</v>
       </c>
@@ -44570,7 +45094,7 @@
         <v>53</v>
       </c>
       <c r="I11" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -44578,8 +45102,11 @@
       <c r="K11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="11" t="s">
         <v>66</v>
       </c>
@@ -44605,7 +45132,7 @@
         <v>53</v>
       </c>
       <c r="I12" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -44613,8 +45140,11 @@
       <c r="K12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="11" t="s">
         <v>67</v>
       </c>
@@ -44640,7 +45170,7 @@
         <v>53</v>
       </c>
       <c r="I13" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -44648,8 +45178,11 @@
       <c r="K13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="11" t="s">
         <v>68</v>
       </c>
@@ -44675,7 +45208,7 @@
         <v>53</v>
       </c>
       <c r="I14" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -44683,8 +45216,11 @@
       <c r="K14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="11" t="s">
         <v>69</v>
       </c>
@@ -44710,7 +45246,7 @@
         <v>53</v>
       </c>
       <c r="I15" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -44718,8 +45254,11 @@
       <c r="K15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="11" t="s">
         <v>70</v>
       </c>
@@ -44745,7 +45284,7 @@
         <v>53</v>
       </c>
       <c r="I16" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -44753,8 +45292,11 @@
       <c r="K16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="11" t="s">
         <v>71</v>
       </c>
@@ -44780,7 +45322,7 @@
         <v>53</v>
       </c>
       <c r="I17" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -44788,8 +45330,11 @@
       <c r="K17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="11" t="s">
         <v>72</v>
       </c>
@@ -44815,7 +45360,7 @@
         <v>53</v>
       </c>
       <c r="I18" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -44823,8 +45368,11 @@
       <c r="K18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="11" t="s">
         <v>73</v>
       </c>
@@ -44850,7 +45398,7 @@
         <v>53</v>
       </c>
       <c r="I19" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -44858,8 +45406,11 @@
       <c r="K19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="11" t="s">
         <v>74</v>
       </c>
@@ -44885,7 +45436,7 @@
         <v>53</v>
       </c>
       <c r="I20" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -44893,8 +45444,11 @@
       <c r="K20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="11" t="s">
         <v>75</v>
       </c>
@@ -44920,7 +45474,7 @@
         <v>53</v>
       </c>
       <c r="I21" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -44928,8 +45482,11 @@
       <c r="K21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="11" t="s">
         <v>76</v>
       </c>
@@ -44955,7 +45512,7 @@
         <v>53</v>
       </c>
       <c r="I22" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -44963,8 +45520,11 @@
       <c r="K22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="11" t="s">
         <v>77</v>
       </c>
@@ -44990,7 +45550,7 @@
         <v>53</v>
       </c>
       <c r="I23" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -44998,8 +45558,11 @@
       <c r="K23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="11" t="s">
         <v>78</v>
       </c>
@@ -45025,7 +45588,7 @@
         <v>53</v>
       </c>
       <c r="I24" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -45033,8 +45596,11 @@
       <c r="K24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="11" t="s">
         <v>79</v>
       </c>
@@ -45060,7 +45626,7 @@
         <v>53</v>
       </c>
       <c r="I25" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -45068,8 +45634,11 @@
       <c r="K25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="11" t="s">
         <v>80</v>
       </c>
@@ -45095,7 +45664,7 @@
         <v>53</v>
       </c>
       <c r="I26" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -45103,8 +45672,11 @@
       <c r="K26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="11" t="s">
         <v>81</v>
       </c>
@@ -45130,7 +45702,7 @@
         <v>53</v>
       </c>
       <c r="I27" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -45138,8 +45710,11 @@
       <c r="K27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="11" t="s">
         <v>82</v>
       </c>
@@ -45165,7 +45740,7 @@
         <v>53</v>
       </c>
       <c r="I28" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -45173,8 +45748,11 @@
       <c r="K28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="11" t="s">
         <v>83</v>
       </c>
@@ -45200,7 +45778,7 @@
         <v>53</v>
       </c>
       <c r="I29" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -45208,8 +45786,11 @@
       <c r="K29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="11" t="s">
         <v>84</v>
       </c>
@@ -45235,7 +45816,7 @@
         <v>53</v>
       </c>
       <c r="I30" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -45243,8 +45824,11 @@
       <c r="K30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="11" t="s">
         <v>85</v>
       </c>
@@ -45270,7 +45854,7 @@
         <v>53</v>
       </c>
       <c r="I31" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -45278,8 +45862,11 @@
       <c r="K31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="11" t="s">
         <v>86</v>
       </c>
@@ -45305,7 +45892,7 @@
         <v>53</v>
       </c>
       <c r="I32" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -45313,8 +45900,11 @@
       <c r="K32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="11" t="s">
         <v>87</v>
       </c>
@@ -45340,7 +45930,7 @@
         <v>53</v>
       </c>
       <c r="I33" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -45348,8 +45938,11 @@
       <c r="K33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="11" t="s">
         <v>88</v>
       </c>
@@ -45375,7 +45968,7 @@
         <v>53</v>
       </c>
       <c r="I34" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -45383,8 +45976,11 @@
       <c r="K34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="11" t="s">
         <v>89</v>
       </c>
@@ -45410,7 +46006,7 @@
         <v>53</v>
       </c>
       <c r="I35" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -45418,8 +46014,11 @@
       <c r="K35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="11" t="s">
         <v>90</v>
       </c>
@@ -45445,7 +46044,7 @@
         <v>53</v>
       </c>
       <c r="I36" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -45453,8 +46052,11 @@
       <c r="K36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="11" t="s">
         <v>91</v>
       </c>
@@ -45480,7 +46082,7 @@
         <v>53</v>
       </c>
       <c r="I37" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -45488,8 +46090,11 @@
       <c r="K37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="11" t="s">
         <v>93</v>
       </c>
@@ -45515,7 +46120,7 @@
         <v>53</v>
       </c>
       <c r="I38" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -45523,8 +46128,11 @@
       <c r="K38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="11" t="s">
         <v>94</v>
       </c>
@@ -45550,7 +46158,7 @@
         <v>53</v>
       </c>
       <c r="I39" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -45558,8 +46166,11 @@
       <c r="K39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="11" t="s">
         <v>95</v>
       </c>
@@ -45585,7 +46196,7 @@
         <v>53</v>
       </c>
       <c r="I40" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -45593,8 +46204,11 @@
       <c r="K40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="9" t="s">
         <v>96</v>
       </c>
@@ -45620,7 +46234,7 @@
         <v>53</v>
       </c>
       <c r="I41" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -45628,8 +46242,11 @@
       <c r="K41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="9" t="s">
         <v>98</v>
       </c>
@@ -45655,7 +46272,7 @@
         <v>53</v>
       </c>
       <c r="I42" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -45663,8 +46280,11 @@
       <c r="K42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="9" t="s">
         <v>99</v>
       </c>
@@ -45690,7 +46310,7 @@
         <v>53</v>
       </c>
       <c r="I43" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -45698,8 +46318,11 @@
       <c r="K43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="9" t="s">
         <v>102</v>
       </c>
@@ -45725,7 +46348,7 @@
         <v>53</v>
       </c>
       <c r="I44" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -45733,8 +46356,11 @@
       <c r="K44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="9" t="s">
         <v>104</v>
       </c>
@@ -45760,7 +46386,7 @@
         <v>53</v>
       </c>
       <c r="I45" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -45768,8 +46394,11 @@
       <c r="K45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="9" t="s">
         <v>108</v>
       </c>
@@ -45795,7 +46424,7 @@
         <v>53</v>
       </c>
       <c r="I46" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -45803,8 +46432,11 @@
       <c r="K46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="9" t="s">
         <v>109</v>
       </c>
@@ -45830,7 +46462,7 @@
         <v>53</v>
       </c>
       <c r="I47" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -45838,8 +46470,11 @@
       <c r="K47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="9" t="s">
         <v>110</v>
       </c>
@@ -45865,7 +46500,7 @@
         <v>53</v>
       </c>
       <c r="I48" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -45873,8 +46508,11 @@
       <c r="K48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="9" t="s">
         <v>112</v>
       </c>
@@ -45900,7 +46538,7 @@
         <v>53</v>
       </c>
       <c r="I49" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -45908,8 +46546,11 @@
       <c r="K49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="9" t="s">
         <v>114</v>
       </c>
@@ -45935,7 +46576,7 @@
         <v>53</v>
       </c>
       <c r="I50" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -45943,8 +46584,11 @@
       <c r="K50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="9" t="s">
         <v>116</v>
       </c>
@@ -45970,7 +46614,7 @@
         <v>53</v>
       </c>
       <c r="I51" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -45978,8 +46622,11 @@
       <c r="K51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="9" t="s">
         <v>119</v>
       </c>
@@ -46005,7 +46652,7 @@
         <v>53</v>
       </c>
       <c r="I52" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -46013,8 +46660,11 @@
       <c r="K52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="9" t="s">
         <v>121</v>
       </c>
@@ -46040,7 +46690,7 @@
         <v>53</v>
       </c>
       <c r="I53" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -46048,8 +46698,11 @@
       <c r="K53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="9" t="s">
         <v>220</v>
       </c>
@@ -46075,7 +46728,7 @@
         <v>53</v>
       </c>
       <c r="I54" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -46083,8 +46736,11 @@
       <c r="K54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="9" t="s">
         <v>125</v>
       </c>
@@ -46110,7 +46766,7 @@
         <v>53</v>
       </c>
       <c r="I55" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -46118,8 +46774,11 @@
       <c r="K55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="9" t="s">
         <v>126</v>
       </c>
@@ -46145,7 +46804,7 @@
         <v>53</v>
       </c>
       <c r="I56" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -46153,8 +46812,11 @@
       <c r="K56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="9" t="s">
         <v>127</v>
       </c>
@@ -46180,7 +46842,7 @@
         <v>53</v>
       </c>
       <c r="I57" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -46188,8 +46850,11 @@
       <c r="K57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="9" t="s">
         <v>128</v>
       </c>
@@ -46215,7 +46880,7 @@
         <v>53</v>
       </c>
       <c r="I58" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -46223,8 +46888,11 @@
       <c r="K58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="9" t="s">
         <v>129</v>
       </c>
@@ -46250,7 +46918,7 @@
         <v>53</v>
       </c>
       <c r="I59" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -46258,8 +46926,11 @@
       <c r="K59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="9" t="s">
         <v>131</v>
       </c>
@@ -46285,7 +46956,7 @@
         <v>53</v>
       </c>
       <c r="I60" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -46293,8 +46964,11 @@
       <c r="K60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="9" t="s">
         <v>134</v>
       </c>
@@ -46320,7 +46994,7 @@
         <v>53</v>
       </c>
       <c r="I61" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -46328,8 +47002,11 @@
       <c r="K61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="9" t="s">
         <v>135</v>
       </c>
@@ -46355,7 +47032,7 @@
         <v>53</v>
       </c>
       <c r="I62" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -46363,8 +47040,11 @@
       <c r="K62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="9" t="s">
         <v>136</v>
       </c>
@@ -46390,7 +47070,7 @@
         <v>53</v>
       </c>
       <c r="I63" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -46398,8 +47078,11 @@
       <c r="K63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="10" t="s">
         <v>137</v>
       </c>
@@ -46425,7 +47108,7 @@
         <v>53</v>
       </c>
       <c r="I64" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -46433,8 +47116,11 @@
       <c r="K64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="10" t="s">
         <v>139</v>
       </c>
@@ -46460,7 +47146,7 @@
         <v>53</v>
       </c>
       <c r="I65" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -46468,8 +47154,11 @@
       <c r="K65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="10" t="s">
         <v>141</v>
       </c>
@@ -46492,19 +47181,22 @@
         <v>1</v>
       </c>
       <c r="H66" t="s">
+        <v>340</v>
+      </c>
+      <c r="I66" t="s">
         <v>344</v>
       </c>
-      <c r="I66" t="s">
-        <v>348</v>
-      </c>
       <c r="J66">
         <v>1</v>
       </c>
       <c r="K66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="10" t="s">
         <v>142</v>
       </c>
@@ -46530,7 +47222,7 @@
         <v>53</v>
       </c>
       <c r="I67" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -46538,8 +47230,11 @@
       <c r="K67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="10" t="s">
         <v>143</v>
       </c>
@@ -46565,7 +47260,7 @@
         <v>53</v>
       </c>
       <c r="I68" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -46573,8 +47268,11 @@
       <c r="K68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="10" t="s">
         <v>145</v>
       </c>
@@ -46600,7 +47298,7 @@
         <v>53</v>
       </c>
       <c r="I69" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -46608,8 +47306,11 @@
       <c r="K69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="10" t="s">
         <v>146</v>
       </c>
@@ -46632,19 +47333,22 @@
         <v>1</v>
       </c>
       <c r="H70" t="s">
+        <v>340</v>
+      </c>
+      <c r="I70" t="s">
         <v>344</v>
       </c>
-      <c r="I70" t="s">
-        <v>348</v>
-      </c>
       <c r="J70">
         <v>1</v>
       </c>
       <c r="K70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="10" t="s">
         <v>147</v>
       </c>
@@ -46667,19 +47371,22 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
+        <v>340</v>
+      </c>
+      <c r="I71" t="s">
         <v>344</v>
       </c>
-      <c r="I71" t="s">
-        <v>348</v>
-      </c>
       <c r="J71">
         <v>1</v>
       </c>
       <c r="K71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="10" t="s">
         <v>150</v>
       </c>
@@ -46705,7 +47412,7 @@
         <v>53</v>
       </c>
       <c r="I72" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -46713,8 +47420,11 @@
       <c r="K72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="10" t="s">
         <v>151</v>
       </c>
@@ -46740,7 +47450,7 @@
         <v>53</v>
       </c>
       <c r="I73" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J73">
         <v>0</v>
@@ -46748,8 +47458,11 @@
       <c r="K73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="10" t="s">
         <v>152</v>
       </c>
@@ -46772,19 +47485,22 @@
         <v>1</v>
       </c>
       <c r="H74" t="s">
+        <v>340</v>
+      </c>
+      <c r="I74" t="s">
         <v>344</v>
       </c>
-      <c r="I74" t="s">
-        <v>348</v>
-      </c>
       <c r="J74">
         <v>1</v>
       </c>
       <c r="K74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="10" t="s">
         <v>153</v>
       </c>
@@ -46810,7 +47526,7 @@
         <v>53</v>
       </c>
       <c r="I75" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -46818,8 +47534,11 @@
       <c r="K75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="10" t="s">
         <v>155</v>
       </c>
@@ -46845,7 +47564,7 @@
         <v>53</v>
       </c>
       <c r="I76" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -46853,8 +47572,11 @@
       <c r="K76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="10" t="s">
         <v>156</v>
       </c>
@@ -46877,19 +47599,22 @@
         <v>1</v>
       </c>
       <c r="H77" t="s">
+        <v>340</v>
+      </c>
+      <c r="I77" t="s">
         <v>344</v>
       </c>
-      <c r="I77" t="s">
-        <v>348</v>
-      </c>
       <c r="J77">
         <v>1</v>
       </c>
       <c r="K77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="11" t="s">
         <v>157</v>
       </c>
@@ -46915,7 +47640,7 @@
         <v>53</v>
       </c>
       <c r="I78" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -46923,8 +47648,11 @@
       <c r="K78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="11" t="s">
         <v>160</v>
       </c>
@@ -46950,7 +47678,7 @@
         <v>53</v>
       </c>
       <c r="I79" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -46958,8 +47686,11 @@
       <c r="K79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="11" t="s">
         <v>162</v>
       </c>
@@ -46985,7 +47716,7 @@
         <v>53</v>
       </c>
       <c r="I80" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -46993,8 +47724,11 @@
       <c r="K80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="11" t="s">
         <v>164</v>
       </c>
@@ -47020,7 +47754,7 @@
         <v>53</v>
       </c>
       <c r="I81" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J81">
         <v>0</v>
@@ -47028,8 +47762,11 @@
       <c r="K81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="11" t="s">
         <v>166</v>
       </c>
@@ -47055,7 +47792,7 @@
         <v>53</v>
       </c>
       <c r="I82" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J82">
         <v>0</v>
@@ -47063,8 +47800,11 @@
       <c r="K82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="11" t="s">
         <v>168</v>
       </c>
@@ -47090,7 +47830,7 @@
         <v>53</v>
       </c>
       <c r="I83" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J83">
         <v>0</v>
@@ -47098,8 +47838,11 @@
       <c r="K83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="11" t="s">
         <v>170</v>
       </c>
@@ -47125,7 +47868,7 @@
         <v>53</v>
       </c>
       <c r="I84" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J84">
         <v>0</v>
@@ -47133,8 +47876,11 @@
       <c r="K84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="11" t="s">
         <v>171</v>
       </c>
@@ -47160,7 +47906,7 @@
         <v>53</v>
       </c>
       <c r="I85" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J85">
         <v>0</v>
@@ -47168,8 +47914,11 @@
       <c r="K85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" s="11" t="s">
         <v>173</v>
       </c>
@@ -47195,7 +47944,7 @@
         <v>53</v>
       </c>
       <c r="I86" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -47203,8 +47952,11 @@
       <c r="K86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" s="11" t="s">
         <v>174</v>
       </c>
@@ -47230,7 +47982,7 @@
         <v>53</v>
       </c>
       <c r="I87" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J87">
         <v>0</v>
@@ -47238,8 +47990,11 @@
       <c r="K87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="11" t="s">
         <v>175</v>
       </c>
@@ -47265,7 +48020,7 @@
         <v>53</v>
       </c>
       <c r="I88" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J88">
         <v>0</v>
@@ -47273,8 +48028,11 @@
       <c r="K88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="11" t="s">
         <v>176</v>
       </c>
@@ -47300,7 +48058,7 @@
         <v>53</v>
       </c>
       <c r="I89" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J89">
         <v>0</v>
@@ -47308,8 +48066,11 @@
       <c r="K89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90" s="11" t="s">
         <v>177</v>
       </c>
@@ -47335,7 +48096,7 @@
         <v>53</v>
       </c>
       <c r="I90" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J90">
         <v>0</v>
@@ -47343,8 +48104,11 @@
       <c r="K90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" s="11" t="s">
         <v>178</v>
       </c>
@@ -47370,7 +48134,7 @@
         <v>53</v>
       </c>
       <c r="I91" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J91">
         <v>0</v>
@@ -47378,8 +48142,11 @@
       <c r="K91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" s="12" t="s">
         <v>179</v>
       </c>
@@ -47405,7 +48172,7 @@
         <v>53</v>
       </c>
       <c r="I92" s="36" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="J92">
         <v>0</v>
@@ -47413,8 +48180,11 @@
       <c r="K92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" s="12" t="s">
         <v>180</v>
       </c>
@@ -47440,7 +48210,7 @@
         <v>53</v>
       </c>
       <c r="I93" s="36" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="J93">
         <v>0</v>
@@ -47448,8 +48218,11 @@
       <c r="K93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94" s="12" t="s">
         <v>181</v>
       </c>
@@ -47475,7 +48248,7 @@
         <v>53</v>
       </c>
       <c r="I94" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="J94">
         <v>0</v>
@@ -47483,8 +48256,11 @@
       <c r="K94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95" s="12" t="s">
         <v>182</v>
       </c>
@@ -47510,7 +48286,7 @@
         <v>53</v>
       </c>
       <c r="I95" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="J95">
         <v>0</v>
@@ -47518,8 +48294,11 @@
       <c r="K95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" s="12" t="s">
         <v>183</v>
       </c>
@@ -47533,7 +48312,7 @@
         <v>1</v>
       </c>
       <c r="E96" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F96" t="s">
         <v>311</v>
@@ -47545,7 +48324,7 @@
         <v>53</v>
       </c>
       <c r="I96" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="J96">
         <v>0</v>
@@ -47553,8 +48332,11 @@
       <c r="K96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" s="12" t="s">
         <v>184</v>
       </c>
@@ -47568,7 +48350,7 @@
         <v>1</v>
       </c>
       <c r="E97" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F97" t="s">
         <v>311</v>
@@ -47580,7 +48362,7 @@
         <v>53</v>
       </c>
       <c r="I97" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="J97">
         <v>0</v>
@@ -47588,8 +48370,11 @@
       <c r="K97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="12" t="s">
         <v>185</v>
       </c>
@@ -47603,7 +48388,7 @@
         <v>1</v>
       </c>
       <c r="E98" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F98" t="s">
         <v>311</v>
@@ -47615,7 +48400,7 @@
         <v>53</v>
       </c>
       <c r="I98" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="J98">
         <v>0</v>
@@ -47623,8 +48408,11 @@
       <c r="K98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" s="12" t="s">
         <v>186</v>
       </c>
@@ -47638,7 +48426,7 @@
         <v>1</v>
       </c>
       <c r="E99" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F99" t="s">
         <v>311</v>
@@ -47650,7 +48438,7 @@
         <v>53</v>
       </c>
       <c r="I99" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="J99">
         <v>0</v>
@@ -47658,8 +48446,11 @@
       <c r="K99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100" s="12" t="s">
         <v>187</v>
       </c>
@@ -47673,7 +48464,7 @@
         <v>1</v>
       </c>
       <c r="E100" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F100" t="s">
         <v>311</v>
@@ -47685,7 +48476,7 @@
         <v>53</v>
       </c>
       <c r="I100" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="J100">
         <v>0</v>
@@ -47693,8 +48484,11 @@
       <c r="K100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A101" s="12" t="s">
         <v>188</v>
       </c>
@@ -47708,7 +48502,7 @@
         <v>1</v>
       </c>
       <c r="E101" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F101" t="s">
         <v>311</v>
@@ -47720,7 +48514,7 @@
         <v>53</v>
       </c>
       <c r="I101" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="J101">
         <v>0</v>
@@ -47728,8 +48522,11 @@
       <c r="K101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" s="12" t="s">
         <v>189</v>
       </c>
@@ -47743,7 +48540,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F102" t="s">
         <v>311</v>
@@ -47755,7 +48552,7 @@
         <v>53</v>
       </c>
       <c r="I102" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="J102">
         <v>0</v>
@@ -47763,8 +48560,11 @@
       <c r="K102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A103" s="13" t="s">
         <v>190</v>
       </c>
@@ -47784,7 +48584,7 @@
         <v>53</v>
       </c>
       <c r="I103" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J103">
         <v>0</v>
@@ -47792,8 +48592,11 @@
       <c r="K103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A104" s="13" t="s">
         <v>191</v>
       </c>
@@ -47807,7 +48610,7 @@
         <v>0</v>
       </c>
       <c r="F104" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -47816,7 +48619,7 @@
         <v>53</v>
       </c>
       <c r="I104" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J104">
         <v>0</v>
@@ -47824,8 +48627,11 @@
       <c r="K104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A105" s="13" t="s">
         <v>192</v>
       </c>
@@ -47845,7 +48651,7 @@
         <v>53</v>
       </c>
       <c r="I105" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J105">
         <v>0</v>
@@ -47853,8 +48659,11 @@
       <c r="K105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A106" s="13" t="s">
         <v>193</v>
       </c>
@@ -47874,7 +48683,7 @@
         <v>53</v>
       </c>
       <c r="I106" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J106">
         <v>0</v>
@@ -47882,8 +48691,11 @@
       <c r="K106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A107" s="13" t="s">
         <v>194</v>
       </c>
@@ -47897,7 +48709,7 @@
         <v>0</v>
       </c>
       <c r="F107" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -47906,7 +48718,7 @@
         <v>53</v>
       </c>
       <c r="I107" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J107">
         <v>1</v>
@@ -47914,8 +48726,11 @@
       <c r="K107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A108" s="13" t="s">
         <v>195</v>
       </c>
@@ -47935,7 +48750,7 @@
         <v>53</v>
       </c>
       <c r="I108" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J108">
         <v>1</v>
@@ -47943,8 +48758,11 @@
       <c r="K108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A109" s="13" t="s">
         <v>196</v>
       </c>
@@ -47964,7 +48782,7 @@
         <v>53</v>
       </c>
       <c r="I109" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J109">
         <v>1</v>
@@ -47972,8 +48790,11 @@
       <c r="K109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A110" s="13" t="s">
         <v>197</v>
       </c>
@@ -47993,7 +48814,7 @@
         <v>53</v>
       </c>
       <c r="I110" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J110">
         <v>0</v>
@@ -48001,8 +48822,11 @@
       <c r="K110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A111" s="13" t="s">
         <v>198</v>
       </c>
@@ -48022,7 +48846,7 @@
         <v>53</v>
       </c>
       <c r="I111" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J111">
         <v>1</v>
@@ -48030,13 +48854,16 @@
       <c r="K111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A112" s="13" t="s">
         <v>199</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C112" s="3">
         <v>0</v>
@@ -48051,7 +48878,7 @@
         <v>53</v>
       </c>
       <c r="I112" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J112">
         <v>0</v>
@@ -48059,8 +48886,11 @@
       <c r="K112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A113" s="13" t="s">
         <v>225</v>
       </c>
@@ -48080,7 +48910,7 @@
         <v>53</v>
       </c>
       <c r="I113" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J113">
         <v>0</v>
@@ -48088,13 +48918,16 @@
       <c r="K113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A114" s="13" t="s">
         <v>226</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C114" s="3">
         <v>0</v>
@@ -48103,7 +48936,7 @@
         <v>1</v>
       </c>
       <c r="E114" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -48117,8 +48950,11 @@
       <c r="K114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A115" s="13" t="s">
         <v>227</v>
       </c>
@@ -48138,7 +48974,7 @@
         <v>53</v>
       </c>
       <c r="I115" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J115">
         <v>0</v>
@@ -48146,8 +48982,11 @@
       <c r="K115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A116" s="13" t="s">
         <v>228</v>
       </c>
@@ -48167,7 +49006,7 @@
         <v>53</v>
       </c>
       <c r="I116" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J116">
         <v>0</v>
@@ -48175,8 +49014,11 @@
       <c r="K116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A117" s="13" t="s">
         <v>229</v>
       </c>
@@ -48196,7 +49038,7 @@
         <v>53</v>
       </c>
       <c r="I117" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J117">
         <v>0</v>
@@ -48204,8 +49046,11 @@
       <c r="K117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A118" s="13" t="s">
         <v>230</v>
       </c>
@@ -48225,7 +49070,7 @@
         <v>53</v>
       </c>
       <c r="I118" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J118">
         <v>0</v>
@@ -48233,8 +49078,11 @@
       <c r="K118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A119" s="13" t="s">
         <v>231</v>
       </c>
@@ -48254,7 +49102,7 @@
         <v>53</v>
       </c>
       <c r="I119" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J119">
         <v>0</v>
@@ -48262,8 +49110,11 @@
       <c r="K119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A120" s="13" t="s">
         <v>232</v>
       </c>
@@ -48283,7 +49134,7 @@
         <v>53</v>
       </c>
       <c r="I120" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J120">
         <v>0</v>
@@ -48291,8 +49142,11 @@
       <c r="K120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A121" s="13" t="s">
         <v>233</v>
       </c>
@@ -48312,7 +49166,7 @@
         <v>53</v>
       </c>
       <c r="I121" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J121">
         <v>0</v>
@@ -48320,8 +49174,11 @@
       <c r="K121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A122" s="13" t="s">
         <v>234</v>
       </c>
@@ -48341,7 +49198,7 @@
         <v>53</v>
       </c>
       <c r="I122" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J122">
         <v>0</v>
@@ -48349,8 +49206,11 @@
       <c r="K122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A123" s="13" t="s">
         <v>235</v>
       </c>
@@ -48370,7 +49230,7 @@
         <v>53</v>
       </c>
       <c r="I123" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J123">
         <v>0</v>
@@ -48378,13 +49238,16 @@
       <c r="K123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A124" s="13" t="s">
         <v>236</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C124" s="3">
         <v>0</v>
@@ -48404,13 +49267,16 @@
       <c r="K124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A125" s="13" t="s">
         <v>44</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C125" s="3">
         <v>1</v>
@@ -48428,6 +49294,9 @@
         <v>0</v>
       </c>
       <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
         <v>0</v>
       </c>
     </row>
@@ -48443,10 +49312,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:AS18"/>
+  <dimension ref="A1:AS16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="X1" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="AJ8" sqref="AJ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -48493,10 +49362,10 @@
   <sheetData>
     <row r="1" spans="1:45" s="31" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A1" s="31" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C1" s="32" t="s">
         <v>2</v>
@@ -48619,7 +49488,7 @@
         <v>43</v>
       </c>
       <c r="AQ1" s="33" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AR1" s="33" t="s">
         <v>15</v>
@@ -48753,21 +49622,21 @@
         <v>217</v>
       </c>
       <c r="AP2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AQ2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AR2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AS2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B3" t="s">
         <v>53</v>
@@ -48872,7 +49741,7 @@
         <v>299</v>
       </c>
       <c r="AJ3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AK3">
         <v>0</v>
@@ -48890,51 +49759,51 @@
         <v>217</v>
       </c>
       <c r="AP3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AQ3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AR3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AS3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>316</v>
+        <v>357</v>
       </c>
       <c r="B4" t="s">
-        <v>327</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>327</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>327</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>327</v>
+        <v>50</v>
       </c>
       <c r="F4" t="s">
-        <v>327</v>
+        <v>50</v>
       </c>
       <c r="G4" t="s">
-        <v>327</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
-        <v>327</v>
-      </c>
-      <c r="I4" t="s">
-        <v>327</v>
+        <v>50</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>214</v>
+        <v>351</v>
       </c>
       <c r="K4" t="s">
-        <v>328</v>
+        <v>215</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -48943,76 +49812,76 @@
         <v>216</v>
       </c>
       <c r="N4" t="s">
-        <v>327</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>327</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s">
-        <v>327</v>
+        <v>50</v>
       </c>
       <c r="Q4" t="s">
-        <v>327</v>
+        <v>53</v>
       </c>
       <c r="R4" t="s">
-        <v>327</v>
-      </c>
-      <c r="S4" t="s">
-        <v>327</v>
-      </c>
-      <c r="T4" t="s">
-        <v>327</v>
+        <v>50</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
       </c>
       <c r="U4" t="s">
-        <v>327</v>
-      </c>
-      <c r="V4" t="s">
-        <v>327</v>
+        <v>53</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>327</v>
+        <v>53</v>
       </c>
       <c r="X4" t="s">
-        <v>327</v>
+        <v>53</v>
       </c>
       <c r="Y4" t="s">
-        <v>327</v>
+        <v>53</v>
       </c>
       <c r="Z4" t="s">
         <v>53</v>
       </c>
-      <c r="AA4" t="s">
-        <v>327</v>
+      <c r="AA4">
+        <v>0</v>
       </c>
       <c r="AB4" t="s">
-        <v>327</v>
+        <v>53</v>
       </c>
       <c r="AC4" t="s">
-        <v>327</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>327</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>327</v>
+        <v>265</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
       </c>
       <c r="AF4" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="AG4" t="s">
-        <v>327</v>
+        <v>53</v>
       </c>
       <c r="AH4" t="s">
-        <v>327</v>
+        <v>53</v>
       </c>
       <c r="AI4" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="AJ4" t="s">
-        <v>327</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>327</v>
+        <v>310</v>
+      </c>
+      <c r="AK4">
+        <v>1</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -49021,135 +49890,135 @@
         <v>53</v>
       </c>
       <c r="AN4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO4" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="AP4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AQ4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AR4" t="s">
-        <v>247</v>
+        <v>324</v>
       </c>
       <c r="AS4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B5" t="s">
-        <v>327</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D5" t="s">
-        <v>327</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G5" t="s">
-        <v>327</v>
+        <v>51</v>
       </c>
       <c r="H5" t="s">
-        <v>327</v>
-      </c>
-      <c r="I5" t="s">
-        <v>327</v>
+        <v>324</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="K5" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="s">
         <v>216</v>
       </c>
-      <c r="N5" t="s">
-        <v>327</v>
+      <c r="N5" s="7" t="s">
+        <v>260</v>
       </c>
       <c r="O5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="Q5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="R5" t="s">
-        <v>327</v>
+        <v>217</v>
       </c>
       <c r="S5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="T5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="U5" t="s">
-        <v>327</v>
-      </c>
-      <c r="V5" t="s">
-        <v>327</v>
+        <v>329</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
       </c>
       <c r="W5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="X5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="Y5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="Z5" t="s">
         <v>53</v>
       </c>
       <c r="AA5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AB5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AC5" t="s">
-        <v>327</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>327</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>327</v>
+        <v>324</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
       </c>
       <c r="AF5" t="s">
-        <v>327</v>
+        <v>300</v>
       </c>
       <c r="AG5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AH5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AI5" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="AJ5" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="AK5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -49161,54 +50030,54 @@
         <v>0</v>
       </c>
       <c r="AO5" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AP5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AQ5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AR5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AS5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="B6" t="s">
-        <v>327</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>327</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>327</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>327</v>
+        <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>327</v>
+        <v>50</v>
       </c>
       <c r="G6" t="s">
-        <v>327</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s">
-        <v>327</v>
-      </c>
-      <c r="I6" t="s">
-        <v>327</v>
+        <v>50</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>331</v>
+        <v>214</v>
       </c>
       <c r="K6" t="s">
-        <v>328</v>
+        <v>238</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -49217,76 +50086,76 @@
         <v>216</v>
       </c>
       <c r="N6" t="s">
-        <v>327</v>
+        <v>53</v>
       </c>
       <c r="O6" t="s">
-        <v>327</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s">
-        <v>327</v>
+        <v>50</v>
       </c>
       <c r="Q6" t="s">
-        <v>327</v>
+        <v>53</v>
       </c>
       <c r="R6" t="s">
-        <v>327</v>
-      </c>
-      <c r="S6" t="s">
-        <v>327</v>
-      </c>
-      <c r="T6" t="s">
-        <v>327</v>
+        <v>50</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
       </c>
       <c r="U6" t="s">
-        <v>327</v>
-      </c>
-      <c r="V6" t="s">
-        <v>327</v>
+        <v>53</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>327</v>
+        <v>53</v>
       </c>
       <c r="X6" t="s">
-        <v>327</v>
+        <v>53</v>
       </c>
       <c r="Y6" t="s">
-        <v>327</v>
+        <v>53</v>
       </c>
       <c r="Z6" t="s">
         <v>53</v>
       </c>
-      <c r="AA6" t="s">
-        <v>327</v>
+      <c r="AA6">
+        <v>0</v>
       </c>
       <c r="AB6" t="s">
-        <v>327</v>
+        <v>53</v>
       </c>
       <c r="AC6" t="s">
-        <v>327</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>327</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>327</v>
+        <v>265</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
       </c>
       <c r="AF6" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="AG6" t="s">
-        <v>327</v>
+        <v>53</v>
       </c>
       <c r="AH6" t="s">
-        <v>327</v>
+        <v>53</v>
       </c>
       <c r="AI6" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="AJ6" t="s">
-        <v>327</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>327</v>
+        <v>310</v>
+      </c>
+      <c r="AK6">
+        <v>1</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -49301,129 +50170,129 @@
         <v>217</v>
       </c>
       <c r="AP6" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AQ6" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AR6" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AS6" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>331</v>
       </c>
       <c r="C7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D7" t="s">
         <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G7" t="s">
         <v>51</v>
       </c>
       <c r="H7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="K7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>216</v>
+        <v>324</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="O7" t="s">
-        <v>332</v>
-      </c>
-      <c r="P7" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>327</v>
-      </c>
-      <c r="R7" t="s">
+        <v>324</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="R7" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="S7" t="s">
-        <v>327</v>
+      <c r="S7" s="22" t="s">
+        <v>239</v>
       </c>
       <c r="T7" t="s">
-        <v>327</v>
+        <v>240</v>
       </c>
       <c r="U7" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="V7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="X7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="Y7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="Z7" t="s">
         <v>53</v>
       </c>
-      <c r="AA7" t="s">
-        <v>327</v>
+      <c r="AA7">
+        <v>0</v>
       </c>
       <c r="AB7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AC7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="s">
         <v>300</v>
       </c>
       <c r="AG7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AH7" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="AI7" t="s">
-        <v>302</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>334</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>327</v>
+        <v>304</v>
+      </c>
+      <c r="AJ7" s="37" t="s">
+        <v>357</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
       </c>
       <c r="AL7">
         <v>0</v>
@@ -49435,334 +50304,334 @@
         <v>0</v>
       </c>
       <c r="AO7" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="AP7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AQ7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AR7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AS7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>324</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>324</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>324</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>324</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>324</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>324</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>324</v>
+      </c>
+      <c r="I8" t="s">
+        <v>324</v>
       </c>
       <c r="J8" t="s">
-        <v>214</v>
+        <v>324</v>
       </c>
       <c r="K8" t="s">
-        <v>238</v>
+        <v>324</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>216</v>
+        <v>324</v>
       </c>
       <c r="N8" t="s">
-        <v>53</v>
+        <v>244</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>245</v>
       </c>
       <c r="P8" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>53</v>
+        <v>247</v>
+      </c>
+      <c r="Q8">
+        <v>2</v>
       </c>
       <c r="R8" t="s">
-        <v>50</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
+        <v>248</v>
+      </c>
+      <c r="S8" t="s">
+        <v>239</v>
+      </c>
+      <c r="T8" t="s">
+        <v>240</v>
       </c>
       <c r="U8" t="s">
-        <v>53</v>
+        <v>324</v>
       </c>
       <c r="V8">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>53</v>
+        <v>324</v>
       </c>
       <c r="X8" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>53</v>
+        <v>324</v>
+      </c>
+      <c r="Y8" s="7" t="s">
+        <v>291</v>
       </c>
       <c r="Z8" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>53</v>
+        <v>266</v>
+      </c>
+      <c r="AA8" s="22">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="7" t="s">
+        <v>292</v>
       </c>
       <c r="AC8" t="s">
-        <v>265</v>
+        <v>324</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AG8" t="s">
-        <v>53</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>53</v>
+        <v>324</v>
+      </c>
+      <c r="AH8" s="8" t="s">
+        <v>333</v>
       </c>
       <c r="AI8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AJ8" t="s">
-        <v>310</v>
+        <v>336</v>
       </c>
       <c r="AK8">
-        <v>1</v>
-      </c>
-      <c r="AL8">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>324</v>
       </c>
       <c r="AM8" t="s">
-        <v>53</v>
-      </c>
-      <c r="AN8">
-        <v>0</v>
+        <v>324</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>324</v>
       </c>
       <c r="AO8" t="s">
-        <v>217</v>
+        <v>324</v>
       </c>
       <c r="AP8" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AQ8" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AR8" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AS8" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>313</v>
+        <v>336</v>
       </c>
       <c r="B9" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="C9" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>324</v>
       </c>
       <c r="E9" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F9" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>324</v>
       </c>
       <c r="H9" t="s">
-        <v>327</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9" t="s">
-        <v>327</v>
+        <v>324</v>
+      </c>
+      <c r="I9" t="s">
+        <v>324</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>237</v>
       </c>
       <c r="K9" t="s">
-        <v>327</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
+        <v>238</v>
+      </c>
+      <c r="L9" s="8">
+        <v>1</v>
       </c>
       <c r="M9" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q9" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="R9" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="P9" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>53</v>
+      </c>
+      <c r="R9" t="s">
         <v>217</v>
       </c>
-      <c r="S9" s="22" t="s">
+      <c r="S9" t="s">
         <v>239</v>
       </c>
       <c r="T9" t="s">
         <v>240</v>
       </c>
       <c r="U9" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="V9">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="X9" t="s">
-        <v>327</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>327</v>
+        <v>324</v>
+      </c>
+      <c r="Y9" s="7" t="s">
+        <v>291</v>
       </c>
       <c r="Z9" t="s">
         <v>53</v>
       </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>327</v>
+      <c r="AA9" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="7" t="s">
+        <v>324</v>
       </c>
       <c r="AC9" t="s">
-        <v>327</v>
-      </c>
-      <c r="AD9">
-        <v>1</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
+        <v>324</v>
+      </c>
+      <c r="AD9" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="19">
+        <v>1</v>
       </c>
       <c r="AF9" t="s">
         <v>300</v>
       </c>
       <c r="AG9" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="AH9" t="s">
-        <v>303</v>
+        <v>324</v>
       </c>
       <c r="AI9" t="s">
-        <v>304</v>
-      </c>
-      <c r="AJ9" s="37" t="s">
+        <v>302</v>
+      </c>
+      <c r="AJ9" t="s">
         <v>312</v>
       </c>
       <c r="AK9">
         <v>0</v>
       </c>
-      <c r="AL9">
-        <v>0</v>
+      <c r="AL9" t="s">
+        <v>324</v>
       </c>
       <c r="AM9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AN9">
-        <v>0</v>
+        <v>324</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>324</v>
       </c>
       <c r="AO9" t="s">
-        <v>217</v>
+        <v>324</v>
       </c>
       <c r="AP9" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AQ9" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AR9" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AS9" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B10" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C10" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D10" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E10" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F10" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G10" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="H10" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="I10" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="J10" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="K10" t="s">
-        <v>327</v>
-      </c>
-      <c r="L10">
+        <v>324</v>
+      </c>
+      <c r="L10" s="8">
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="N10" t="s">
         <v>244</v>
@@ -49771,13 +50640,13 @@
         <v>245</v>
       </c>
       <c r="P10" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q10">
+        <v>249</v>
+      </c>
+      <c r="Q10" s="8">
         <v>2</v>
       </c>
-      <c r="R10" t="s">
-        <v>248</v>
+      <c r="R10" s="7" t="s">
+        <v>217</v>
       </c>
       <c r="S10" t="s">
         <v>239</v>
@@ -49786,16 +50655,16 @@
         <v>240</v>
       </c>
       <c r="U10" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="V10">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="X10" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="Y10" s="7" t="s">
         <v>291</v>
@@ -49810,129 +50679,129 @@
         <v>292</v>
       </c>
       <c r="AC10" t="s">
-        <v>327</v>
-      </c>
-      <c r="AD10">
-        <v>1</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
+        <v>324</v>
+      </c>
+      <c r="AD10" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="19">
+        <v>1</v>
       </c>
       <c r="AF10" t="s">
         <v>300</v>
       </c>
       <c r="AG10" t="s">
-        <v>327</v>
-      </c>
-      <c r="AH10" s="8" t="s">
-        <v>337</v>
+        <v>324</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>324</v>
       </c>
       <c r="AI10" t="s">
         <v>302</v>
       </c>
       <c r="AJ10" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="AK10">
         <v>0</v>
       </c>
-      <c r="AL10" t="s">
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>324</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>324</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>324</v>
+      </c>
+      <c r="AP10">
+        <v>1</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>341</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>324</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>335</v>
+      </c>
+      <c r="B11" t="s">
+        <v>324</v>
+      </c>
+      <c r="C11" t="s">
+        <v>324</v>
+      </c>
+      <c r="D11" t="s">
+        <v>324</v>
+      </c>
+      <c r="E11" t="s">
+        <v>324</v>
+      </c>
+      <c r="F11" t="s">
+        <v>324</v>
+      </c>
+      <c r="G11" t="s">
+        <v>324</v>
+      </c>
+      <c r="H11" t="s">
+        <v>324</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
         <v>327</v>
       </c>
-      <c r="AM10" t="s">
-        <v>327</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>327</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>327</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>327</v>
-      </c>
-      <c r="AQ10" t="s">
-        <v>327</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>327</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="11" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>340</v>
-      </c>
-      <c r="B11" t="s">
-        <v>327</v>
-      </c>
-      <c r="C11" t="s">
-        <v>327</v>
-      </c>
-      <c r="D11" t="s">
-        <v>327</v>
-      </c>
-      <c r="E11" t="s">
-        <v>327</v>
-      </c>
-      <c r="F11" t="s">
-        <v>327</v>
-      </c>
-      <c r="G11" t="s">
-        <v>327</v>
-      </c>
-      <c r="H11" t="s">
-        <v>327</v>
-      </c>
-      <c r="I11" t="s">
-        <v>327</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>237</v>
-      </c>
       <c r="K11" t="s">
-        <v>238</v>
-      </c>
-      <c r="L11" s="8">
+        <v>325</v>
+      </c>
+      <c r="L11">
         <v>1</v>
       </c>
       <c r="M11" t="s">
-        <v>327</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>243</v>
+        <v>216</v>
+      </c>
+      <c r="N11" t="s">
+        <v>324</v>
+      </c>
+      <c r="O11" t="s">
+        <v>324</v>
       </c>
       <c r="P11" t="s">
-        <v>50</v>
+        <v>324</v>
       </c>
       <c r="Q11" t="s">
-        <v>53</v>
+        <v>324</v>
       </c>
       <c r="R11" t="s">
-        <v>217</v>
+        <v>324</v>
       </c>
       <c r="S11" t="s">
-        <v>239</v>
+        <v>324</v>
       </c>
       <c r="T11" t="s">
-        <v>240</v>
+        <v>324</v>
       </c>
       <c r="U11" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="V11">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="X11" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="Y11" s="7" t="s">
         <v>291</v>
@@ -49940,394 +50809,120 @@
       <c r="Z11" t="s">
         <v>53</v>
       </c>
-      <c r="AA11" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="7" t="s">
-        <v>327</v>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>324</v>
       </c>
       <c r="AC11" t="s">
-        <v>327</v>
-      </c>
-      <c r="AD11" s="19">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="19">
-        <v>1</v>
+        <v>324</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>324</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>324</v>
       </c>
       <c r="AF11" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AG11" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="AH11" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AI11" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AJ11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AK11">
-        <v>0</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>327</v>
+        <v>1</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
       </c>
       <c r="AM11" t="s">
-        <v>327</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>327</v>
+        <v>53</v>
+      </c>
+      <c r="AN11">
+        <v>1</v>
       </c>
       <c r="AO11" t="s">
-        <v>327</v>
+        <v>248</v>
       </c>
       <c r="AP11" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AQ11" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AR11" t="s">
-        <v>327</v>
+        <v>249</v>
       </c>
       <c r="AS11" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="12" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
         <v>342</v>
       </c>
-      <c r="B12" t="s">
-        <v>327</v>
-      </c>
-      <c r="C12" t="s">
-        <v>327</v>
-      </c>
-      <c r="D12" t="s">
-        <v>327</v>
-      </c>
-      <c r="E12" t="s">
-        <v>327</v>
-      </c>
-      <c r="F12" t="s">
-        <v>327</v>
-      </c>
-      <c r="G12" t="s">
-        <v>327</v>
-      </c>
-      <c r="H12" t="s">
-        <v>327</v>
-      </c>
-      <c r="I12" t="s">
-        <v>327</v>
-      </c>
-      <c r="J12" t="s">
-        <v>327</v>
-      </c>
-      <c r="K12" t="s">
-        <v>327</v>
-      </c>
-      <c r="L12" s="8">
-        <v>0</v>
-      </c>
-      <c r="M12" t="s">
-        <v>327</v>
-      </c>
-      <c r="N12" t="s">
-        <v>244</v>
-      </c>
-      <c r="O12" t="s">
-        <v>245</v>
-      </c>
-      <c r="P12" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q12" s="8">
-        <v>2</v>
-      </c>
-      <c r="R12" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="S12" t="s">
-        <v>239</v>
-      </c>
-      <c r="T12" t="s">
-        <v>240</v>
-      </c>
-      <c r="U12" t="s">
-        <v>327</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12" t="s">
-        <v>327</v>
-      </c>
-      <c r="X12" t="s">
-        <v>327</v>
-      </c>
-      <c r="Y12" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>266</v>
-      </c>
-      <c r="AA12" s="22">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>327</v>
-      </c>
-      <c r="AD12" s="19">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="19">
-        <v>1</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>300</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>327</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>327</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>302</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>339</v>
-      </c>
-      <c r="AK12">
-        <v>0</v>
-      </c>
-      <c r="AL12">
-        <v>0</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>327</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>327</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>327</v>
-      </c>
-      <c r="AP12">
-        <v>1</v>
-      </c>
-      <c r="AQ12" t="s">
-        <v>345</v>
-      </c>
-      <c r="AR12" t="s">
-        <v>327</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="13" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>339</v>
-      </c>
-      <c r="B13" t="s">
-        <v>327</v>
-      </c>
-      <c r="C13" t="s">
-        <v>327</v>
-      </c>
-      <c r="D13" t="s">
-        <v>327</v>
-      </c>
-      <c r="E13" t="s">
-        <v>327</v>
-      </c>
-      <c r="F13" t="s">
-        <v>327</v>
-      </c>
-      <c r="G13" t="s">
-        <v>327</v>
-      </c>
-      <c r="H13" t="s">
-        <v>327</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13" t="s">
-        <v>331</v>
-      </c>
-      <c r="K13" t="s">
-        <v>328</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13" t="s">
-        <v>216</v>
-      </c>
-      <c r="N13" t="s">
-        <v>327</v>
-      </c>
-      <c r="O13" t="s">
-        <v>327</v>
-      </c>
-      <c r="P13" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>327</v>
-      </c>
-      <c r="R13" t="s">
-        <v>327</v>
-      </c>
-      <c r="S13" t="s">
-        <v>327</v>
-      </c>
-      <c r="T13" t="s">
-        <v>327</v>
-      </c>
-      <c r="U13" t="s">
-        <v>327</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13" t="s">
-        <v>327</v>
-      </c>
-      <c r="X13" t="s">
-        <v>327</v>
-      </c>
-      <c r="Y13" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>327</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>327</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>327</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>327</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>298</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>327</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>327</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>299</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>310</v>
-      </c>
-      <c r="AK13">
-        <v>1</v>
-      </c>
-      <c r="AL13">
-        <v>0</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>53</v>
-      </c>
-      <c r="AN13">
-        <v>1</v>
-      </c>
-      <c r="AO13" t="s">
-        <v>248</v>
-      </c>
-      <c r="AP13" t="s">
-        <v>327</v>
-      </c>
-      <c r="AQ13" t="s">
-        <v>327</v>
-      </c>
-      <c r="AR13" t="s">
-        <v>249</v>
-      </c>
-      <c r="AS13" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="15" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
-      <c r="AD15" s="3"/>
-      <c r="AE15" s="3"/>
-      <c r="AF15" s="3"/>
-      <c r="AG15" s="3"/>
-      <c r="AH15" s="3"/>
-      <c r="AI15" s="3"/>
-      <c r="AJ15" s="1"/>
-      <c r="AK15" s="4"/>
-      <c r="AL15" s="30"/>
-      <c r="AM15" s="30"/>
-      <c r="AN15" s="30"/>
-      <c r="AO15" s="30"/>
-      <c r="AP15" s="30"/>
-      <c r="AQ15" s="30"/>
-      <c r="AR15" s="30"/>
-    </row>
-    <row r="18" spans="21:30" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="U18" s="16"/>
-      <c r="V18" s="17"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="16"/>
-      <c r="Z18" s="15"/>
-      <c r="AA18" s="24"/>
-      <c r="AB18" s="15"/>
-      <c r="AC18" s="15"/>
-      <c r="AD18" s="15"/>
+    </row>
+    <row r="13" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="30"/>
+      <c r="AM13" s="30"/>
+      <c r="AN13" s="30"/>
+      <c r="AO13" s="30"/>
+      <c r="AP13" s="30"/>
+      <c r="AQ13" s="30"/>
+      <c r="AR13" s="30"/>
+    </row>
+    <row r="16" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="U16" s="16"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="16"/>
+      <c r="Y16" s="16"/>
+      <c r="Z16" s="15"/>
+      <c r="AA16" s="24"/>
+      <c r="AB16" s="15"/>
+      <c r="AC16" s="15"/>
+      <c r="AD16" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/HW3/autogen/CUSignals.xlsx
+++ b/HW3/autogen/CUSignals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\garre\Desktop\EE 188\HW3\autogen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E39A54-7711-41BB-A191-0B07D58D43C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5068CD-7C55-4639-8375-4D69D653D96E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15675" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15675" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5504" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5538" uniqueCount="361">
   <si>
     <t>Instruction</t>
   </si>
@@ -1152,6 +1152,12 @@
   <si>
     <t>StallPL</t>
   </si>
+  <si>
+    <t>ReadAccess</t>
+  </si>
+  <si>
+    <t>WaitForFetch_Read</t>
+  </si>
 </sst>
 </file>
 
@@ -1678,8 +1684,8 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table8" displayName="Table8" ref="A1:AS11" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:AS11" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table8" displayName="Table8" ref="A1:AS12" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:AS12" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="45">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="State"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="ALUOpASel"/>
@@ -1912,9 +1918,9 @@
   </sheetPr>
   <dimension ref="A1:AW126"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" zoomScale="78" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A51" zoomScale="78" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AO1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AV2" sqref="AV2:AW125"/>
+      <selection pane="topRight" activeCell="AV114" sqref="AV114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -3650,7 +3656,7 @@
       </c>
       <c r="AM9" t="str">
         <f>CU!B9</f>
-        <v>WaitForFetch</v>
+        <v>ReadAccess</v>
       </c>
       <c r="AN9" s="4">
         <f>CU!C9</f>
@@ -3848,7 +3854,7 @@
       </c>
       <c r="AM10" t="str">
         <f>CU!B10</f>
-        <v>WaitForFetch</v>
+        <v>ReadAccess</v>
       </c>
       <c r="AN10" s="4">
         <f>CU!C10</f>
@@ -4046,7 +4052,7 @@
       </c>
       <c r="AM11" t="str">
         <f>CU!B11</f>
-        <v>WaitForFetch</v>
+        <v>ReadAccess</v>
       </c>
       <c r="AN11" s="4">
         <f>CU!C11</f>
@@ -4838,7 +4844,7 @@
       </c>
       <c r="AM15" t="str">
         <f>CU!B15</f>
-        <v>WaitForFetch</v>
+        <v>ReadAccess</v>
       </c>
       <c r="AN15" s="4">
         <f>CU!C15</f>
@@ -5036,7 +5042,7 @@
       </c>
       <c r="AM16" t="str">
         <f>CU!B16</f>
-        <v>WaitForFetch</v>
+        <v>ReadAccess</v>
       </c>
       <c r="AN16" s="4">
         <f>CU!C16</f>
@@ -5234,7 +5240,7 @@
       </c>
       <c r="AM17" t="str">
         <f>CU!B17</f>
-        <v>WaitForFetch</v>
+        <v>ReadAccess</v>
       </c>
       <c r="AN17" s="4">
         <f>CU!C17</f>
@@ -6026,7 +6032,7 @@
       </c>
       <c r="AM21" t="str">
         <f>CU!B21</f>
-        <v>WaitForFetch</v>
+        <v>ReadAccess</v>
       </c>
       <c r="AN21" s="4">
         <f>CU!C21</f>
@@ -6224,7 +6230,7 @@
       </c>
       <c r="AM22" t="str">
         <f>CU!B22</f>
-        <v>WaitForFetch</v>
+        <v>ReadAccess</v>
       </c>
       <c r="AN22" s="4">
         <f>CU!C22</f>
@@ -6422,7 +6428,7 @@
       </c>
       <c r="AM23" t="str">
         <f>CU!B23</f>
-        <v>WaitForFetch</v>
+        <v>ReadAccess</v>
       </c>
       <c r="AN23" s="4">
         <f>CU!C23</f>
@@ -7214,7 +7220,7 @@
       </c>
       <c r="AM27" t="str">
         <f>CU!B27</f>
-        <v>WaitForFetch</v>
+        <v>ReadAccess</v>
       </c>
       <c r="AN27" s="4">
         <f>CU!C27</f>
@@ -7412,7 +7418,7 @@
       </c>
       <c r="AM28" t="str">
         <f>CU!B28</f>
-        <v>WaitForFetch</v>
+        <v>ReadAccess</v>
       </c>
       <c r="AN28" s="4">
         <f>CU!C28</f>
@@ -7610,7 +7616,7 @@
       </c>
       <c r="AM29" t="str">
         <f>CU!B29</f>
-        <v>WaitForFetch</v>
+        <v>ReadAccess</v>
       </c>
       <c r="AN29" s="4">
         <f>CU!C29</f>
@@ -8402,7 +8408,7 @@
       </c>
       <c r="AM33" t="str">
         <f>CU!B33</f>
-        <v>WaitForFetch</v>
+        <v>ReadAccess</v>
       </c>
       <c r="AN33" s="4">
         <f>CU!C33</f>
@@ -8600,7 +8606,7 @@
       </c>
       <c r="AM34" t="str">
         <f>CU!B34</f>
-        <v>WaitForFetch</v>
+        <v>ReadAccess</v>
       </c>
       <c r="AN34" s="4">
         <f>CU!C34</f>
@@ -8798,7 +8804,7 @@
       </c>
       <c r="AM35" t="str">
         <f>CU!B35</f>
-        <v>WaitForFetch</v>
+        <v>ReadAccess</v>
       </c>
       <c r="AN35" s="4">
         <f>CU!C35</f>
@@ -9036,7 +9042,7 @@
       </c>
       <c r="AW36" s="8">
         <f>CU!L36</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -26679,8 +26685,8 @@
   </sheetPr>
   <dimension ref="A1:I125"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+    <sheetView topLeftCell="A5" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -30338,8 +30344,8 @@
   </sheetPr>
   <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="90" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView zoomScale="90" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -33620,7 +33626,7 @@
   </sheetPr>
   <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -44671,8 +44677,8 @@
   </sheetPr>
   <dimension ref="A1:L125"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="L122" sqref="L122"/>
+    <sheetView zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -44997,7 +45003,7 @@
         <v>63</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>312</v>
+        <v>359</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -45035,7 +45041,7 @@
         <v>64</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>312</v>
+        <v>359</v>
       </c>
       <c r="C10" s="3">
         <v>0</v>
@@ -45073,7 +45079,7 @@
         <v>246</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>312</v>
+        <v>359</v>
       </c>
       <c r="C11" s="3">
         <v>0</v>
@@ -45225,7 +45231,7 @@
         <v>69</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>312</v>
+        <v>359</v>
       </c>
       <c r="C15" s="3">
         <v>0</v>
@@ -45263,7 +45269,7 @@
         <v>70</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>312</v>
+        <v>359</v>
       </c>
       <c r="C16" s="3">
         <v>0</v>
@@ -45301,7 +45307,7 @@
         <v>71</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>312</v>
+        <v>359</v>
       </c>
       <c r="C17" s="3">
         <v>0</v>
@@ -45453,7 +45459,7 @@
         <v>75</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>312</v>
+        <v>359</v>
       </c>
       <c r="C21" s="3">
         <v>0</v>
@@ -45491,7 +45497,7 @@
         <v>76</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>312</v>
+        <v>359</v>
       </c>
       <c r="C22" s="3">
         <v>0</v>
@@ -45529,7 +45535,7 @@
         <v>77</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>312</v>
+        <v>359</v>
       </c>
       <c r="C23" s="3">
         <v>0</v>
@@ -45681,7 +45687,7 @@
         <v>81</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>312</v>
+        <v>359</v>
       </c>
       <c r="C27" s="3">
         <v>0</v>
@@ -45719,7 +45725,7 @@
         <v>82</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>312</v>
+        <v>359</v>
       </c>
       <c r="C28" s="3">
         <v>0</v>
@@ -45757,7 +45763,7 @@
         <v>83</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>312</v>
+        <v>359</v>
       </c>
       <c r="C29" s="3">
         <v>0</v>
@@ -45909,7 +45915,7 @@
         <v>87</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>312</v>
+        <v>359</v>
       </c>
       <c r="C33" s="3">
         <v>0</v>
@@ -45947,7 +45953,7 @@
         <v>88</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>312</v>
+        <v>359</v>
       </c>
       <c r="C34" s="3">
         <v>0</v>
@@ -45985,7 +45991,7 @@
         <v>89</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>312</v>
+        <v>359</v>
       </c>
       <c r="C35" s="3">
         <v>0</v>
@@ -46053,7 +46059,7 @@
         <v>0</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -49312,10 +49318,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:AS16"/>
+  <dimension ref="A1:AS17"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="AJ8" sqref="AJ8"/>
+    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="AK4" sqref="AK4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -49636,13 +49642,13 @@
     </row>
     <row r="3" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
         <v>50</v>
@@ -49666,10 +49672,10 @@
         <v>214</v>
       </c>
       <c r="K3" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="s">
         <v>216</v>
@@ -49723,7 +49729,7 @@
         <v>265</v>
       </c>
       <c r="AD3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE3">
         <v>1</v>
@@ -49741,10 +49747,10 @@
         <v>299</v>
       </c>
       <c r="AJ3" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="AK3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -49773,13 +49779,13 @@
     </row>
     <row r="4" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>357</v>
+        <v>320</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
         <v>50</v>
@@ -49800,13 +49806,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>351</v>
+        <v>214</v>
       </c>
       <c r="K4" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="s">
         <v>216</v>
@@ -49860,7 +49866,7 @@
         <v>265</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE4">
         <v>1</v>
@@ -49878,10 +49884,10 @@
         <v>299</v>
       </c>
       <c r="AJ4" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="AK4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -49910,127 +49916,127 @@
     </row>
     <row r="5" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>324</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>324</v>
+        <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>324</v>
+        <v>50</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s">
-        <v>324</v>
+        <v>50</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>324</v>
+        <v>351</v>
       </c>
       <c r="K5" t="s">
-        <v>324</v>
+        <v>215</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="s">
         <v>216</v>
       </c>
-      <c r="N5" s="7" t="s">
-        <v>260</v>
+      <c r="N5" t="s">
+        <v>53</v>
       </c>
       <c r="O5" t="s">
-        <v>328</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s">
-        <v>324</v>
+        <v>50</v>
       </c>
       <c r="Q5" t="s">
-        <v>324</v>
+        <v>53</v>
       </c>
       <c r="R5" t="s">
+        <v>50</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5" t="s">
+        <v>53</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>53</v>
+      </c>
+      <c r="X5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>265</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>298</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>299</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>360</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="s">
         <v>217</v>
-      </c>
-      <c r="S5" t="s">
-        <v>324</v>
-      </c>
-      <c r="T5" t="s">
-        <v>324</v>
-      </c>
-      <c r="U5" t="s">
-        <v>329</v>
-      </c>
-      <c r="V5">
-        <v>1</v>
-      </c>
-      <c r="W5" t="s">
-        <v>324</v>
-      </c>
-      <c r="X5" t="s">
-        <v>324</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>324</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>324</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>324</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>324</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>1</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>300</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>324</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>324</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>302</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>330</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>324</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>53</v>
-      </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>248</v>
       </c>
       <c r="AP5" t="s">
         <v>324</v>
@@ -50047,91 +50053,91 @@
     </row>
     <row r="6" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>324</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>324</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>324</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>324</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>214</v>
+        <v>324</v>
       </c>
       <c r="K6" t="s">
-        <v>238</v>
+        <v>324</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" t="s">
         <v>216</v>
       </c>
-      <c r="N6" t="s">
-        <v>53</v>
+      <c r="N6" s="7" t="s">
+        <v>260</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>328</v>
       </c>
       <c r="P6" t="s">
-        <v>50</v>
+        <v>324</v>
       </c>
       <c r="Q6" t="s">
-        <v>53</v>
+        <v>324</v>
       </c>
       <c r="R6" t="s">
-        <v>50</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
+        <v>217</v>
+      </c>
+      <c r="S6" t="s">
+        <v>324</v>
+      </c>
+      <c r="T6" t="s">
+        <v>324</v>
       </c>
       <c r="U6" t="s">
-        <v>53</v>
+        <v>329</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6" t="s">
-        <v>53</v>
+        <v>324</v>
       </c>
       <c r="X6" t="s">
-        <v>53</v>
+        <v>324</v>
       </c>
       <c r="Y6" t="s">
-        <v>53</v>
+        <v>324</v>
       </c>
       <c r="Z6" t="s">
         <v>53</v>
       </c>
-      <c r="AA6">
-        <v>0</v>
+      <c r="AA6" t="s">
+        <v>324</v>
       </c>
       <c r="AB6" t="s">
-        <v>53</v>
+        <v>324</v>
       </c>
       <c r="AC6" t="s">
-        <v>265</v>
+        <v>324</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -50140,22 +50146,22 @@
         <v>1</v>
       </c>
       <c r="AF6" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AG6" t="s">
-        <v>53</v>
+        <v>324</v>
       </c>
       <c r="AH6" t="s">
-        <v>53</v>
+        <v>324</v>
       </c>
       <c r="AI6" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AJ6" t="s">
-        <v>310</v>
-      </c>
-      <c r="AK6">
-        <v>1</v>
+        <v>330</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>324</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -50167,7 +50173,7 @@
         <v>0</v>
       </c>
       <c r="AO6" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AP6" t="s">
         <v>324</v>
@@ -50184,79 +50190,79 @@
     </row>
     <row r="7" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="B7" t="s">
-        <v>331</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>324</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>324</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>324</v>
+        <v>50</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H7" t="s">
-        <v>324</v>
+        <v>50</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>324</v>
+        <v>214</v>
       </c>
       <c r="K7" t="s">
-        <v>324</v>
+        <v>238</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q7" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="R7" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="S7" s="22" t="s">
-        <v>239</v>
-      </c>
-      <c r="T7" t="s">
-        <v>240</v>
+        <v>216</v>
+      </c>
+      <c r="N7" t="s">
+        <v>53</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>53</v>
+      </c>
+      <c r="R7" t="s">
+        <v>50</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
       </c>
       <c r="U7" t="s">
-        <v>324</v>
+        <v>53</v>
       </c>
       <c r="V7">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>324</v>
+        <v>53</v>
       </c>
       <c r="X7" t="s">
-        <v>324</v>
+        <v>53</v>
       </c>
       <c r="Y7" t="s">
-        <v>324</v>
+        <v>53</v>
       </c>
       <c r="Z7" t="s">
         <v>53</v>
@@ -50265,34 +50271,34 @@
         <v>0</v>
       </c>
       <c r="AB7" t="s">
-        <v>324</v>
+        <v>53</v>
       </c>
       <c r="AC7" t="s">
-        <v>324</v>
+        <v>265</v>
       </c>
       <c r="AD7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AG7" t="s">
-        <v>324</v>
+        <v>53</v>
       </c>
       <c r="AH7" t="s">
-        <v>303</v>
+        <v>53</v>
       </c>
       <c r="AI7" t="s">
-        <v>304</v>
-      </c>
-      <c r="AJ7" s="37" t="s">
-        <v>357</v>
+        <v>299</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>310</v>
       </c>
       <c r="AK7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL7">
         <v>0</v>
@@ -50321,16 +50327,16 @@
     </row>
     <row r="8" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="B8" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="C8" t="s">
         <v>324</v>
       </c>
       <c r="D8" t="s">
-        <v>324</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
         <v>324</v>
@@ -50339,13 +50345,13 @@
         <v>324</v>
       </c>
       <c r="G8" t="s">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="H8" t="s">
         <v>324</v>
       </c>
-      <c r="I8" t="s">
-        <v>324</v>
+      <c r="I8">
+        <v>0</v>
       </c>
       <c r="J8" t="s">
         <v>324</v>
@@ -50359,22 +50365,22 @@
       <c r="M8" t="s">
         <v>324</v>
       </c>
-      <c r="N8" t="s">
-        <v>244</v>
-      </c>
-      <c r="O8" t="s">
-        <v>245</v>
-      </c>
-      <c r="P8" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q8">
-        <v>2</v>
-      </c>
-      <c r="R8" t="s">
-        <v>248</v>
-      </c>
-      <c r="S8" t="s">
+      <c r="N8" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="R8" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="S8" s="22" t="s">
         <v>239</v>
       </c>
       <c r="T8" t="s">
@@ -50392,17 +50398,17 @@
       <c r="X8" t="s">
         <v>324</v>
       </c>
-      <c r="Y8" s="7" t="s">
-        <v>291</v>
+      <c r="Y8" t="s">
+        <v>324</v>
       </c>
       <c r="Z8" t="s">
-        <v>266</v>
-      </c>
-      <c r="AA8" s="22">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="7" t="s">
-        <v>292</v>
+        <v>53</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>324</v>
       </c>
       <c r="AC8" t="s">
         <v>324</v>
@@ -50419,29 +50425,29 @@
       <c r="AG8" t="s">
         <v>324</v>
       </c>
-      <c r="AH8" s="8" t="s">
-        <v>333</v>
+      <c r="AH8" t="s">
+        <v>303</v>
       </c>
       <c r="AI8" t="s">
-        <v>302</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>336</v>
+        <v>304</v>
+      </c>
+      <c r="AJ8" s="37" t="s">
+        <v>357</v>
       </c>
       <c r="AK8">
         <v>0</v>
       </c>
-      <c r="AL8" t="s">
-        <v>324</v>
+      <c r="AL8">
+        <v>0</v>
       </c>
       <c r="AM8" t="s">
-        <v>324</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>324</v>
+        <v>53</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
       </c>
       <c r="AO8" t="s">
-        <v>324</v>
+        <v>217</v>
       </c>
       <c r="AP8" t="s">
         <v>324</v>
@@ -50458,7 +50464,7 @@
     </row>
     <row r="9" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B9" t="s">
         <v>324</v>
@@ -50484,32 +50490,32 @@
       <c r="I9" t="s">
         <v>324</v>
       </c>
-      <c r="J9" s="7" t="s">
-        <v>237</v>
+      <c r="J9" t="s">
+        <v>324</v>
       </c>
       <c r="K9" t="s">
-        <v>238</v>
-      </c>
-      <c r="L9" s="8">
-        <v>1</v>
+        <v>324</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
       </c>
       <c r="M9" t="s">
         <v>324</v>
       </c>
-      <c r="N9" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>243</v>
+      <c r="N9" t="s">
+        <v>244</v>
+      </c>
+      <c r="O9" t="s">
+        <v>245</v>
       </c>
       <c r="P9" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>53</v>
+        <v>247</v>
+      </c>
+      <c r="Q9">
+        <v>2</v>
       </c>
       <c r="R9" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="S9" t="s">
         <v>239</v>
@@ -50533,37 +50539,37 @@
         <v>291</v>
       </c>
       <c r="Z9" t="s">
-        <v>53</v>
+        <v>266</v>
       </c>
       <c r="AA9" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB9" s="7" t="s">
-        <v>324</v>
+        <v>292</v>
       </c>
       <c r="AC9" t="s">
         <v>324</v>
       </c>
-      <c r="AD9" s="19">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="19">
-        <v>1</v>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9" t="s">
         <v>300</v>
       </c>
       <c r="AG9" t="s">
-        <v>305</v>
-      </c>
-      <c r="AH9" t="s">
         <v>324</v>
+      </c>
+      <c r="AH9" s="8" t="s">
+        <v>333</v>
       </c>
       <c r="AI9" t="s">
         <v>302</v>
       </c>
       <c r="AJ9" t="s">
-        <v>312</v>
+        <v>336</v>
       </c>
       <c r="AK9">
         <v>0</v>
@@ -50595,7 +50601,7 @@
     </row>
     <row r="10" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B10" t="s">
         <v>324</v>
@@ -50621,31 +50627,31 @@
       <c r="I10" t="s">
         <v>324</v>
       </c>
-      <c r="J10" t="s">
-        <v>324</v>
+      <c r="J10" s="7" t="s">
+        <v>237</v>
       </c>
       <c r="K10" t="s">
-        <v>324</v>
+        <v>238</v>
       </c>
       <c r="L10" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="s">
         <v>324</v>
       </c>
-      <c r="N10" t="s">
-        <v>244</v>
-      </c>
-      <c r="O10" t="s">
-        <v>245</v>
+      <c r="N10" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>243</v>
       </c>
       <c r="P10" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q10" s="8">
-        <v>2</v>
-      </c>
-      <c r="R10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>53</v>
+      </c>
+      <c r="R10" t="s">
         <v>217</v>
       </c>
       <c r="S10" t="s">
@@ -50670,13 +50676,13 @@
         <v>291</v>
       </c>
       <c r="Z10" t="s">
-        <v>266</v>
+        <v>53</v>
       </c>
       <c r="AA10" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB10" s="7" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="AC10" t="s">
         <v>324</v>
@@ -50691,7 +50697,7 @@
         <v>300</v>
       </c>
       <c r="AG10" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="AH10" t="s">
         <v>324</v>
@@ -50700,13 +50706,13 @@
         <v>302</v>
       </c>
       <c r="AJ10" t="s">
-        <v>335</v>
+        <v>312</v>
       </c>
       <c r="AK10">
         <v>0</v>
       </c>
-      <c r="AL10">
-        <v>0</v>
+      <c r="AL10" t="s">
+        <v>324</v>
       </c>
       <c r="AM10" t="s">
         <v>324</v>
@@ -50717,22 +50723,22 @@
       <c r="AO10" t="s">
         <v>324</v>
       </c>
-      <c r="AP10">
-        <v>1</v>
+      <c r="AP10" t="s">
+        <v>324</v>
       </c>
       <c r="AQ10" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="AR10" t="s">
         <v>324</v>
       </c>
       <c r="AS10" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="11" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B11" t="s">
         <v>324</v>
@@ -50755,41 +50761,41 @@
       <c r="H11" t="s">
         <v>324</v>
       </c>
-      <c r="I11">
-        <v>1</v>
+      <c r="I11" t="s">
+        <v>324</v>
       </c>
       <c r="J11" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="K11" t="s">
-        <v>325</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
+        <v>324</v>
+      </c>
+      <c r="L11" s="8">
+        <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>216</v>
+        <v>324</v>
       </c>
       <c r="N11" t="s">
-        <v>324</v>
+        <v>244</v>
       </c>
       <c r="O11" t="s">
-        <v>324</v>
+        <v>245</v>
       </c>
       <c r="P11" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>324</v>
-      </c>
-      <c r="R11" t="s">
-        <v>324</v>
+        <v>249</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>2</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>217</v>
       </c>
       <c r="S11" t="s">
-        <v>324</v>
+        <v>239</v>
       </c>
       <c r="T11" t="s">
-        <v>324</v>
+        <v>240</v>
       </c>
       <c r="U11" t="s">
         <v>324</v>
@@ -50807,25 +50813,25 @@
         <v>291</v>
       </c>
       <c r="Z11" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>324</v>
+        <v>266</v>
+      </c>
+      <c r="AA11" s="22">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="7" t="s">
+        <v>292</v>
       </c>
       <c r="AC11" t="s">
         <v>324</v>
       </c>
-      <c r="AD11" t="s">
-        <v>324</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>324</v>
+      <c r="AD11" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="19">
+        <v>1</v>
       </c>
       <c r="AF11" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AG11" t="s">
         <v>324</v>
@@ -50834,97 +50840,235 @@
         <v>324</v>
       </c>
       <c r="AI11" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AJ11" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="AK11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL11">
         <v>0</v>
       </c>
       <c r="AM11" t="s">
-        <v>53</v>
-      </c>
-      <c r="AN11">
-        <v>1</v>
+        <v>324</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>324</v>
       </c>
       <c r="AO11" t="s">
-        <v>248</v>
-      </c>
-      <c r="AP11" t="s">
         <v>324</v>
       </c>
+      <c r="AP11">
+        <v>1</v>
+      </c>
       <c r="AQ11" t="s">
+        <v>341</v>
+      </c>
+      <c r="AR11" t="s">
         <v>324</v>
-      </c>
-      <c r="AR11" t="s">
-        <v>249</v>
       </c>
       <c r="AS11" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="13" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="3"/>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="3"/>
-      <c r="AH13" s="3"/>
-      <c r="AI13" s="3"/>
-      <c r="AJ13" s="1"/>
-      <c r="AK13" s="4"/>
-      <c r="AL13" s="30"/>
-      <c r="AM13" s="30"/>
-      <c r="AN13" s="30"/>
-      <c r="AO13" s="30"/>
-      <c r="AP13" s="30"/>
-      <c r="AQ13" s="30"/>
-      <c r="AR13" s="30"/>
-    </row>
-    <row r="16" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="U16" s="16"/>
-      <c r="V16" s="17"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="16"/>
-      <c r="Y16" s="16"/>
-      <c r="Z16" s="15"/>
-      <c r="AA16" s="24"/>
-      <c r="AB16" s="15"/>
-      <c r="AC16" s="15"/>
-      <c r="AD16" s="15"/>
+    <row r="12" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>335</v>
+      </c>
+      <c r="B12" t="s">
+        <v>324</v>
+      </c>
+      <c r="C12" t="s">
+        <v>324</v>
+      </c>
+      <c r="D12" t="s">
+        <v>324</v>
+      </c>
+      <c r="E12" t="s">
+        <v>324</v>
+      </c>
+      <c r="F12" t="s">
+        <v>324</v>
+      </c>
+      <c r="G12" t="s">
+        <v>324</v>
+      </c>
+      <c r="H12" t="s">
+        <v>324</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>327</v>
+      </c>
+      <c r="K12" t="s">
+        <v>325</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12" t="s">
+        <v>216</v>
+      </c>
+      <c r="N12" t="s">
+        <v>324</v>
+      </c>
+      <c r="O12" t="s">
+        <v>324</v>
+      </c>
+      <c r="P12" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>324</v>
+      </c>
+      <c r="R12" t="s">
+        <v>324</v>
+      </c>
+      <c r="S12" t="s">
+        <v>324</v>
+      </c>
+      <c r="T12" t="s">
+        <v>324</v>
+      </c>
+      <c r="U12" t="s">
+        <v>324</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>324</v>
+      </c>
+      <c r="X12" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y12" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>324</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>324</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>324</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>324</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>298</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>324</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>324</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>299</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>310</v>
+      </c>
+      <c r="AK12">
+        <v>1</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN12">
+        <v>1</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>248</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>324</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>324</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>249</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="30"/>
+      <c r="AM14" s="30"/>
+      <c r="AN14" s="30"/>
+      <c r="AO14" s="30"/>
+      <c r="AP14" s="30"/>
+      <c r="AQ14" s="30"/>
+      <c r="AR14" s="30"/>
+    </row>
+    <row r="17" spans="21:30" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="U17" s="16"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="24"/>
+      <c r="AB17" s="15"/>
+      <c r="AC17" s="15"/>
+      <c r="AD17" s="15"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">

--- a/HW3/autogen/CUSignals.xlsx
+++ b/HW3/autogen/CUSignals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\garre\Desktop\EE 188\HW3\autogen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5068CD-7C55-4639-8375-4D69D653D96E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC62422-09D2-4C50-9358-575BD25BA450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15675" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14303" yWindow="-3945" windowWidth="24495" windowHeight="15675" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="1" r:id="rId1"/>
@@ -1309,7 +1309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1411,7 +1411,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1923,50 +1922,50 @@
       <selection pane="topRight" activeCell="AV114" sqref="AV114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.86328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.73046875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.86328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.59765625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.59765625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.59765625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.59765625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.59765625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.73046875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="15.1328125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="17.59765625" style="2" customWidth="1"/>
-    <col min="12" max="15" width="18.59765625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="15.1328125" style="3" customWidth="1"/>
-    <col min="17" max="17" width="15.1328125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="17.59765625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="18.59765625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="36.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" style="2" customWidth="1"/>
+    <col min="12" max="15" width="18.5703125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="17.5703125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="18.5703125" style="3" customWidth="1"/>
     <col min="20" max="20" width="18" style="3" customWidth="1"/>
-    <col min="21" max="21" width="19.3984375" style="3" customWidth="1"/>
-    <col min="22" max="23" width="18.1328125" style="3" customWidth="1"/>
-    <col min="24" max="24" width="15.86328125" style="3" customWidth="1"/>
-    <col min="25" max="25" width="12.265625" style="3" customWidth="1"/>
-    <col min="26" max="26" width="14.86328125" style="3" customWidth="1"/>
-    <col min="27" max="27" width="18.1328125" style="3" customWidth="1"/>
-    <col min="28" max="28" width="14.265625" style="3" customWidth="1"/>
-    <col min="29" max="29" width="14.73046875" style="3" customWidth="1"/>
-    <col min="30" max="30" width="18.86328125" style="3" customWidth="1"/>
+    <col min="21" max="21" width="19.42578125" style="3" customWidth="1"/>
+    <col min="22" max="23" width="18.140625" style="3" customWidth="1"/>
+    <col min="24" max="24" width="15.85546875" style="3" customWidth="1"/>
+    <col min="25" max="25" width="12.28515625" style="3" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="3" customWidth="1"/>
+    <col min="27" max="27" width="18.140625" style="3" customWidth="1"/>
+    <col min="28" max="28" width="14.28515625" style="3" customWidth="1"/>
+    <col min="29" max="29" width="14.7109375" style="3" customWidth="1"/>
+    <col min="30" max="30" width="18.85546875" style="3" customWidth="1"/>
     <col min="31" max="31" width="13" style="3" customWidth="1"/>
     <col min="32" max="32" width="14" style="3" customWidth="1"/>
-    <col min="33" max="34" width="13.59765625" style="3" customWidth="1"/>
-    <col min="35" max="35" width="19.86328125" style="3" customWidth="1"/>
-    <col min="36" max="37" width="13.59765625" style="3" customWidth="1"/>
-    <col min="38" max="38" width="25.1328125" style="3" customWidth="1"/>
-    <col min="39" max="39" width="13.59765625" customWidth="1"/>
-    <col min="40" max="40" width="13.59765625" style="4" customWidth="1"/>
-    <col min="41" max="41" width="16.73046875" customWidth="1"/>
-    <col min="42" max="42" width="15.3984375" customWidth="1"/>
-    <col min="43" max="43" width="12.1328125" customWidth="1"/>
-    <col min="44" max="45" width="16.86328125" customWidth="1"/>
-    <col min="46" max="46" width="14.1328125" customWidth="1"/>
+    <col min="33" max="34" width="13.5703125" style="3" customWidth="1"/>
+    <col min="35" max="35" width="19.85546875" style="3" customWidth="1"/>
+    <col min="36" max="37" width="13.5703125" style="3" customWidth="1"/>
+    <col min="38" max="38" width="25.140625" style="3" customWidth="1"/>
+    <col min="39" max="39" width="13.5703125" customWidth="1"/>
+    <col min="40" max="40" width="13.5703125" style="4" customWidth="1"/>
+    <col min="41" max="41" width="16.7109375" customWidth="1"/>
+    <col min="42" max="42" width="15.42578125" customWidth="1"/>
+    <col min="43" max="43" width="12.140625" customWidth="1"/>
+    <col min="44" max="45" width="16.85546875" customWidth="1"/>
+    <col min="46" max="46" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2115,7 +2114,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="2" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="str">
         <f>ALU!A2</f>
         <v>OpMOV_Imm_To_Rn</v>
@@ -2313,7 +2312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="str">
         <f>ALU!A3</f>
         <v>OpMOVW_At_Disp_PC_To_Rn</v>
@@ -2511,7 +2510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="str">
         <f>ALU!A4</f>
         <v>OpMOVL_At_Disp_PC_To_Rn</v>
@@ -2709,7 +2708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="str">
         <f>ALU!A5</f>
         <v>OpMOV_Rm_To_Rn</v>
@@ -2907,7 +2906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="str">
         <f>ALU!A6</f>
         <v>OpMOVB_Rm_To_At_Rn</v>
@@ -3105,7 +3104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="str">
         <f>ALU!A7</f>
         <v>OpMOVW_Rm_To_At_Rn</v>
@@ -3303,7 +3302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="str">
         <f>ALU!A8</f>
         <v>OpMOVL_Rm_To_At_Rn</v>
@@ -3501,7 +3500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="str">
         <f>ALU!A9</f>
         <v>OpMOVB_At_Rm_To_Rn</v>
@@ -3699,7 +3698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="str">
         <f>ALU!A10</f>
         <v>OpMOVW_At_Rm_To_Rn</v>
@@ -3897,7 +3896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="str">
         <f>ALU!A11</f>
         <v>OpMOVL_At_Rm_Rn</v>
@@ -4095,7 +4094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="str">
         <f>ALU!A12</f>
         <v>OpMOVB_Rm_To_At_Dec_Rn</v>
@@ -4293,7 +4292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="str">
         <f>ALU!A13</f>
         <v>OpMOVW_Rm_To_At_Dec_Rn</v>
@@ -4491,7 +4490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="str">
         <f>ALU!A14</f>
         <v>OpMOVL_Rm_To_At_Dec_Rn</v>
@@ -4689,7 +4688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="str">
         <f>ALU!A15</f>
         <v>OpMOVB_At_Rm_Inc_To_Rn</v>
@@ -4887,7 +4886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="str">
         <f>ALU!A16</f>
         <v>OpMOVW_At_Rm_Inc_To_Rn</v>
@@ -5085,7 +5084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="str">
         <f>ALU!A17</f>
         <v>OpMOVL_At_Rm_Inc_To_Rn</v>
@@ -5283,7 +5282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="str">
         <f>ALU!A18</f>
         <v>OpMOVB_R0_To_At_Disp_Rn</v>
@@ -5481,7 +5480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="str">
         <f>ALU!A19</f>
         <v>OpMOVW_R0_To_At_Disp_Rn</v>
@@ -5679,7 +5678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="str">
         <f>ALU!A20</f>
         <v>OpMOVL_R0_To_At_Disp_Rn</v>
@@ -5877,7 +5876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="str">
         <f>ALU!A21</f>
         <v>OpMOVB_At_Disp_Rm_To_R0</v>
@@ -6075,7 +6074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="str">
         <f>ALU!A22</f>
         <v>OpMOVW_At_Disp_Rm_To_R0</v>
@@ -6273,7 +6272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="str">
         <f>ALU!A23</f>
         <v>OpMOVL_At_Disp_Rm_To_Rn</v>
@@ -6471,7 +6470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="str">
         <f>ALU!A24</f>
         <v>OpMOVB_Rm_To_At_R0_Rn</v>
@@ -6669,7 +6668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="str">
         <f>ALU!A25</f>
         <v>OpMOVW_Rm_To_At_R0_Rn</v>
@@ -6867,7 +6866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="str">
         <f>ALU!A26</f>
         <v>OpMOVL_Rm_To_At_R0_Rn</v>
@@ -7065,7 +7064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="str">
         <f>ALU!A27</f>
         <v>OpMOVB_At_R0_Rm_To_Rn</v>
@@ -7263,7 +7262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="str">
         <f>ALU!A28</f>
         <v>OpMOVW_At_R0_Rm_To_Rn</v>
@@ -7461,7 +7460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="str">
         <f>ALU!A29</f>
         <v>OpMOVL_At_R0_Rm_To_Rn</v>
@@ -7659,7 +7658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="str">
         <f>ALU!A30</f>
         <v>OpMOVB_R0_To_At_Disp_GBR</v>
@@ -7857,7 +7856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="str">
         <f>ALU!A31</f>
         <v>OpMOVW_R0_To_At_Disp_GBR</v>
@@ -8055,7 +8054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="str">
         <f>ALU!A32</f>
         <v>OpMOVL_R0_To_At_Disp_GBR</v>
@@ -8253,7 +8252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="str">
         <f>ALU!A33</f>
         <v>OpMOVB_At_Disp_GBR_To_R0</v>
@@ -8451,7 +8450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="str">
         <f>ALU!A34</f>
         <v>OpMOVW_At_Disp_GBR_To_R0</v>
@@ -8649,7 +8648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="str">
         <f>ALU!A35</f>
         <v>OpMOVL_At_Disp_GBR_To_R0</v>
@@ -8847,7 +8846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="str">
         <f>ALU!A36</f>
         <v>OpMOVA</v>
@@ -9045,7 +9044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="str">
         <f>ALU!A37</f>
         <v>OpMOVT</v>
@@ -9243,7 +9242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="str">
         <f>ALU!A38</f>
         <v>OpSwapB</v>
@@ -9441,7 +9440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="str">
         <f>ALU!A39</f>
         <v>OpSwapW</v>
@@ -9639,7 +9638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="str">
         <f>ALU!A40</f>
         <v>OpXTRCT</v>
@@ -9837,7 +9836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="str">
         <f>ALU!A41</f>
         <v>OpADD_Rm_Rn</v>
@@ -10035,7 +10034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="str">
         <f>ALU!A42</f>
         <v>OpADD_Imm_Rn</v>
@@ -10233,7 +10232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="str">
         <f>ALU!A43</f>
         <v>OpADDC</v>
@@ -10431,7 +10430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="str">
         <f>ALU!A44</f>
         <v>OpADDV</v>
@@ -10629,7 +10628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="str">
         <f>ALU!A45</f>
         <v>OpCMP_EQ_Imm</v>
@@ -10827,7 +10826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="str">
         <f>ALU!A46</f>
         <v>OpCMP_EQ_RmRn</v>
@@ -11025,7 +11024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="str">
         <f>ALU!A47</f>
         <v>OpCMP_HS</v>
@@ -11223,7 +11222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="str">
         <f>ALU!A48</f>
         <v>OpCMP_GE</v>
@@ -11421,7 +11420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="str">
         <f>ALU!A49</f>
         <v>OpCMP_HI</v>
@@ -11619,7 +11618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="str">
         <f>ALU!A50</f>
         <v>OpCMP_GT</v>
@@ -11817,7 +11816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="str">
         <f>ALU!A51</f>
         <v>OpCMP_PL</v>
@@ -12015,7 +12014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="str">
         <f>ALU!A52</f>
         <v>OpCMP_PZ</v>
@@ -12213,7 +12212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="str">
         <f>ALU!A53</f>
         <v>OpCMP_STR</v>
@@ -12411,7 +12410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="str">
         <f>ALU!A54</f>
         <v>OpDT</v>
@@ -12609,7 +12608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="str">
         <f>ALU!A55</f>
         <v>OpEXTS_B</v>
@@ -12807,7 +12806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="str">
         <f>ALU!A56</f>
         <v>OpEXTS_W</v>
@@ -13005,7 +13004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="str">
         <f>ALU!A57</f>
         <v>OpEXTU_B</v>
@@ -13203,7 +13202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="str">
         <f>ALU!A58</f>
         <v>OpEXTU_W</v>
@@ -13401,7 +13400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="str">
         <f>ALU!A59</f>
         <v>OpNEG</v>
@@ -13599,7 +13598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="str">
         <f>ALU!A60</f>
         <v>OpNEGC</v>
@@ -13797,7 +13796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="str">
         <f>ALU!A61</f>
         <v>OpSUB</v>
@@ -13995,7 +13994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="str">
         <f>ALU!A62</f>
         <v>OpSUBC</v>
@@ -14193,7 +14192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="str">
         <f>ALU!A63</f>
         <v>OpSUBV</v>
@@ -14391,7 +14390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="str">
         <f>ALU!A64</f>
         <v>OpAND_Rm_Rn</v>
@@ -14589,7 +14588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="str">
         <f>ALU!A65</f>
         <v>OpAND_Imm_Rn</v>
@@ -14787,7 +14786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="str">
         <f>ALU!A66</f>
         <v>OpAND_Imm_B</v>
@@ -14985,7 +14984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="str">
         <f>ALU!A67</f>
         <v>OpNOT</v>
@@ -15183,7 +15182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="str">
         <f>ALU!A68</f>
         <v>OpOR_Rm_Rn</v>
@@ -15381,7 +15380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="str">
         <f>ALU!A69</f>
         <v>OpOR_Imm</v>
@@ -15579,7 +15578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="str">
         <f>ALU!A70</f>
         <v>OpOR_Imm_B</v>
@@ -15777,7 +15776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="str">
         <f>ALU!A71</f>
         <v>OpTAS_B</v>
@@ -15975,7 +15974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="str">
         <f>ALU!A72</f>
         <v>OpTST_Rm_Rn</v>
@@ -16173,7 +16172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="str">
         <f>ALU!A73</f>
         <v>OpTST_Imm</v>
@@ -16371,7 +16370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="str">
         <f>ALU!A74</f>
         <v>OpTST_Imm_B</v>
@@ -16569,7 +16568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="str">
         <f>ALU!A75</f>
         <v>OpXOR_Rm_Rn</v>
@@ -16767,7 +16766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="str">
         <f>ALU!A76</f>
         <v>OpXOR_Imm</v>
@@ -16965,7 +16964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="str">
         <f>ALU!A77</f>
         <v>OpXOR_Imm_B</v>
@@ -17163,7 +17162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="str">
         <f>ALU!A78</f>
         <v>OpROTL</v>
@@ -17361,7 +17360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="str">
         <f>ALU!A79</f>
         <v>OpROTR</v>
@@ -17559,7 +17558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="str">
         <f>ALU!A80</f>
         <v>OpROTCL</v>
@@ -17757,7 +17756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="str">
         <f>ALU!A81</f>
         <v>OpROTCR</v>
@@ -17955,7 +17954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="str">
         <f>ALU!A82</f>
         <v>OpSHAL</v>
@@ -18153,7 +18152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="str">
         <f>ALU!A83</f>
         <v>OpSHAR</v>
@@ -18351,7 +18350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="str">
         <f>ALU!A84</f>
         <v>OpSHLL</v>
@@ -18549,7 +18548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="str">
         <f>ALU!A85</f>
         <v>OpSHLR</v>
@@ -18747,7 +18746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="str">
         <f>ALU!A86</f>
         <v>OpSHLL2</v>
@@ -18945,7 +18944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="str">
         <f>ALU!A87</f>
         <v>OpSHLR2</v>
@@ -19143,7 +19142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="str">
         <f>ALU!A88</f>
         <v>OpSHLL8</v>
@@ -19341,7 +19340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="str">
         <f>ALU!A89</f>
         <v>OpSHLR8</v>
@@ -19539,7 +19538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="str">
         <f>ALU!A90</f>
         <v>OpSHLL16</v>
@@ -19737,7 +19736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="str">
         <f>ALU!A91</f>
         <v>OpSHLR16</v>
@@ -19935,7 +19934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="str">
         <f>ALU!A92</f>
         <v>OpBF</v>
@@ -20133,7 +20132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="str">
         <f>ALU!A93</f>
         <v>OpBFS</v>
@@ -20331,7 +20330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="str">
         <f>ALU!A94</f>
         <v>OpBT</v>
@@ -20529,7 +20528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="str">
         <f>ALU!A95</f>
         <v>OpBTS</v>
@@ -20727,7 +20726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="str">
         <f>ALU!A96</f>
         <v>OpBRA</v>
@@ -20925,7 +20924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="str">
         <f>ALU!A97</f>
         <v>OpBRAF</v>
@@ -21123,7 +21122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="str">
         <f>ALU!A98</f>
         <v>OpBSR</v>
@@ -21321,7 +21320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="str">
         <f>ALU!A99</f>
         <v>OpBSRF</v>
@@ -21519,7 +21518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="str">
         <f>ALU!A100</f>
         <v>OpJMP</v>
@@ -21717,7 +21716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="str">
         <f>ALU!A101</f>
         <v>OpJSR</v>
@@ -21915,7 +21914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="str">
         <f>ALU!A102</f>
         <v>OpRTS</v>
@@ -22113,7 +22112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="str">
         <f>ALU!A103</f>
         <v>OpCLRT</v>
@@ -22311,7 +22310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="str">
         <f>ALU!A104</f>
         <v>OpLDC_Rm_To_SR</v>
@@ -22509,7 +22508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="str">
         <f>ALU!A105</f>
         <v>OpLDC_Rm_To_GBR</v>
@@ -22707,7 +22706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="str">
         <f>ALU!A106</f>
         <v>OpLDC_Rm_To_VBR</v>
@@ -22905,7 +22904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="str">
         <f>ALU!A107</f>
         <v>OpLDCL_At_Rm_Inc_To_SR</v>
@@ -23103,7 +23102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="str">
         <f>ALU!A108</f>
         <v>OpLDCL_At_Rm_Inc_To_GBR</v>
@@ -23301,7 +23300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="str">
         <f>ALU!A109</f>
         <v>OpLDCL_At_Rm_Inc_To_VBR</v>
@@ -23499,7 +23498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="str">
         <f>ALU!A110</f>
         <v>OpLDS_Rm_To_PR</v>
@@ -23697,7 +23696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="str">
         <f>ALU!A111</f>
         <v>OpLDSL_At_Rm_Inc_To_PR</v>
@@ -23895,7 +23894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="str">
         <f>ALU!A112</f>
         <v>OpSLEEP</v>
@@ -24093,7 +24092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="str">
         <f>ALU!A113</f>
         <v>OpNOP</v>
@@ -24291,7 +24290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="str">
         <f>ALU!A114</f>
         <v>OpRTE</v>
@@ -24489,7 +24488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="str">
         <f>ALU!A115</f>
         <v>OpSETT</v>
@@ -24687,7 +24686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="str">
         <f>ALU!A116</f>
         <v>OpSTC_SR_To_Rn</v>
@@ -24885,7 +24884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="str">
         <f>ALU!A117</f>
         <v>OpSTC_GBR_To_Rn</v>
@@ -25083,7 +25082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="str">
         <f>ALU!A118</f>
         <v>OpSTC_VBR_To_Rn</v>
@@ -25281,7 +25280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="str">
         <f>ALU!A119</f>
         <v>OpSTCL_SR_To_At_Dec_Rn</v>
@@ -25479,7 +25478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="str">
         <f>ALU!A120</f>
         <v>OpSTCL_GBR_To_At_Dec_Rn</v>
@@ -25677,7 +25676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="str">
         <f>ALU!A121</f>
         <v>OpSTCL_VBR_To_At_Dec_Rn</v>
@@ -25875,7 +25874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="str">
         <f>ALU!A122</f>
         <v>OpSTS_PR_To_Rn</v>
@@ -26073,7 +26072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="str">
         <f>ALU!A123</f>
         <v>OpSTSL_PR_To_At_Dec_Rn</v>
@@ -26271,7 +26270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="str">
         <f>ALU!A124</f>
         <v>OpTRAPA</v>
@@ -26469,7 +26468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="13" t="s">
         <v>44</v>
       </c>
@@ -26666,7 +26665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="14"/>
     </row>
   </sheetData>
@@ -26685,25 +26684,25 @@
   </sheetPr>
   <dimension ref="A1:I125"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="A15" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="28" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29.3984375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.1328125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.3984375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.265625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.59765625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="2" customWidth="1"/>
     <col min="8" max="8" width="17" style="2" customWidth="1"/>
     <col min="9" max="9" width="13" style="3" customWidth="1"/>
-    <col min="10" max="10" width="14.1328125" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -26732,7 +26731,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>46</v>
       </c>
@@ -26761,7 +26760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>52</v>
       </c>
@@ -26790,7 +26789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>56</v>
       </c>
@@ -26819,7 +26818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>57</v>
       </c>
@@ -26848,7 +26847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>60</v>
       </c>
@@ -26877,7 +26876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>61</v>
       </c>
@@ -26906,7 +26905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>62</v>
       </c>
@@ -26935,7 +26934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>63</v>
       </c>
@@ -26964,7 +26963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>64</v>
       </c>
@@ -26993,7 +26992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>65</v>
       </c>
@@ -27022,7 +27021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>66</v>
       </c>
@@ -27051,7 +27050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>67</v>
       </c>
@@ -27080,7 +27079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>68</v>
       </c>
@@ -27109,7 +27108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>69</v>
       </c>
@@ -27138,7 +27137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>70</v>
       </c>
@@ -27167,7 +27166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>71</v>
       </c>
@@ -27196,7 +27195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>72</v>
       </c>
@@ -27225,7 +27224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>73</v>
       </c>
@@ -27254,7 +27253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>74</v>
       </c>
@@ -27283,7 +27282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>75</v>
       </c>
@@ -27312,7 +27311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>76</v>
       </c>
@@ -27341,7 +27340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>77</v>
       </c>
@@ -27370,7 +27369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>78</v>
       </c>
@@ -27399,7 +27398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>79</v>
       </c>
@@ -27428,7 +27427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>80</v>
       </c>
@@ -27457,7 +27456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>81</v>
       </c>
@@ -27486,7 +27485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>82</v>
       </c>
@@ -27515,7 +27514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>83</v>
       </c>
@@ -27544,7 +27543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>84</v>
       </c>
@@ -27573,7 +27572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>85</v>
       </c>
@@ -27602,7 +27601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>86</v>
       </c>
@@ -27631,7 +27630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>87</v>
       </c>
@@ -27660,7 +27659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>88</v>
       </c>
@@ -27689,7 +27688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>89</v>
       </c>
@@ -27718,7 +27717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>90</v>
       </c>
@@ -27747,7 +27746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>91</v>
       </c>
@@ -27776,7 +27775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>93</v>
       </c>
@@ -27805,7 +27804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>94</v>
       </c>
@@ -27834,7 +27833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>95</v>
       </c>
@@ -27863,7 +27862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>96</v>
       </c>
@@ -27892,7 +27891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>98</v>
       </c>
@@ -27921,7 +27920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>99</v>
       </c>
@@ -27950,7 +27949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>102</v>
       </c>
@@ -27979,7 +27978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>104</v>
       </c>
@@ -28008,7 +28007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>108</v>
       </c>
@@ -28037,7 +28036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>109</v>
       </c>
@@ -28066,7 +28065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>110</v>
       </c>
@@ -28095,7 +28094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>112</v>
       </c>
@@ -28124,7 +28123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>114</v>
       </c>
@@ -28153,7 +28152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>116</v>
       </c>
@@ -28182,7 +28181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>119</v>
       </c>
@@ -28211,7 +28210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>121</v>
       </c>
@@ -28240,7 +28239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>123</v>
       </c>
@@ -28269,7 +28268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>125</v>
       </c>
@@ -28298,7 +28297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>126</v>
       </c>
@@ -28327,7 +28326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>127</v>
       </c>
@@ -28356,7 +28355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>128</v>
       </c>
@@ -28385,7 +28384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>129</v>
       </c>
@@ -28414,7 +28413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>131</v>
       </c>
@@ -28443,7 +28442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>134</v>
       </c>
@@ -28472,7 +28471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>135</v>
       </c>
@@ -28501,7 +28500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>136</v>
       </c>
@@ -28530,7 +28529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>137</v>
       </c>
@@ -28559,7 +28558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>139</v>
       </c>
@@ -28588,7 +28587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>141</v>
       </c>
@@ -28617,7 +28616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>142</v>
       </c>
@@ -28646,7 +28645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>143</v>
       </c>
@@ -28675,7 +28674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>145</v>
       </c>
@@ -28704,7 +28703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>146</v>
       </c>
@@ -28733,7 +28732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>147</v>
       </c>
@@ -28762,7 +28761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>150</v>
       </c>
@@ -28791,7 +28790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>151</v>
       </c>
@@ -28820,7 +28819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>152</v>
       </c>
@@ -28849,7 +28848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>153</v>
       </c>
@@ -28878,7 +28877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>155</v>
       </c>
@@ -28907,7 +28906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>156</v>
       </c>
@@ -28936,7 +28935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
         <v>157</v>
       </c>
@@ -28965,7 +28964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
         <v>160</v>
       </c>
@@ -28994,7 +28993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
         <v>162</v>
       </c>
@@ -29023,7 +29022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
         <v>164</v>
       </c>
@@ -29052,7 +29051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
         <v>166</v>
       </c>
@@ -29081,7 +29080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
         <v>168</v>
       </c>
@@ -29110,7 +29109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
         <v>170</v>
       </c>
@@ -29139,7 +29138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
         <v>171</v>
       </c>
@@ -29168,7 +29167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="20" t="s">
         <v>173</v>
       </c>
@@ -29197,7 +29196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="20" t="s">
         <v>174</v>
       </c>
@@ -29226,7 +29225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="20" t="s">
         <v>175</v>
       </c>
@@ -29255,7 +29254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="20" t="s">
         <v>176</v>
       </c>
@@ -29284,7 +29283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="20" t="s">
         <v>177</v>
       </c>
@@ -29313,7 +29312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="20" t="s">
         <v>178</v>
       </c>
@@ -29342,7 +29341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
         <v>179</v>
       </c>
@@ -29371,7 +29370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
         <v>180</v>
       </c>
@@ -29400,7 +29399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
         <v>181</v>
       </c>
@@ -29429,7 +29428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="s">
         <v>182</v>
       </c>
@@ -29458,7 +29457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="s">
         <v>183</v>
       </c>
@@ -29487,7 +29486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="s">
         <v>184</v>
       </c>
@@ -29516,7 +29515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="s">
         <v>185</v>
       </c>
@@ -29545,7 +29544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
         <v>186</v>
       </c>
@@ -29574,7 +29573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
         <v>187</v>
       </c>
@@ -29603,7 +29602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
         <v>188</v>
       </c>
@@ -29632,7 +29631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
         <v>189</v>
       </c>
@@ -29661,7 +29660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
         <v>190</v>
       </c>
@@ -29690,7 +29689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
         <v>191</v>
       </c>
@@ -29719,7 +29718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
         <v>192</v>
       </c>
@@ -29748,7 +29747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
         <v>193</v>
       </c>
@@ -29777,7 +29776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
         <v>194</v>
       </c>
@@ -29806,7 +29805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
         <v>195</v>
       </c>
@@ -29835,7 +29834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
         <v>196</v>
       </c>
@@ -29864,7 +29863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
         <v>197</v>
       </c>
@@ -29893,7 +29892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
         <v>198</v>
       </c>
@@ -29922,7 +29921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
         <v>199</v>
       </c>
@@ -29951,7 +29950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
         <v>200</v>
       </c>
@@ -29980,7 +29979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
         <v>201</v>
       </c>
@@ -30009,7 +30008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="23" t="s">
         <v>202</v>
       </c>
@@ -30038,7 +30037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
         <v>204</v>
       </c>
@@ -30067,7 +30066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
         <v>205</v>
       </c>
@@ -30096,7 +30095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
         <v>206</v>
       </c>
@@ -30125,7 +30124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
         <v>207</v>
       </c>
@@ -30154,7 +30153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
         <v>208</v>
       </c>
@@ -30183,7 +30182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
         <v>209</v>
       </c>
@@ -30212,7 +30211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
         <v>210</v>
       </c>
@@ -30241,7 +30240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
         <v>211</v>
       </c>
@@ -30270,7 +30269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
         <v>212</v>
       </c>
@@ -30299,7 +30298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>44</v>
       </c>
@@ -30345,22 +30344,22 @@
   <dimension ref="A1:H125"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.3984375" customWidth="1"/>
-    <col min="2" max="2" width="55.86328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="51.265625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.59765625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="19.73046875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="35.42578125" customWidth="1"/>
+    <col min="2" max="2" width="55.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="51.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" style="3" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="17.3984375" customWidth="1"/>
-    <col min="8" max="8" width="14.59765625" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -30386,7 +30385,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>46</v>
       </c>
@@ -30412,7 +30411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>218</v>
       </c>
@@ -30438,7 +30437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>219</v>
       </c>
@@ -30464,7 +30463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>57</v>
       </c>
@@ -30490,7 +30489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>60</v>
       </c>
@@ -30516,7 +30515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>61</v>
       </c>
@@ -30542,7 +30541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>62</v>
       </c>
@@ -30568,7 +30567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>63</v>
       </c>
@@ -30594,7 +30593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>64</v>
       </c>
@@ -30620,7 +30619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>65</v>
       </c>
@@ -30646,7 +30645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>66</v>
       </c>
@@ -30672,7 +30671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>67</v>
       </c>
@@ -30698,7 +30697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>68</v>
       </c>
@@ -30724,7 +30723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>69</v>
       </c>
@@ -30750,7 +30749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>70</v>
       </c>
@@ -30776,7 +30775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>71</v>
       </c>
@@ -30802,7 +30801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>72</v>
       </c>
@@ -30828,7 +30827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>73</v>
       </c>
@@ -30854,7 +30853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>74</v>
       </c>
@@ -30880,7 +30879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>75</v>
       </c>
@@ -30906,7 +30905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>76</v>
       </c>
@@ -30932,7 +30931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>77</v>
       </c>
@@ -30958,7 +30957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>78</v>
       </c>
@@ -30984,7 +30983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>79</v>
       </c>
@@ -31010,7 +31009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>80</v>
       </c>
@@ -31036,7 +31035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>81</v>
       </c>
@@ -31062,7 +31061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>82</v>
       </c>
@@ -31088,7 +31087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>83</v>
       </c>
@@ -31114,7 +31113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>84</v>
       </c>
@@ -31140,7 +31139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>85</v>
       </c>
@@ -31166,7 +31165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>86</v>
       </c>
@@ -31192,7 +31191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>87</v>
       </c>
@@ -31218,7 +31217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>88</v>
       </c>
@@ -31244,7 +31243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>89</v>
       </c>
@@ -31270,7 +31269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>90</v>
       </c>
@@ -31296,7 +31295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>91</v>
       </c>
@@ -31322,7 +31321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>93</v>
       </c>
@@ -31348,7 +31347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>94</v>
       </c>
@@ -31374,7 +31373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>95</v>
       </c>
@@ -31400,7 +31399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>96</v>
       </c>
@@ -31426,7 +31425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>98</v>
       </c>
@@ -31452,7 +31451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>99</v>
       </c>
@@ -31478,7 +31477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>102</v>
       </c>
@@ -31504,7 +31503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>104</v>
       </c>
@@ -31530,7 +31529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>108</v>
       </c>
@@ -31556,7 +31555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>109</v>
       </c>
@@ -31582,7 +31581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>110</v>
       </c>
@@ -31608,7 +31607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>112</v>
       </c>
@@ -31634,7 +31633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>114</v>
       </c>
@@ -31660,7 +31659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>116</v>
       </c>
@@ -31686,7 +31685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>119</v>
       </c>
@@ -31712,7 +31711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>121</v>
       </c>
@@ -31738,7 +31737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>220</v>
       </c>
@@ -31764,7 +31763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>125</v>
       </c>
@@ -31790,7 +31789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>126</v>
       </c>
@@ -31816,7 +31815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>127</v>
       </c>
@@ -31842,7 +31841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>128</v>
       </c>
@@ -31868,7 +31867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>129</v>
       </c>
@@ -31894,7 +31893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>131</v>
       </c>
@@ -31920,7 +31919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>134</v>
       </c>
@@ -31946,7 +31945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>135</v>
       </c>
@@ -31972,7 +31971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>136</v>
       </c>
@@ -31998,7 +31997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>137</v>
       </c>
@@ -32024,7 +32023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>139</v>
       </c>
@@ -32050,7 +32049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>141</v>
       </c>
@@ -32076,7 +32075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>142</v>
       </c>
@@ -32102,7 +32101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>143</v>
       </c>
@@ -32128,7 +32127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>145</v>
       </c>
@@ -32154,7 +32153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>146</v>
       </c>
@@ -32180,7 +32179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>147</v>
       </c>
@@ -32206,7 +32205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>150</v>
       </c>
@@ -32232,7 +32231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>151</v>
       </c>
@@ -32258,7 +32257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>152</v>
       </c>
@@ -32284,7 +32283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>153</v>
       </c>
@@ -32310,7 +32309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>155</v>
       </c>
@@ -32336,7 +32335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>156</v>
       </c>
@@ -32362,7 +32361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
         <v>157</v>
       </c>
@@ -32388,7 +32387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
         <v>160</v>
       </c>
@@ -32414,7 +32413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
         <v>162</v>
       </c>
@@ -32440,7 +32439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
         <v>164</v>
       </c>
@@ -32466,7 +32465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
         <v>166</v>
       </c>
@@ -32492,7 +32491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
         <v>168</v>
       </c>
@@ -32518,7 +32517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
         <v>170</v>
       </c>
@@ -32544,7 +32543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
         <v>171</v>
       </c>
@@ -32570,7 +32569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
         <v>173</v>
       </c>
@@ -32596,7 +32595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
         <v>174</v>
       </c>
@@ -32622,7 +32621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
         <v>175</v>
       </c>
@@ -32648,7 +32647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
         <v>176</v>
       </c>
@@ -32674,7 +32673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
         <v>177</v>
       </c>
@@ -32700,7 +32699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
         <v>178</v>
       </c>
@@ -32726,7 +32725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
         <v>179</v>
       </c>
@@ -32752,7 +32751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
         <v>180</v>
       </c>
@@ -32778,7 +32777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
         <v>181</v>
       </c>
@@ -32804,7 +32803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="s">
         <v>182</v>
       </c>
@@ -32830,7 +32829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="s">
         <v>183</v>
       </c>
@@ -32856,7 +32855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="s">
         <v>184</v>
       </c>
@@ -32882,7 +32881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="s">
         <v>185</v>
       </c>
@@ -32908,7 +32907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
         <v>186</v>
       </c>
@@ -32934,7 +32933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
         <v>187</v>
       </c>
@@ -32960,7 +32959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
         <v>188</v>
       </c>
@@ -32986,7 +32985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
         <v>189</v>
       </c>
@@ -33012,7 +33011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
         <v>190</v>
       </c>
@@ -33038,7 +33037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
         <v>191</v>
       </c>
@@ -33064,7 +33063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
         <v>192</v>
       </c>
@@ -33090,7 +33089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
         <v>193</v>
       </c>
@@ -33116,7 +33115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
         <v>194</v>
       </c>
@@ -33142,7 +33141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
         <v>195</v>
       </c>
@@ -33168,7 +33167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
         <v>196</v>
       </c>
@@ -33194,7 +33193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
         <v>197</v>
       </c>
@@ -33220,7 +33219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
         <v>198</v>
       </c>
@@ -33246,7 +33245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
         <v>224</v>
       </c>
@@ -33272,7 +33271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
         <v>225</v>
       </c>
@@ -33298,7 +33297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
         <v>226</v>
       </c>
@@ -33324,7 +33323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
         <v>227</v>
       </c>
@@ -33350,7 +33349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
         <v>228</v>
       </c>
@@ -33376,7 +33375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
         <v>229</v>
       </c>
@@ -33402,7 +33401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
         <v>230</v>
       </c>
@@ -33428,7 +33427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
         <v>231</v>
       </c>
@@ -33454,7 +33453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
         <v>232</v>
       </c>
@@ -33480,7 +33479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
         <v>233</v>
       </c>
@@ -33506,7 +33505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
         <v>234</v>
       </c>
@@ -33532,7 +33531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
         <v>235</v>
       </c>
@@ -33558,7 +33557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
         <v>236</v>
       </c>
@@ -33584,7 +33583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>44</v>
       </c>
@@ -33626,23 +33625,23 @@
   </sheetPr>
   <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="18.86328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.73046875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="16" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.59765625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="18.59765625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.73046875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.1328125" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -33668,7 +33667,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>46</v>
       </c>
@@ -33694,7 +33693,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>218</v>
       </c>
@@ -33720,7 +33719,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>219</v>
       </c>
@@ -33746,7 +33745,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>57</v>
       </c>
@@ -33772,7 +33771,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>60</v>
       </c>
@@ -33798,7 +33797,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>61</v>
       </c>
@@ -33824,7 +33823,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>62</v>
       </c>
@@ -33850,7 +33849,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>63</v>
       </c>
@@ -33876,7 +33875,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>64</v>
       </c>
@@ -33902,7 +33901,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>246</v>
       </c>
@@ -33928,7 +33927,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>66</v>
       </c>
@@ -33954,7 +33953,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>67</v>
       </c>
@@ -33980,7 +33979,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>68</v>
       </c>
@@ -34006,7 +34005,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>69</v>
       </c>
@@ -34032,7 +34031,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>70</v>
       </c>
@@ -34058,7 +34057,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>71</v>
       </c>
@@ -34084,7 +34083,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>72</v>
       </c>
@@ -34110,7 +34109,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>73</v>
       </c>
@@ -34136,7 +34135,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>74</v>
       </c>
@@ -34162,7 +34161,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>75</v>
       </c>
@@ -34188,7 +34187,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>76</v>
       </c>
@@ -34214,7 +34213,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>77</v>
       </c>
@@ -34240,7 +34239,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>78</v>
       </c>
@@ -34266,7 +34265,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>79</v>
       </c>
@@ -34292,7 +34291,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>80</v>
       </c>
@@ -34318,7 +34317,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>81</v>
       </c>
@@ -34344,7 +34343,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>82</v>
       </c>
@@ -34370,7 +34369,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>83</v>
       </c>
@@ -34396,7 +34395,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>84</v>
       </c>
@@ -34422,7 +34421,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>85</v>
       </c>
@@ -34448,7 +34447,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>86</v>
       </c>
@@ -34474,7 +34473,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>87</v>
       </c>
@@ -34500,7 +34499,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>88</v>
       </c>
@@ -34526,7 +34525,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>89</v>
       </c>
@@ -34552,7 +34551,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>90</v>
       </c>
@@ -34578,7 +34577,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>91</v>
       </c>
@@ -34604,7 +34603,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>93</v>
       </c>
@@ -34630,7 +34629,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>94</v>
       </c>
@@ -34656,7 +34655,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>95</v>
       </c>
@@ -34682,7 +34681,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>96</v>
       </c>
@@ -34708,7 +34707,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>98</v>
       </c>
@@ -34734,7 +34733,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>99</v>
       </c>
@@ -34760,7 +34759,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>102</v>
       </c>
@@ -34786,7 +34785,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>104</v>
       </c>
@@ -34812,7 +34811,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>108</v>
       </c>
@@ -34838,7 +34837,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>109</v>
       </c>
@@ -34864,7 +34863,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>110</v>
       </c>
@@ -34890,7 +34889,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>112</v>
       </c>
@@ -34916,7 +34915,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>114</v>
       </c>
@@ -34942,7 +34941,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>116</v>
       </c>
@@ -34968,7 +34967,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>119</v>
       </c>
@@ -34994,7 +34993,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>121</v>
       </c>
@@ -35020,7 +35019,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>220</v>
       </c>
@@ -35046,7 +35045,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>125</v>
       </c>
@@ -35072,7 +35071,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>126</v>
       </c>
@@ -35098,7 +35097,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>127</v>
       </c>
@@ -35124,7 +35123,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>128</v>
       </c>
@@ -35150,7 +35149,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>129</v>
       </c>
@@ -35176,7 +35175,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>131</v>
       </c>
@@ -35202,7 +35201,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>134</v>
       </c>
@@ -35228,7 +35227,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>135</v>
       </c>
@@ -35254,7 +35253,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>136</v>
       </c>
@@ -35280,7 +35279,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>137</v>
       </c>
@@ -35306,7 +35305,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>139</v>
       </c>
@@ -35332,7 +35331,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>141</v>
       </c>
@@ -35358,7 +35357,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>142</v>
       </c>
@@ -35384,7 +35383,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>143</v>
       </c>
@@ -35410,7 +35409,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>145</v>
       </c>
@@ -35436,7 +35435,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>146</v>
       </c>
@@ -35462,7 +35461,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>147</v>
       </c>
@@ -35488,7 +35487,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>150</v>
       </c>
@@ -35514,7 +35513,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>151</v>
       </c>
@@ -35540,7 +35539,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>152</v>
       </c>
@@ -35566,7 +35565,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>153</v>
       </c>
@@ -35592,7 +35591,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>155</v>
       </c>
@@ -35618,7 +35617,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>156</v>
       </c>
@@ -35644,7 +35643,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
         <v>157</v>
       </c>
@@ -35670,7 +35669,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
         <v>160</v>
       </c>
@@ -35696,7 +35695,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
         <v>162</v>
       </c>
@@ -35722,7 +35721,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
         <v>164</v>
       </c>
@@ -35748,7 +35747,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
         <v>166</v>
       </c>
@@ -35774,7 +35773,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
         <v>168</v>
       </c>
@@ -35800,7 +35799,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
         <v>170</v>
       </c>
@@ -35826,7 +35825,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
         <v>171</v>
       </c>
@@ -35852,7 +35851,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
         <v>173</v>
       </c>
@@ -35878,7 +35877,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
         <v>174</v>
       </c>
@@ -35904,7 +35903,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
         <v>175</v>
       </c>
@@ -35930,7 +35929,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
         <v>176</v>
       </c>
@@ -35956,7 +35955,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
         <v>177</v>
       </c>
@@ -35982,7 +35981,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
         <v>178</v>
       </c>
@@ -36008,7 +36007,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
         <v>179</v>
       </c>
@@ -36034,7 +36033,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
         <v>180</v>
       </c>
@@ -36060,7 +36059,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
         <v>181</v>
       </c>
@@ -36086,7 +36085,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="s">
         <v>182</v>
       </c>
@@ -36112,7 +36111,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="s">
         <v>183</v>
       </c>
@@ -36138,7 +36137,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="s">
         <v>184</v>
       </c>
@@ -36164,7 +36163,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="s">
         <v>185</v>
       </c>
@@ -36190,7 +36189,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
         <v>186</v>
       </c>
@@ -36216,7 +36215,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
         <v>187</v>
       </c>
@@ -36242,7 +36241,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
         <v>188</v>
       </c>
@@ -36268,7 +36267,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
         <v>189</v>
       </c>
@@ -36294,7 +36293,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
         <v>190</v>
       </c>
@@ -36320,7 +36319,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
         <v>191</v>
       </c>
@@ -36346,7 +36345,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
         <v>192</v>
       </c>
@@ -36372,7 +36371,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
         <v>193</v>
       </c>
@@ -36398,7 +36397,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
         <v>194</v>
       </c>
@@ -36424,7 +36423,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
         <v>195</v>
       </c>
@@ -36450,7 +36449,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
         <v>196</v>
       </c>
@@ -36476,7 +36475,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
         <v>197</v>
       </c>
@@ -36502,7 +36501,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
         <v>198</v>
       </c>
@@ -36528,7 +36527,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
         <v>199</v>
       </c>
@@ -36554,7 +36553,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
         <v>225</v>
       </c>
@@ -36580,7 +36579,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
         <v>226</v>
       </c>
@@ -36606,7 +36605,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
         <v>227</v>
       </c>
@@ -36632,7 +36631,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
         <v>228</v>
       </c>
@@ -36658,7 +36657,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
         <v>229</v>
       </c>
@@ -36684,7 +36683,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
         <v>230</v>
       </c>
@@ -36710,7 +36709,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
         <v>231</v>
       </c>
@@ -36736,7 +36735,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
         <v>232</v>
       </c>
@@ -36762,7 +36761,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
         <v>233</v>
       </c>
@@ -36788,7 +36787,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
         <v>234</v>
       </c>
@@ -36814,7 +36813,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
         <v>235</v>
       </c>
@@ -36840,7 +36839,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
         <v>236</v>
       </c>
@@ -36866,7 +36865,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>44</v>
       </c>
@@ -36913,21 +36912,21 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="16" style="26" customWidth="1"/>
-    <col min="4" max="5" width="16.265625" customWidth="1"/>
-    <col min="6" max="6" width="19.265625" customWidth="1"/>
-    <col min="7" max="7" width="15.73046875" style="26" customWidth="1"/>
-    <col min="8" max="8" width="17.1328125" customWidth="1"/>
-    <col min="9" max="9" width="14.3984375" customWidth="1"/>
-    <col min="10" max="10" width="12.86328125" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="26" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
     <col min="11" max="11" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -36962,7 +36961,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>46</v>
       </c>
@@ -36997,7 +36996,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>52</v>
       </c>
@@ -37032,7 +37031,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>56</v>
       </c>
@@ -37067,7 +37066,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>57</v>
       </c>
@@ -37102,7 +37101,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>60</v>
       </c>
@@ -37137,7 +37136,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>61</v>
       </c>
@@ -37172,7 +37171,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>62</v>
       </c>
@@ -37207,7 +37206,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>63</v>
       </c>
@@ -37242,7 +37241,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>64</v>
       </c>
@@ -37277,7 +37276,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>246</v>
       </c>
@@ -37312,7 +37311,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>66</v>
       </c>
@@ -37347,7 +37346,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>67</v>
       </c>
@@ -37382,7 +37381,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>68</v>
       </c>
@@ -37417,7 +37416,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>69</v>
       </c>
@@ -37452,7 +37451,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>70</v>
       </c>
@@ -37487,7 +37486,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>71</v>
       </c>
@@ -37522,7 +37521,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>72</v>
       </c>
@@ -37557,7 +37556,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>73</v>
       </c>
@@ -37592,7 +37591,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>74</v>
       </c>
@@ -37627,7 +37626,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>75</v>
       </c>
@@ -37662,7 +37661,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>76</v>
       </c>
@@ -37697,7 +37696,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>77</v>
       </c>
@@ -37732,7 +37731,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>78</v>
       </c>
@@ -37767,7 +37766,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>79</v>
       </c>
@@ -37802,7 +37801,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>80</v>
       </c>
@@ -37837,7 +37836,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>81</v>
       </c>
@@ -37872,7 +37871,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>82</v>
       </c>
@@ -37907,7 +37906,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>83</v>
       </c>
@@ -37942,7 +37941,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>84</v>
       </c>
@@ -37977,7 +37976,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>85</v>
       </c>
@@ -38012,7 +38011,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>86</v>
       </c>
@@ -38047,7 +38046,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>87</v>
       </c>
@@ -38082,7 +38081,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>88</v>
       </c>
@@ -38117,7 +38116,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>89</v>
       </c>
@@ -38152,7 +38151,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>90</v>
       </c>
@@ -38187,7 +38186,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>91</v>
       </c>
@@ -38222,7 +38221,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>93</v>
       </c>
@@ -38257,7 +38256,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>94</v>
       </c>
@@ -38292,7 +38291,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>95</v>
       </c>
@@ -38327,7 +38326,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>96</v>
       </c>
@@ -38362,7 +38361,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>98</v>
       </c>
@@ -38397,7 +38396,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>99</v>
       </c>
@@ -38432,7 +38431,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>102</v>
       </c>
@@ -38467,7 +38466,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>104</v>
       </c>
@@ -38502,7 +38501,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>108</v>
       </c>
@@ -38537,7 +38536,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>109</v>
       </c>
@@ -38572,7 +38571,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>110</v>
       </c>
@@ -38607,7 +38606,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>112</v>
       </c>
@@ -38642,7 +38641,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>114</v>
       </c>
@@ -38677,7 +38676,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>116</v>
       </c>
@@ -38712,7 +38711,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>119</v>
       </c>
@@ -38747,7 +38746,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>121</v>
       </c>
@@ -38782,7 +38781,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>220</v>
       </c>
@@ -38817,7 +38816,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>125</v>
       </c>
@@ -38852,7 +38851,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>126</v>
       </c>
@@ -38887,7 +38886,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>127</v>
       </c>
@@ -38922,7 +38921,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>128</v>
       </c>
@@ -38957,7 +38956,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>129</v>
       </c>
@@ -38992,7 +38991,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>131</v>
       </c>
@@ -39027,7 +39026,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>134</v>
       </c>
@@ -39062,7 +39061,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>135</v>
       </c>
@@ -39097,7 +39096,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>136</v>
       </c>
@@ -39132,7 +39131,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>137</v>
       </c>
@@ -39167,7 +39166,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>139</v>
       </c>
@@ -39202,7 +39201,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>141</v>
       </c>
@@ -39237,7 +39236,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>142</v>
       </c>
@@ -39272,7 +39271,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>143</v>
       </c>
@@ -39307,7 +39306,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>145</v>
       </c>
@@ -39342,7 +39341,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>146</v>
       </c>
@@ -39377,7 +39376,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>147</v>
       </c>
@@ -39412,7 +39411,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>150</v>
       </c>
@@ -39447,7 +39446,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>151</v>
       </c>
@@ -39482,7 +39481,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>152</v>
       </c>
@@ -39517,7 +39516,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>153</v>
       </c>
@@ -39552,7 +39551,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>155</v>
       </c>
@@ -39587,7 +39586,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>156</v>
       </c>
@@ -39622,7 +39621,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
         <v>157</v>
       </c>
@@ -39657,7 +39656,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
         <v>160</v>
       </c>
@@ -39692,7 +39691,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
         <v>162</v>
       </c>
@@ -39727,7 +39726,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
         <v>164</v>
       </c>
@@ -39762,7 +39761,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
         <v>166</v>
       </c>
@@ -39797,7 +39796,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
         <v>168</v>
       </c>
@@ -39832,7 +39831,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
         <v>170</v>
       </c>
@@ -39867,7 +39866,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
         <v>171</v>
       </c>
@@ -39902,7 +39901,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
         <v>173</v>
       </c>
@@ -39937,7 +39936,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
         <v>174</v>
       </c>
@@ -39972,7 +39971,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
         <v>175</v>
       </c>
@@ -40007,7 +40006,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
         <v>176</v>
       </c>
@@ -40042,7 +40041,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
         <v>177</v>
       </c>
@@ -40077,7 +40076,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
         <v>178</v>
       </c>
@@ -40112,7 +40111,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
         <v>179</v>
       </c>
@@ -40147,7 +40146,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
         <v>180</v>
       </c>
@@ -40182,7 +40181,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
         <v>181</v>
       </c>
@@ -40217,7 +40216,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="s">
         <v>182</v>
       </c>
@@ -40252,7 +40251,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="s">
         <v>183</v>
       </c>
@@ -40287,7 +40286,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="s">
         <v>184</v>
       </c>
@@ -40322,7 +40321,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="s">
         <v>185</v>
       </c>
@@ -40357,7 +40356,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
         <v>186</v>
       </c>
@@ -40392,7 +40391,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
         <v>187</v>
       </c>
@@ -40427,7 +40426,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
         <v>188</v>
       </c>
@@ -40462,7 +40461,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
         <v>189</v>
       </c>
@@ -40497,7 +40496,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
         <v>190</v>
       </c>
@@ -40522,7 +40521,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
         <v>191</v>
       </c>
@@ -40553,7 +40552,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
         <v>192</v>
       </c>
@@ -40582,7 +40581,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
         <v>193</v>
       </c>
@@ -40611,7 +40610,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
         <v>194</v>
       </c>
@@ -40646,7 +40645,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
         <v>195</v>
       </c>
@@ -40681,7 +40680,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
         <v>196</v>
       </c>
@@ -40716,7 +40715,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
         <v>197</v>
       </c>
@@ -40745,7 +40744,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
         <v>198</v>
       </c>
@@ -40780,7 +40779,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
         <v>199</v>
       </c>
@@ -40805,7 +40804,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
         <v>225</v>
       </c>
@@ -40830,7 +40829,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
         <v>226</v>
       </c>
@@ -40863,7 +40862,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
         <v>227</v>
       </c>
@@ -40888,7 +40887,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
         <v>228</v>
       </c>
@@ -40915,7 +40914,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
         <v>229</v>
       </c>
@@ -40942,7 +40941,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
         <v>230</v>
       </c>
@@ -40969,7 +40968,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
         <v>231</v>
       </c>
@@ -41000,7 +40999,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
         <v>232</v>
       </c>
@@ -41031,7 +41030,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
         <v>233</v>
       </c>
@@ -41062,7 +41061,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
         <v>234</v>
       </c>
@@ -41089,7 +41088,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
         <v>235</v>
       </c>
@@ -41120,7 +41119,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
         <v>236</v>
       </c>
@@ -41149,7 +41148,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>297</v>
       </c>
@@ -41166,7 +41165,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B126" s="7"/>
       <c r="C126" s="22"/>
       <c r="D126" s="7"/>
@@ -41197,23 +41196,23 @@
       <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="7.265625" customWidth="1"/>
-    <col min="3" max="3" width="9.1328125" style="3" customWidth="1"/>
-    <col min="4" max="5" width="16.59765625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.265625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="3" customWidth="1"/>
+    <col min="4" max="5" width="16.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="2" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="13.265625" customWidth="1"/>
-    <col min="9" max="9" width="15.73046875" customWidth="1"/>
-    <col min="10" max="10" width="11.73046875" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="13.59765625" customWidth="1"/>
-    <col min="13" max="13" width="13.59765625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -41242,7 +41241,7 @@
       <c r="L1" s="15"/>
       <c r="M1" s="15"/>
     </row>
-    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>46</v>
       </c>
@@ -41271,7 +41270,7 @@
       <c r="L2" s="21"/>
       <c r="M2" s="21"/>
     </row>
-    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>52</v>
       </c>
@@ -41300,7 +41299,7 @@
       <c r="L3" s="21"/>
       <c r="M3" s="21"/>
     </row>
-    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>56</v>
       </c>
@@ -41329,7 +41328,7 @@
       <c r="L4" s="21"/>
       <c r="M4" s="21"/>
     </row>
-    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>57</v>
       </c>
@@ -41358,7 +41357,7 @@
       <c r="L5" s="21"/>
       <c r="M5" s="21"/>
     </row>
-    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>60</v>
       </c>
@@ -41387,7 +41386,7 @@
       <c r="L6" s="21"/>
       <c r="M6" s="21"/>
     </row>
-    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>61</v>
       </c>
@@ -41416,7 +41415,7 @@
       <c r="L7" s="21"/>
       <c r="M7" s="21"/>
     </row>
-    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>62</v>
       </c>
@@ -41445,7 +41444,7 @@
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
     </row>
-    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>63</v>
       </c>
@@ -41474,7 +41473,7 @@
       <c r="L9" s="21"/>
       <c r="M9" s="21"/>
     </row>
-    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>64</v>
       </c>
@@ -41503,7 +41502,7 @@
       <c r="L10" s="21"/>
       <c r="M10" s="21"/>
     </row>
-    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>246</v>
       </c>
@@ -41532,7 +41531,7 @@
       <c r="L11" s="21"/>
       <c r="M11" s="21"/>
     </row>
-    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>66</v>
       </c>
@@ -41561,7 +41560,7 @@
       <c r="L12" s="21"/>
       <c r="M12" s="21"/>
     </row>
-    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>67</v>
       </c>
@@ -41590,7 +41589,7 @@
       <c r="L13" s="21"/>
       <c r="M13" s="21"/>
     </row>
-    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>68</v>
       </c>
@@ -41619,7 +41618,7 @@
       <c r="L14" s="21"/>
       <c r="M14" s="21"/>
     </row>
-    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>69</v>
       </c>
@@ -41648,7 +41647,7 @@
       <c r="L15" s="21"/>
       <c r="M15" s="21"/>
     </row>
-    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>70</v>
       </c>
@@ -41677,7 +41676,7 @@
       <c r="L16" s="21"/>
       <c r="M16" s="21"/>
     </row>
-    <row r="17" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>71</v>
       </c>
@@ -41706,7 +41705,7 @@
       <c r="L17" s="21"/>
       <c r="M17" s="21"/>
     </row>
-    <row r="18" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>72</v>
       </c>
@@ -41735,7 +41734,7 @@
       <c r="L18" s="21"/>
       <c r="M18" s="21"/>
     </row>
-    <row r="19" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>73</v>
       </c>
@@ -41764,7 +41763,7 @@
       <c r="L19" s="21"/>
       <c r="M19" s="21"/>
     </row>
-    <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>74</v>
       </c>
@@ -41793,7 +41792,7 @@
       <c r="L20" s="21"/>
       <c r="M20" s="21"/>
     </row>
-    <row r="21" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>75</v>
       </c>
@@ -41822,7 +41821,7 @@
       <c r="L21" s="21"/>
       <c r="M21" s="21"/>
     </row>
-    <row r="22" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>76</v>
       </c>
@@ -41851,7 +41850,7 @@
       <c r="L22" s="21"/>
       <c r="M22" s="21"/>
     </row>
-    <row r="23" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>77</v>
       </c>
@@ -41880,7 +41879,7 @@
       <c r="L23" s="21"/>
       <c r="M23" s="21"/>
     </row>
-    <row r="24" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>78</v>
       </c>
@@ -41909,7 +41908,7 @@
       <c r="L24" s="21"/>
       <c r="M24" s="21"/>
     </row>
-    <row r="25" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>79</v>
       </c>
@@ -41938,7 +41937,7 @@
       <c r="L25" s="21"/>
       <c r="M25" s="21"/>
     </row>
-    <row r="26" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>80</v>
       </c>
@@ -41967,7 +41966,7 @@
       <c r="L26" s="21"/>
       <c r="M26" s="21"/>
     </row>
-    <row r="27" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>81</v>
       </c>
@@ -41996,7 +41995,7 @@
       <c r="L27" s="21"/>
       <c r="M27" s="21"/>
     </row>
-    <row r="28" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>82</v>
       </c>
@@ -42025,7 +42024,7 @@
       <c r="L28" s="21"/>
       <c r="M28" s="21"/>
     </row>
-    <row r="29" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>83</v>
       </c>
@@ -42054,7 +42053,7 @@
       <c r="L29" s="21"/>
       <c r="M29" s="21"/>
     </row>
-    <row r="30" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>84</v>
       </c>
@@ -42083,7 +42082,7 @@
       <c r="L30" s="21"/>
       <c r="M30" s="21"/>
     </row>
-    <row r="31" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>85</v>
       </c>
@@ -42112,7 +42111,7 @@
       <c r="L31" s="21"/>
       <c r="M31" s="21"/>
     </row>
-    <row r="32" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>86</v>
       </c>
@@ -42141,7 +42140,7 @@
       <c r="L32" s="21"/>
       <c r="M32" s="21"/>
     </row>
-    <row r="33" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>87</v>
       </c>
@@ -42170,7 +42169,7 @@
       <c r="L33" s="21"/>
       <c r="M33" s="21"/>
     </row>
-    <row r="34" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>88</v>
       </c>
@@ -42199,7 +42198,7 @@
       <c r="L34" s="21"/>
       <c r="M34" s="21"/>
     </row>
-    <row r="35" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>89</v>
       </c>
@@ -42228,7 +42227,7 @@
       <c r="L35" s="21"/>
       <c r="M35" s="21"/>
     </row>
-    <row r="36" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>90</v>
       </c>
@@ -42255,7 +42254,7 @@
       <c r="L36" s="21"/>
       <c r="M36" s="21"/>
     </row>
-    <row r="37" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>91</v>
       </c>
@@ -42282,7 +42281,7 @@
       <c r="L37" s="21"/>
       <c r="M37" s="21"/>
     </row>
-    <row r="38" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>93</v>
       </c>
@@ -42309,7 +42308,7 @@
       <c r="L38" s="21"/>
       <c r="M38" s="21"/>
     </row>
-    <row r="39" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>94</v>
       </c>
@@ -42336,7 +42335,7 @@
       <c r="L39" s="21"/>
       <c r="M39" s="21"/>
     </row>
-    <row r="40" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>95</v>
       </c>
@@ -42363,7 +42362,7 @@
       <c r="L40" s="21"/>
       <c r="M40" s="21"/>
     </row>
-    <row r="41" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>96</v>
       </c>
@@ -42392,7 +42391,7 @@
       <c r="L41" s="21"/>
       <c r="M41" s="21"/>
     </row>
-    <row r="42" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>98</v>
       </c>
@@ -42421,7 +42420,7 @@
       <c r="L42" s="21"/>
       <c r="M42" s="21"/>
     </row>
-    <row r="43" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>99</v>
       </c>
@@ -42450,7 +42449,7 @@
       <c r="L43" s="21"/>
       <c r="M43" s="21"/>
     </row>
-    <row r="44" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>102</v>
       </c>
@@ -42479,7 +42478,7 @@
       <c r="L44" s="21"/>
       <c r="M44" s="21"/>
     </row>
-    <row r="45" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>104</v>
       </c>
@@ -42508,7 +42507,7 @@
       <c r="L45" s="21"/>
       <c r="M45" s="21"/>
     </row>
-    <row r="46" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>108</v>
       </c>
@@ -42537,7 +42536,7 @@
       <c r="L46" s="21"/>
       <c r="M46" s="21"/>
     </row>
-    <row r="47" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>109</v>
       </c>
@@ -42566,7 +42565,7 @@
       <c r="L47" s="21"/>
       <c r="M47" s="21"/>
     </row>
-    <row r="48" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>110</v>
       </c>
@@ -42595,7 +42594,7 @@
       <c r="L48" s="21"/>
       <c r="M48" s="21"/>
     </row>
-    <row r="49" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>112</v>
       </c>
@@ -42624,7 +42623,7 @@
       <c r="L49" s="21"/>
       <c r="M49" s="21"/>
     </row>
-    <row r="50" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>114</v>
       </c>
@@ -42653,7 +42652,7 @@
       <c r="L50" s="21"/>
       <c r="M50" s="21"/>
     </row>
-    <row r="51" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>116</v>
       </c>
@@ -42682,7 +42681,7 @@
       <c r="L51" s="21"/>
       <c r="M51" s="21"/>
     </row>
-    <row r="52" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>119</v>
       </c>
@@ -42711,7 +42710,7 @@
       <c r="L52" s="21"/>
       <c r="M52" s="21"/>
     </row>
-    <row r="53" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>121</v>
       </c>
@@ -42740,7 +42739,7 @@
       <c r="L53" s="21"/>
       <c r="M53" s="21"/>
     </row>
-    <row r="54" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>220</v>
       </c>
@@ -42769,7 +42768,7 @@
       <c r="L54" s="21"/>
       <c r="M54" s="21"/>
     </row>
-    <row r="55" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>125</v>
       </c>
@@ -42798,7 +42797,7 @@
       <c r="L55" s="21"/>
       <c r="M55" s="21"/>
     </row>
-    <row r="56" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>126</v>
       </c>
@@ -42827,7 +42826,7 @@
       <c r="L56" s="21"/>
       <c r="M56" s="21"/>
     </row>
-    <row r="57" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>127</v>
       </c>
@@ -42856,7 +42855,7 @@
       <c r="L57" s="21"/>
       <c r="M57" s="21"/>
     </row>
-    <row r="58" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>128</v>
       </c>
@@ -42885,7 +42884,7 @@
       <c r="L58" s="21"/>
       <c r="M58" s="21"/>
     </row>
-    <row r="59" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>129</v>
       </c>
@@ -42914,7 +42913,7 @@
       <c r="L59" s="21"/>
       <c r="M59" s="21"/>
     </row>
-    <row r="60" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>131</v>
       </c>
@@ -42943,7 +42942,7 @@
       <c r="L60" s="21"/>
       <c r="M60" s="21"/>
     </row>
-    <row r="61" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>134</v>
       </c>
@@ -42972,7 +42971,7 @@
       <c r="L61" s="21"/>
       <c r="M61" s="21"/>
     </row>
-    <row r="62" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>135</v>
       </c>
@@ -43001,7 +43000,7 @@
       <c r="L62" s="21"/>
       <c r="M62" s="21"/>
     </row>
-    <row r="63" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>136</v>
       </c>
@@ -43030,7 +43029,7 @@
       <c r="L63" s="21"/>
       <c r="M63" s="21"/>
     </row>
-    <row r="64" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>137</v>
       </c>
@@ -43057,7 +43056,7 @@
       <c r="L64" s="21"/>
       <c r="M64" s="21"/>
     </row>
-    <row r="65" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>139</v>
       </c>
@@ -43084,7 +43083,7 @@
       <c r="L65" s="21"/>
       <c r="M65" s="21"/>
     </row>
-    <row r="66" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>141</v>
       </c>
@@ -43111,7 +43110,7 @@
       <c r="L66" s="21"/>
       <c r="M66" s="21"/>
     </row>
-    <row r="67" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>142</v>
       </c>
@@ -43138,7 +43137,7 @@
       <c r="L67" s="21"/>
       <c r="M67" s="21"/>
     </row>
-    <row r="68" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>143</v>
       </c>
@@ -43165,7 +43164,7 @@
       <c r="L68" s="21"/>
       <c r="M68" s="21"/>
     </row>
-    <row r="69" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>145</v>
       </c>
@@ -43192,7 +43191,7 @@
       <c r="L69" s="21"/>
       <c r="M69" s="21"/>
     </row>
-    <row r="70" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>146</v>
       </c>
@@ -43219,7 +43218,7 @@
       <c r="L70" s="21"/>
       <c r="M70" s="21"/>
     </row>
-    <row r="71" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>147</v>
       </c>
@@ -43246,7 +43245,7 @@
       <c r="L71" s="21"/>
       <c r="M71" s="21"/>
     </row>
-    <row r="72" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>150</v>
       </c>
@@ -43273,7 +43272,7 @@
       <c r="L72" s="21"/>
       <c r="M72" s="21"/>
     </row>
-    <row r="73" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>151</v>
       </c>
@@ -43300,7 +43299,7 @@
       <c r="L73" s="21"/>
       <c r="M73" s="21"/>
     </row>
-    <row r="74" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>152</v>
       </c>
@@ -43327,7 +43326,7 @@
       <c r="L74" s="21"/>
       <c r="M74" s="21"/>
     </row>
-    <row r="75" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>153</v>
       </c>
@@ -43354,7 +43353,7 @@
       <c r="L75" s="21"/>
       <c r="M75" s="21"/>
     </row>
-    <row r="76" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>155</v>
       </c>
@@ -43381,7 +43380,7 @@
       <c r="L76" s="21"/>
       <c r="M76" s="21"/>
     </row>
-    <row r="77" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>156</v>
       </c>
@@ -43408,7 +43407,7 @@
       <c r="L77" s="21"/>
       <c r="M77" s="21"/>
     </row>
-    <row r="78" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
         <v>157</v>
       </c>
@@ -43435,7 +43434,7 @@
       <c r="L78" s="21"/>
       <c r="M78" s="21"/>
     </row>
-    <row r="79" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
         <v>160</v>
       </c>
@@ -43462,7 +43461,7 @@
       <c r="L79" s="21"/>
       <c r="M79" s="21"/>
     </row>
-    <row r="80" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
         <v>162</v>
       </c>
@@ -43489,7 +43488,7 @@
       <c r="L80" s="21"/>
       <c r="M80" s="21"/>
     </row>
-    <row r="81" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
         <v>164</v>
       </c>
@@ -43516,7 +43515,7 @@
       <c r="L81" s="21"/>
       <c r="M81" s="21"/>
     </row>
-    <row r="82" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
         <v>166</v>
       </c>
@@ -43543,7 +43542,7 @@
       <c r="L82" s="21"/>
       <c r="M82" s="21"/>
     </row>
-    <row r="83" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
         <v>168</v>
       </c>
@@ -43570,7 +43569,7 @@
       <c r="L83" s="21"/>
       <c r="M83" s="21"/>
     </row>
-    <row r="84" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
         <v>170</v>
       </c>
@@ -43597,7 +43596,7 @@
       <c r="L84" s="21"/>
       <c r="M84" s="21"/>
     </row>
-    <row r="85" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
         <v>171</v>
       </c>
@@ -43624,7 +43623,7 @@
       <c r="L85" s="21"/>
       <c r="M85" s="21"/>
     </row>
-    <row r="86" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
         <v>173</v>
       </c>
@@ -43651,7 +43650,7 @@
       <c r="L86" s="21"/>
       <c r="M86" s="21"/>
     </row>
-    <row r="87" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
         <v>174</v>
       </c>
@@ -43678,7 +43677,7 @@
       <c r="L87" s="21"/>
       <c r="M87" s="21"/>
     </row>
-    <row r="88" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
         <v>175</v>
       </c>
@@ -43705,7 +43704,7 @@
       <c r="L88" s="21"/>
       <c r="M88" s="21"/>
     </row>
-    <row r="89" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
         <v>176</v>
       </c>
@@ -43732,7 +43731,7 @@
       <c r="L89" s="21"/>
       <c r="M89" s="21"/>
     </row>
-    <row r="90" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
         <v>177</v>
       </c>
@@ -43759,7 +43758,7 @@
       <c r="L90" s="21"/>
       <c r="M90" s="21"/>
     </row>
-    <row r="91" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
         <v>178</v>
       </c>
@@ -43786,7 +43785,7 @@
       <c r="L91" s="21"/>
       <c r="M91" s="21"/>
     </row>
-    <row r="92" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
         <v>179</v>
       </c>
@@ -43813,7 +43812,7 @@
       <c r="L92" s="21"/>
       <c r="M92" s="21"/>
     </row>
-    <row r="93" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
         <v>180</v>
       </c>
@@ -43840,7 +43839,7 @@
       <c r="L93" s="21"/>
       <c r="M93" s="21"/>
     </row>
-    <row r="94" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
         <v>181</v>
       </c>
@@ -43867,7 +43866,7 @@
       <c r="L94" s="21"/>
       <c r="M94" s="21"/>
     </row>
-    <row r="95" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="s">
         <v>182</v>
       </c>
@@ -43894,7 +43893,7 @@
       <c r="L95" s="21"/>
       <c r="M95" s="21"/>
     </row>
-    <row r="96" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="s">
         <v>183</v>
       </c>
@@ -43921,7 +43920,7 @@
       <c r="L96" s="21"/>
       <c r="M96" s="21"/>
     </row>
-    <row r="97" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="s">
         <v>184</v>
       </c>
@@ -43948,7 +43947,7 @@
       <c r="L97" s="21"/>
       <c r="M97" s="21"/>
     </row>
-    <row r="98" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="s">
         <v>185</v>
       </c>
@@ -43975,7 +43974,7 @@
       <c r="L98" s="21"/>
       <c r="M98" s="21"/>
     </row>
-    <row r="99" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
         <v>186</v>
       </c>
@@ -44002,7 +44001,7 @@
       <c r="L99" s="21"/>
       <c r="M99" s="21"/>
     </row>
-    <row r="100" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
         <v>187</v>
       </c>
@@ -44029,7 +44028,7 @@
       <c r="L100" s="21"/>
       <c r="M100" s="21"/>
     </row>
-    <row r="101" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
         <v>188</v>
       </c>
@@ -44056,7 +44055,7 @@
       <c r="L101" s="21"/>
       <c r="M101" s="21"/>
     </row>
-    <row r="102" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
         <v>189</v>
       </c>
@@ -44083,7 +44082,7 @@
       <c r="L102" s="21"/>
       <c r="M102" s="21"/>
     </row>
-    <row r="103" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
         <v>190</v>
       </c>
@@ -44108,7 +44107,7 @@
       <c r="L103" s="21"/>
       <c r="M103" s="21"/>
     </row>
-    <row r="104" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
         <v>191</v>
       </c>
@@ -44133,7 +44132,7 @@
       <c r="L104" s="21"/>
       <c r="M104" s="21"/>
     </row>
-    <row r="105" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
         <v>192</v>
       </c>
@@ -44158,7 +44157,7 @@
       <c r="L105" s="21"/>
       <c r="M105" s="21"/>
     </row>
-    <row r="106" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
         <v>193</v>
       </c>
@@ -44183,7 +44182,7 @@
       <c r="L106" s="21"/>
       <c r="M106" s="21"/>
     </row>
-    <row r="107" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
         <v>194</v>
       </c>
@@ -44208,7 +44207,7 @@
       <c r="L107" s="21"/>
       <c r="M107" s="21"/>
     </row>
-    <row r="108" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
         <v>195</v>
       </c>
@@ -44233,7 +44232,7 @@
       <c r="L108" s="21"/>
       <c r="M108" s="21"/>
     </row>
-    <row r="109" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
         <v>196</v>
       </c>
@@ -44258,7 +44257,7 @@
       <c r="L109" s="21"/>
       <c r="M109" s="21"/>
     </row>
-    <row r="110" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
         <v>197</v>
       </c>
@@ -44283,7 +44282,7 @@
       <c r="L110" s="21"/>
       <c r="M110" s="21"/>
     </row>
-    <row r="111" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
         <v>198</v>
       </c>
@@ -44308,7 +44307,7 @@
       <c r="L111" s="21"/>
       <c r="M111" s="21"/>
     </row>
-    <row r="112" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
         <v>199</v>
       </c>
@@ -44333,7 +44332,7 @@
       <c r="L112" s="21"/>
       <c r="M112" s="21"/>
     </row>
-    <row r="113" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
         <v>225</v>
       </c>
@@ -44358,7 +44357,7 @@
       <c r="L113" s="21"/>
       <c r="M113" s="21"/>
     </row>
-    <row r="114" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
         <v>226</v>
       </c>
@@ -44383,7 +44382,7 @@
       <c r="L114" s="21"/>
       <c r="M114" s="21"/>
     </row>
-    <row r="115" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
         <v>227</v>
       </c>
@@ -44408,7 +44407,7 @@
       <c r="L115" s="21"/>
       <c r="M115" s="21"/>
     </row>
-    <row r="116" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
         <v>228</v>
       </c>
@@ -44433,7 +44432,7 @@
       <c r="L116" s="21"/>
       <c r="M116" s="21"/>
     </row>
-    <row r="117" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
         <v>229</v>
       </c>
@@ -44458,7 +44457,7 @@
       <c r="L117" s="21"/>
       <c r="M117" s="21"/>
     </row>
-    <row r="118" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
         <v>230</v>
       </c>
@@ -44483,7 +44482,7 @@
       <c r="L118" s="21"/>
       <c r="M118" s="21"/>
     </row>
-    <row r="119" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
         <v>231</v>
       </c>
@@ -44510,7 +44509,7 @@
       <c r="L119" s="21"/>
       <c r="M119" s="21"/>
     </row>
-    <row r="120" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
         <v>232</v>
       </c>
@@ -44537,7 +44536,7 @@
       <c r="L120" s="21"/>
       <c r="M120" s="21"/>
     </row>
-    <row r="121" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
         <v>233</v>
       </c>
@@ -44564,7 +44563,7 @@
       <c r="L121" s="21"/>
       <c r="M121" s="21"/>
     </row>
-    <row r="122" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
         <v>234</v>
       </c>
@@ -44588,7 +44587,7 @@
       <c r="L122" s="21"/>
       <c r="M122" s="21"/>
     </row>
-    <row r="123" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
         <v>235</v>
       </c>
@@ -44615,7 +44614,7 @@
       <c r="L123" s="21"/>
       <c r="M123" s="21"/>
     </row>
-    <row r="124" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
         <v>236</v>
       </c>
@@ -44642,7 +44641,7 @@
       <c r="L124" s="21"/>
       <c r="M124" s="21"/>
     </row>
-    <row r="125" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>297</v>
       </c>
@@ -44677,24 +44676,24 @@
   </sheetPr>
   <dimension ref="A1:L125"/>
   <sheetViews>
-    <sheetView zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.86328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.73046875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.3984375" customWidth="1"/>
-    <col min="5" max="5" width="19.3984375" customWidth="1"/>
-    <col min="6" max="6" width="12.59765625" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
     <col min="7" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="17.59765625" customWidth="1"/>
-    <col min="10" max="10" width="14.73046875" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -44732,7 +44731,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>46</v>
       </c>
@@ -44770,7 +44769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>52</v>
       </c>
@@ -44808,7 +44807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>56</v>
       </c>
@@ -44846,7 +44845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>57</v>
       </c>
@@ -44884,7 +44883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>60</v>
       </c>
@@ -44922,7 +44921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>61</v>
       </c>
@@ -44960,7 +44959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>62</v>
       </c>
@@ -44998,7 +44997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>63</v>
       </c>
@@ -45036,7 +45035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>64</v>
       </c>
@@ -45074,7 +45073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>246</v>
       </c>
@@ -45112,7 +45111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>66</v>
       </c>
@@ -45150,7 +45149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>67</v>
       </c>
@@ -45188,7 +45187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>68</v>
       </c>
@@ -45226,7 +45225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>69</v>
       </c>
@@ -45264,7 +45263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>70</v>
       </c>
@@ -45302,7 +45301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>71</v>
       </c>
@@ -45340,7 +45339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>72</v>
       </c>
@@ -45378,7 +45377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>73</v>
       </c>
@@ -45416,7 +45415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>74</v>
       </c>
@@ -45454,7 +45453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>75</v>
       </c>
@@ -45492,7 +45491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>76</v>
       </c>
@@ -45530,7 +45529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>77</v>
       </c>
@@ -45568,7 +45567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>78</v>
       </c>
@@ -45606,7 +45605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>79</v>
       </c>
@@ -45644,7 +45643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>80</v>
       </c>
@@ -45682,7 +45681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>81</v>
       </c>
@@ -45720,7 +45719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>82</v>
       </c>
@@ -45758,7 +45757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>83</v>
       </c>
@@ -45796,7 +45795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>84</v>
       </c>
@@ -45834,7 +45833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>85</v>
       </c>
@@ -45872,7 +45871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>86</v>
       </c>
@@ -45910,7 +45909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>87</v>
       </c>
@@ -45948,7 +45947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>88</v>
       </c>
@@ -45986,7 +45985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>89</v>
       </c>
@@ -46024,7 +46023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>90</v>
       </c>
@@ -46062,7 +46061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>91</v>
       </c>
@@ -46100,7 +46099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>93</v>
       </c>
@@ -46138,7 +46137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>94</v>
       </c>
@@ -46176,7 +46175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>95</v>
       </c>
@@ -46214,7 +46213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>96</v>
       </c>
@@ -46252,7 +46251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>98</v>
       </c>
@@ -46290,7 +46289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>99</v>
       </c>
@@ -46328,7 +46327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>102</v>
       </c>
@@ -46366,7 +46365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>104</v>
       </c>
@@ -46404,7 +46403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>108</v>
       </c>
@@ -46442,7 +46441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>109</v>
       </c>
@@ -46480,7 +46479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>110</v>
       </c>
@@ -46518,7 +46517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>112</v>
       </c>
@@ -46556,7 +46555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>114</v>
       </c>
@@ -46594,7 +46593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>116</v>
       </c>
@@ -46632,7 +46631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>119</v>
       </c>
@@ -46670,7 +46669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>121</v>
       </c>
@@ -46708,7 +46707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>220</v>
       </c>
@@ -46746,7 +46745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>125</v>
       </c>
@@ -46784,7 +46783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>126</v>
       </c>
@@ -46822,7 +46821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>127</v>
       </c>
@@ -46860,7 +46859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>128</v>
       </c>
@@ -46898,7 +46897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>129</v>
       </c>
@@ -46936,7 +46935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>131</v>
       </c>
@@ -46974,7 +46973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>134</v>
       </c>
@@ -47012,7 +47011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>135</v>
       </c>
@@ -47050,7 +47049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>136</v>
       </c>
@@ -47088,7 +47087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>137</v>
       </c>
@@ -47126,7 +47125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>139</v>
       </c>
@@ -47164,7 +47163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>141</v>
       </c>
@@ -47202,7 +47201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>142</v>
       </c>
@@ -47240,7 +47239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>143</v>
       </c>
@@ -47278,7 +47277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>145</v>
       </c>
@@ -47316,7 +47315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>146</v>
       </c>
@@ -47354,7 +47353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>147</v>
       </c>
@@ -47392,7 +47391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>150</v>
       </c>
@@ -47430,7 +47429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>151</v>
       </c>
@@ -47468,7 +47467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>152</v>
       </c>
@@ -47506,7 +47505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>153</v>
       </c>
@@ -47544,7 +47543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>155</v>
       </c>
@@ -47582,7 +47581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>156</v>
       </c>
@@ -47620,7 +47619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
         <v>157</v>
       </c>
@@ -47658,7 +47657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
         <v>160</v>
       </c>
@@ -47696,7 +47695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
         <v>162</v>
       </c>
@@ -47734,7 +47733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
         <v>164</v>
       </c>
@@ -47772,7 +47771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
         <v>166</v>
       </c>
@@ -47810,7 +47809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
         <v>168</v>
       </c>
@@ -47848,7 +47847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
         <v>170</v>
       </c>
@@ -47886,7 +47885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
         <v>171</v>
       </c>
@@ -47924,7 +47923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
         <v>173</v>
       </c>
@@ -47962,7 +47961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
         <v>174</v>
       </c>
@@ -48000,7 +47999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
         <v>175</v>
       </c>
@@ -48038,7 +48037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
         <v>176</v>
       </c>
@@ -48076,7 +48075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
         <v>177</v>
       </c>
@@ -48114,7 +48113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
         <v>178</v>
       </c>
@@ -48152,7 +48151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
         <v>179</v>
       </c>
@@ -48190,7 +48189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
         <v>180</v>
       </c>
@@ -48228,7 +48227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
         <v>181</v>
       </c>
@@ -48266,7 +48265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="s">
         <v>182</v>
       </c>
@@ -48304,7 +48303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="s">
         <v>183</v>
       </c>
@@ -48342,7 +48341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="s">
         <v>184</v>
       </c>
@@ -48380,7 +48379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="s">
         <v>185</v>
       </c>
@@ -48418,7 +48417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
         <v>186</v>
       </c>
@@ -48456,7 +48455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
         <v>187</v>
       </c>
@@ -48494,7 +48493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
         <v>188</v>
       </c>
@@ -48532,7 +48531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
         <v>189</v>
       </c>
@@ -48570,7 +48569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
         <v>190</v>
       </c>
@@ -48602,7 +48601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
         <v>191</v>
       </c>
@@ -48637,7 +48636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
         <v>192</v>
       </c>
@@ -48669,7 +48668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
         <v>193</v>
       </c>
@@ -48701,7 +48700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
         <v>194</v>
       </c>
@@ -48736,7 +48735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
         <v>195</v>
       </c>
@@ -48768,7 +48767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
         <v>196</v>
       </c>
@@ -48800,7 +48799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
         <v>197</v>
       </c>
@@ -48832,7 +48831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
         <v>198</v>
       </c>
@@ -48864,7 +48863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
         <v>199</v>
       </c>
@@ -48896,7 +48895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
         <v>225</v>
       </c>
@@ -48928,7 +48927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
         <v>226</v>
       </c>
@@ -48960,7 +48959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
         <v>227</v>
       </c>
@@ -48992,7 +48991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
         <v>228</v>
       </c>
@@ -49024,7 +49023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
         <v>229</v>
       </c>
@@ -49056,7 +49055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
         <v>230</v>
       </c>
@@ -49088,7 +49087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
         <v>231</v>
       </c>
@@ -49120,7 +49119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
         <v>232</v>
       </c>
@@ -49152,7 +49151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
         <v>233</v>
       </c>
@@ -49184,7 +49183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
         <v>234</v>
       </c>
@@ -49216,7 +49215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
         <v>235</v>
       </c>
@@ -49248,7 +49247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
         <v>236</v>
       </c>
@@ -49277,7 +49276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="13" t="s">
         <v>44</v>
       </c>
@@ -49320,53 +49319,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AS17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="AK4" sqref="AK4"/>
+    <sheetView zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="20.1328125" customWidth="1"/>
-    <col min="3" max="3" width="16.59765625" customWidth="1"/>
-    <col min="5" max="5" width="9.73046875" customWidth="1"/>
-    <col min="7" max="7" width="10.3984375" customWidth="1"/>
-    <col min="9" max="9" width="12.86328125" customWidth="1"/>
-    <col min="10" max="10" width="16.73046875" customWidth="1"/>
-    <col min="11" max="11" width="15.73046875" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" customWidth="1"/>
     <col min="12" max="12" width="19" customWidth="1"/>
-    <col min="13" max="13" width="18.1328125" customWidth="1"/>
-    <col min="14" max="14" width="13.1328125" customWidth="1"/>
-    <col min="15" max="15" width="15.86328125" customWidth="1"/>
-    <col min="16" max="16" width="16.265625" customWidth="1"/>
-    <col min="17" max="17" width="16.1328125" customWidth="1"/>
-    <col min="18" max="18" width="17.1328125" customWidth="1"/>
-    <col min="19" max="20" width="15.73046875" customWidth="1"/>
-    <col min="21" max="21" width="17.265625" customWidth="1"/>
-    <col min="22" max="22" width="10.86328125" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" customWidth="1"/>
+    <col min="15" max="15" width="15.85546875" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" customWidth="1"/>
+    <col min="17" max="17" width="16.140625" customWidth="1"/>
+    <col min="18" max="18" width="17.140625" customWidth="1"/>
+    <col min="19" max="20" width="15.7109375" customWidth="1"/>
+    <col min="21" max="21" width="17.28515625" customWidth="1"/>
+    <col min="22" max="22" width="10.85546875" customWidth="1"/>
     <col min="23" max="23" width="14" customWidth="1"/>
-    <col min="24" max="25" width="13.86328125" customWidth="1"/>
-    <col min="26" max="26" width="20.3984375" customWidth="1"/>
-    <col min="27" max="27" width="13.1328125" customWidth="1"/>
-    <col min="28" max="28" width="20.86328125" customWidth="1"/>
-    <col min="29" max="29" width="11.3984375" customWidth="1"/>
-    <col min="30" max="30" width="10.86328125" customWidth="1"/>
-    <col min="31" max="31" width="11.59765625" customWidth="1"/>
-    <col min="32" max="32" width="19.86328125" customWidth="1"/>
-    <col min="33" max="34" width="11.265625" customWidth="1"/>
-    <col min="35" max="35" width="28.3984375" customWidth="1"/>
-    <col min="36" max="36" width="33.265625" customWidth="1"/>
-    <col min="37" max="37" width="11.1328125" customWidth="1"/>
-    <col min="38" max="38" width="18.73046875" customWidth="1"/>
-    <col min="39" max="39" width="17.73046875" customWidth="1"/>
-    <col min="40" max="40" width="18.59765625" customWidth="1"/>
-    <col min="41" max="41" width="17.265625" customWidth="1"/>
-    <col min="42" max="43" width="19.3984375" customWidth="1"/>
-    <col min="44" max="44" width="16.86328125" customWidth="1"/>
-    <col min="45" max="45" width="12.59765625" customWidth="1"/>
+    <col min="24" max="25" width="13.85546875" customWidth="1"/>
+    <col min="26" max="26" width="20.42578125" customWidth="1"/>
+    <col min="27" max="27" width="13.140625" customWidth="1"/>
+    <col min="28" max="28" width="20.85546875" customWidth="1"/>
+    <col min="29" max="29" width="11.42578125" customWidth="1"/>
+    <col min="30" max="30" width="10.85546875" customWidth="1"/>
+    <col min="31" max="31" width="11.5703125" customWidth="1"/>
+    <col min="32" max="32" width="19.85546875" customWidth="1"/>
+    <col min="33" max="34" width="11.28515625" customWidth="1"/>
+    <col min="35" max="35" width="28.42578125" customWidth="1"/>
+    <col min="36" max="36" width="33.28515625" customWidth="1"/>
+    <col min="37" max="37" width="11.140625" customWidth="1"/>
+    <col min="38" max="38" width="18.7109375" customWidth="1"/>
+    <col min="39" max="39" width="17.7109375" customWidth="1"/>
+    <col min="40" max="40" width="18.5703125" customWidth="1"/>
+    <col min="41" max="41" width="17.28515625" customWidth="1"/>
+    <col min="42" max="43" width="19.42578125" customWidth="1"/>
+    <col min="44" max="44" width="16.85546875" customWidth="1"/>
+    <col min="45" max="45" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="31" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:45" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>323</v>
       </c>
@@ -49503,7 +49502,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>312</v>
       </c>
@@ -49640,7 +49639,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="3" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>360</v>
       </c>
@@ -49777,7 +49776,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="4" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>320</v>
       </c>
@@ -49914,7 +49913,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="5" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>359</v>
       </c>
@@ -50051,7 +50050,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="6" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>322</v>
       </c>
@@ -50188,7 +50187,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="7" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>330</v>
       </c>
@@ -50325,7 +50324,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="8" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>313</v>
       </c>
@@ -50431,7 +50430,7 @@
       <c r="AI8" t="s">
         <v>304</v>
       </c>
-      <c r="AJ8" s="37" t="s">
+      <c r="AJ8" t="s">
         <v>357</v>
       </c>
       <c r="AK8">
@@ -50462,7 +50461,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="9" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>337</v>
       </c>
@@ -50599,7 +50598,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="10" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>336</v>
       </c>
@@ -50736,7 +50735,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="11" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>338</v>
       </c>
@@ -50873,7 +50872,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="12" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>335</v>
       </c>
@@ -51010,7 +51009,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="14" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -51055,7 +51054,7 @@
       <c r="AQ14" s="30"/>
       <c r="AR14" s="30"/>
     </row>
-    <row r="17" spans="21:30" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="21:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U17" s="16"/>
       <c r="V17" s="17"/>
       <c r="W17" s="16"/>
